--- a/COVID19-Recovered.xlsx
+++ b/COVID19-Recovered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="128">
   <si>
     <t>Province/State</t>
   </si>
@@ -154,6 +154,15 @@
     <t>2/12/20 22:00</t>
   </si>
   <si>
+    <t>2/13/20 10:00</t>
+  </si>
+  <si>
+    <t>2/13/20 21:15</t>
+  </si>
+  <si>
+    <t>2/14/20 11:23</t>
+  </si>
+  <si>
     <t>Anhui</t>
   </si>
   <si>
@@ -308,6 +317,9 @@
   </si>
   <si>
     <t>San Diego County, CA</t>
+  </si>
+  <si>
+    <t>San Antonio, TX</t>
   </si>
   <si>
     <t>Mainland China</t>
@@ -743,13 +755,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT74"/>
+  <dimension ref="A1:AW75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,13 +900,22 @@
       <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C2">
         <v>31.82571</v>
@@ -1028,13 +1049,22 @@
       <c r="AT2">
         <v>128</v>
       </c>
+      <c r="AU2">
+        <v>157</v>
+      </c>
+      <c r="AV2">
+        <v>166</v>
+      </c>
+      <c r="AW2">
+        <v>193</v>
+      </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:49">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C3">
         <v>40.18238</v>
@@ -1168,13 +1198,22 @@
       <c r="AT3">
         <v>68</v>
       </c>
+      <c r="AU3">
+        <v>69</v>
+      </c>
+      <c r="AV3">
+        <v>69</v>
+      </c>
+      <c r="AW3">
+        <v>80</v>
+      </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:49">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>30.05718</v>
@@ -1308,13 +1347,22 @@
       <c r="AT4">
         <v>102</v>
       </c>
+      <c r="AU4">
+        <v>128</v>
+      </c>
+      <c r="AV4">
+        <v>128</v>
+      </c>
+      <c r="AW4">
+        <v>139</v>
+      </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:49">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>26.07783</v>
@@ -1448,13 +1496,22 @@
       <c r="AT5">
         <v>54</v>
       </c>
+      <c r="AU5">
+        <v>57</v>
+      </c>
+      <c r="AV5">
+        <v>59</v>
+      </c>
+      <c r="AW5">
+        <v>63</v>
+      </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C6">
         <v>36.0611</v>
@@ -1588,13 +1645,22 @@
       <c r="AT6">
         <v>31</v>
       </c>
+      <c r="AU6">
+        <v>34</v>
+      </c>
+      <c r="AV6">
+        <v>39</v>
+      </c>
+      <c r="AW6">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C7">
         <v>23.33841</v>
@@ -1728,13 +1794,22 @@
       <c r="AT7">
         <v>284</v>
       </c>
+      <c r="AU7">
+        <v>314</v>
+      </c>
+      <c r="AV7">
+        <v>332</v>
+      </c>
+      <c r="AW7">
+        <v>362</v>
+      </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C8">
         <v>23.82908</v>
@@ -1868,13 +1943,22 @@
       <c r="AT8">
         <v>33</v>
       </c>
+      <c r="AU8">
+        <v>33</v>
+      </c>
+      <c r="AV8">
+        <v>35</v>
+      </c>
+      <c r="AW8">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C9">
         <v>26.81536</v>
@@ -2008,13 +2092,22 @@
       <c r="AT9">
         <v>20</v>
       </c>
+      <c r="AU9">
+        <v>27</v>
+      </c>
+      <c r="AV9">
+        <v>28</v>
+      </c>
+      <c r="AW9">
+        <v>28</v>
+      </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C10">
         <v>19.19673</v>
@@ -2148,13 +2241,22 @@
       <c r="AT10">
         <v>27</v>
       </c>
+      <c r="AU10">
+        <v>30</v>
+      </c>
+      <c r="AV10">
+        <v>30</v>
+      </c>
+      <c r="AW10">
+        <v>43</v>
+      </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C11">
         <v>38.0428</v>
@@ -2288,13 +2390,22 @@
       <c r="AT11">
         <v>55</v>
       </c>
+      <c r="AU11">
+        <v>68</v>
+      </c>
+      <c r="AV11">
+        <v>69</v>
+      </c>
+      <c r="AW11">
+        <v>87</v>
+      </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C12">
         <v>47.862</v>
@@ -2428,13 +2539,22 @@
       <c r="AT12">
         <v>31</v>
       </c>
+      <c r="AU12">
+        <v>33</v>
+      </c>
+      <c r="AV12">
+        <v>37</v>
+      </c>
+      <c r="AW12">
+        <v>47</v>
+      </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C13">
         <v>33.88202</v>
@@ -2568,13 +2688,22 @@
       <c r="AT13">
         <v>258</v>
       </c>
+      <c r="AU13">
+        <v>296</v>
+      </c>
+      <c r="AV13">
+        <v>313</v>
+      </c>
+      <c r="AW13">
+        <v>357</v>
+      </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C14">
         <v>30.97564</v>
@@ -2708,13 +2837,22 @@
       <c r="AT14">
         <v>3441</v>
       </c>
+      <c r="AU14">
+        <v>3459</v>
+      </c>
+      <c r="AV14">
+        <v>4131</v>
+      </c>
+      <c r="AW14">
+        <v>3900</v>
+      </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:49">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C15">
         <v>27.61041</v>
@@ -2848,13 +2986,22 @@
       <c r="AT15">
         <v>312</v>
       </c>
+      <c r="AU15">
+        <v>339</v>
+      </c>
+      <c r="AV15">
+        <v>352</v>
+      </c>
+      <c r="AW15">
+        <v>364</v>
+      </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C16">
         <v>44.09448</v>
@@ -2988,13 +3135,22 @@
       <c r="AT16">
         <v>6</v>
       </c>
+      <c r="AU16">
+        <v>6</v>
+      </c>
+      <c r="AV16">
+        <v>6</v>
+      </c>
+      <c r="AW16">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:46">
+    <row r="17" spans="1:49">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C17">
         <v>32.97027</v>
@@ -3128,13 +3284,22 @@
       <c r="AT17">
         <v>131</v>
       </c>
+      <c r="AU17">
+        <v>139</v>
+      </c>
+      <c r="AV17">
+        <v>137</v>
+      </c>
+      <c r="AW17">
+        <v>157</v>
+      </c>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:49">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C18">
         <v>27.61401</v>
@@ -3268,13 +3433,22 @@
       <c r="AT18">
         <v>170</v>
       </c>
+      <c r="AU18">
+        <v>170</v>
+      </c>
+      <c r="AV18">
+        <v>187</v>
+      </c>
+      <c r="AW18">
+        <v>187</v>
+      </c>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:49">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C19">
         <v>43.66657</v>
@@ -3408,13 +3582,22 @@
       <c r="AT19">
         <v>22</v>
       </c>
+      <c r="AU19">
+        <v>24</v>
+      </c>
+      <c r="AV19">
+        <v>25</v>
+      </c>
+      <c r="AW19">
+        <v>25</v>
+      </c>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:49">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C20">
         <v>41.29284000000001</v>
@@ -3548,13 +3731,22 @@
       <c r="AT20">
         <v>21</v>
       </c>
+      <c r="AU20">
+        <v>22</v>
+      </c>
+      <c r="AV20">
+        <v>22</v>
+      </c>
+      <c r="AW20">
+        <v>29</v>
+      </c>
     </row>
-    <row r="21" spans="1:46">
+    <row r="21" spans="1:49">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C21">
         <v>37.26923</v>
@@ -3688,13 +3880,22 @@
       <c r="AT21">
         <v>24</v>
       </c>
+      <c r="AU21">
+        <v>24</v>
+      </c>
+      <c r="AV21">
+        <v>24</v>
+      </c>
+      <c r="AW21">
+        <v>24</v>
+      </c>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:49">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C22">
         <v>35.65945</v>
@@ -3828,13 +4029,22 @@
       <c r="AT22">
         <v>9</v>
       </c>
+      <c r="AU22">
+        <v>11</v>
+      </c>
+      <c r="AV22">
+        <v>11</v>
+      </c>
+      <c r="AW22">
+        <v>11</v>
+      </c>
     </row>
-    <row r="23" spans="1:46">
+    <row r="23" spans="1:49">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C23">
         <v>35.19165</v>
@@ -3968,13 +4178,22 @@
       <c r="AT23">
         <v>42</v>
       </c>
+      <c r="AU23">
+        <v>46</v>
+      </c>
+      <c r="AV23">
+        <v>46</v>
+      </c>
+      <c r="AW23">
+        <v>54</v>
+      </c>
     </row>
-    <row r="24" spans="1:46">
+    <row r="24" spans="1:49">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C24">
         <v>36.34377</v>
@@ -4108,13 +4327,22 @@
       <c r="AT24">
         <v>98</v>
       </c>
+      <c r="AU24">
+        <v>105</v>
+      </c>
+      <c r="AV24">
+        <v>111</v>
+      </c>
+      <c r="AW24">
+        <v>136</v>
+      </c>
     </row>
-    <row r="25" spans="1:46">
+    <row r="25" spans="1:49">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C25">
         <v>31.20327</v>
@@ -4248,13 +4476,22 @@
       <c r="AT25">
         <v>57</v>
       </c>
+      <c r="AU25">
+        <v>62</v>
+      </c>
+      <c r="AV25">
+        <v>62</v>
+      </c>
+      <c r="AW25">
+        <v>90</v>
+      </c>
     </row>
-    <row r="26" spans="1:46">
+    <row r="26" spans="1:49">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C26">
         <v>37.57769</v>
@@ -4388,13 +4625,22 @@
       <c r="AT26">
         <v>33</v>
       </c>
+      <c r="AU26">
+        <v>33</v>
+      </c>
+      <c r="AV26">
+        <v>36</v>
+      </c>
+      <c r="AW26">
+        <v>38</v>
+      </c>
     </row>
-    <row r="27" spans="1:46">
+    <row r="27" spans="1:49">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C27">
         <v>30.61714000000001</v>
@@ -4528,13 +4774,22 @@
       <c r="AT27">
         <v>93</v>
       </c>
+      <c r="AU27">
+        <v>104</v>
+      </c>
+      <c r="AV27">
+        <v>105</v>
+      </c>
+      <c r="AW27">
+        <v>114</v>
+      </c>
     </row>
-    <row r="28" spans="1:46">
+    <row r="28" spans="1:49">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C28">
         <v>39.29362</v>
@@ -4668,13 +4923,22 @@
       <c r="AT28">
         <v>11</v>
       </c>
+      <c r="AU28">
+        <v>21</v>
+      </c>
+      <c r="AV28">
+        <v>21</v>
+      </c>
+      <c r="AW28">
+        <v>31</v>
+      </c>
     </row>
-    <row r="29" spans="1:46">
+    <row r="29" spans="1:49">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C29">
         <v>30.1534</v>
@@ -4808,13 +5072,22 @@
       <c r="AT29">
         <v>1</v>
       </c>
+      <c r="AU29">
+        <v>1</v>
+      </c>
+      <c r="AV29">
+        <v>1</v>
+      </c>
+      <c r="AW29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:46">
+    <row r="30" spans="1:49">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C30">
         <v>41.11981</v>
@@ -4948,13 +5221,22 @@
       <c r="AT30">
         <v>3</v>
       </c>
+      <c r="AU30">
+        <v>6</v>
+      </c>
+      <c r="AV30">
+        <v>6</v>
+      </c>
+      <c r="AW30">
+        <v>6</v>
+      </c>
     </row>
-    <row r="31" spans="1:46">
+    <row r="31" spans="1:49">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C31">
         <v>24.97411</v>
@@ -5088,13 +5370,22 @@
       <c r="AT31">
         <v>23</v>
       </c>
+      <c r="AU31">
+        <v>27</v>
+      </c>
+      <c r="AV31">
+        <v>27</v>
+      </c>
+      <c r="AW31">
+        <v>36</v>
+      </c>
     </row>
-    <row r="32" spans="1:46">
+    <row r="32" spans="1:49">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C32">
         <v>29.18251</v>
@@ -5228,13 +5519,22 @@
       <c r="AT32">
         <v>327</v>
       </c>
+      <c r="AU32">
+        <v>360</v>
+      </c>
+      <c r="AV32">
+        <v>367</v>
+      </c>
+      <c r="AW32">
+        <v>403</v>
+      </c>
     </row>
-    <row r="33" spans="1:46">
+    <row r="33" spans="1:49">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C33">
         <v>22.3193</v>
@@ -5368,13 +5668,22 @@
       <c r="AT33">
         <v>1</v>
       </c>
+      <c r="AU33">
+        <v>1</v>
+      </c>
+      <c r="AV33">
+        <v>1</v>
+      </c>
+      <c r="AW33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:46">
+    <row r="34" spans="1:49">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C34">
         <v>22.1987</v>
@@ -5508,13 +5817,22 @@
       <c r="AT34">
         <v>2</v>
       </c>
+      <c r="AU34">
+        <v>3</v>
+      </c>
+      <c r="AV34">
+        <v>3</v>
+      </c>
+      <c r="AW34">
+        <v>3</v>
+      </c>
     </row>
-    <row r="35" spans="1:46">
+    <row r="35" spans="1:49">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C35">
         <v>23.6978</v>
@@ -5648,13 +5966,22 @@
       <c r="AT35">
         <v>1</v>
       </c>
+      <c r="AU35">
+        <v>1</v>
+      </c>
+      <c r="AV35">
+        <v>1</v>
+      </c>
+      <c r="AW35">
+        <v>2</v>
+      </c>
     </row>
-    <row r="36" spans="1:46">
+    <row r="36" spans="1:49">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C36">
         <v>47.7511</v>
@@ -5788,13 +6115,22 @@
       <c r="AT36">
         <v>1</v>
       </c>
+      <c r="AU36">
+        <v>1</v>
+      </c>
+      <c r="AV36">
+        <v>1</v>
+      </c>
+      <c r="AW36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:46">
+    <row r="37" spans="1:49">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C37">
         <v>40.6331</v>
@@ -5928,13 +6264,22 @@
       <c r="AT37">
         <v>2</v>
       </c>
+      <c r="AU37">
+        <v>2</v>
+      </c>
+      <c r="AV37">
+        <v>2</v>
+      </c>
+      <c r="AW37">
+        <v>2</v>
+      </c>
     </row>
-    <row r="38" spans="1:46">
+    <row r="38" spans="1:49">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C38">
         <v>34.0489</v>
@@ -6068,10 +6413,19 @@
       <c r="AT38">
         <v>0</v>
       </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:46">
+    <row r="39" spans="1:49">
       <c r="B39" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C39">
         <v>35.6762</v>
@@ -6205,10 +6559,19 @@
       <c r="AT39">
         <v>9</v>
       </c>
+      <c r="AU39">
+        <v>9</v>
+      </c>
+      <c r="AV39">
+        <v>9</v>
+      </c>
+      <c r="AW39">
+        <v>9</v>
+      </c>
     </row>
-    <row r="40" spans="1:46">
+    <row r="40" spans="1:49">
       <c r="B40" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C40">
         <v>13.7563</v>
@@ -6342,10 +6705,19 @@
       <c r="AT40">
         <v>10</v>
       </c>
+      <c r="AU40">
+        <v>10</v>
+      </c>
+      <c r="AV40">
+        <v>12</v>
+      </c>
+      <c r="AW40">
+        <v>12</v>
+      </c>
     </row>
-    <row r="41" spans="1:46">
+    <row r="41" spans="1:49">
       <c r="B41" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C41">
         <v>37.5665</v>
@@ -6479,10 +6851,19 @@
       <c r="AT41">
         <v>7</v>
       </c>
+      <c r="AU41">
+        <v>7</v>
+      </c>
+      <c r="AV41">
+        <v>7</v>
+      </c>
+      <c r="AW41">
+        <v>7</v>
+      </c>
     </row>
-    <row r="42" spans="1:46">
+    <row r="42" spans="1:49">
       <c r="B42" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C42">
         <v>1.3521</v>
@@ -6616,10 +6997,19 @@
       <c r="AT42">
         <v>15</v>
       </c>
+      <c r="AU42">
+        <v>15</v>
+      </c>
+      <c r="AV42">
+        <v>15</v>
+      </c>
+      <c r="AW42">
+        <v>17</v>
+      </c>
     </row>
-    <row r="43" spans="1:46">
+    <row r="43" spans="1:49">
       <c r="B43" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C43">
         <v>21.0278</v>
@@ -6753,10 +7143,19 @@
       <c r="AT43">
         <v>6</v>
       </c>
+      <c r="AU43">
+        <v>7</v>
+      </c>
+      <c r="AV43">
+        <v>7</v>
+      </c>
+      <c r="AW43">
+        <v>7</v>
+      </c>
     </row>
-    <row r="44" spans="1:46">
+    <row r="44" spans="1:49">
       <c r="B44" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C44">
         <v>46.2276</v>
@@ -6890,10 +7289,19 @@
       <c r="AT44">
         <v>2</v>
       </c>
+      <c r="AU44">
+        <v>2</v>
+      </c>
+      <c r="AV44">
+        <v>2</v>
+      </c>
+      <c r="AW44">
+        <v>2</v>
+      </c>
     </row>
-    <row r="45" spans="1:46">
+    <row r="45" spans="1:49">
       <c r="B45" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C45">
         <v>28.3949</v>
@@ -7027,10 +7435,19 @@
       <c r="AT45">
         <v>1</v>
       </c>
+      <c r="AU45">
+        <v>1</v>
+      </c>
+      <c r="AV45">
+        <v>1</v>
+      </c>
+      <c r="AW45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:46">
+    <row r="46" spans="1:49">
       <c r="B46" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C46">
         <v>4.2105</v>
@@ -7164,13 +7581,22 @@
       <c r="AT46">
         <v>3</v>
       </c>
+      <c r="AU46">
+        <v>3</v>
+      </c>
+      <c r="AV46">
+        <v>3</v>
+      </c>
+      <c r="AW46">
+        <v>3</v>
+      </c>
     </row>
-    <row r="47" spans="1:46">
+    <row r="47" spans="1:49">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C47">
         <v>43.6532</v>
@@ -7304,13 +7730,22 @@
       <c r="AT47">
         <v>0</v>
       </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:46">
+    <row r="48" spans="1:49">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C48">
         <v>49.2827</v>
@@ -7444,13 +7879,22 @@
       <c r="AT48">
         <v>0</v>
       </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:46">
+    <row r="49" spans="1:49">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C49">
         <v>33.7879</v>
@@ -7584,13 +8028,22 @@
       <c r="AT49">
         <v>0</v>
       </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:46">
+    <row r="50" spans="1:49">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C50">
         <v>34.0522</v>
@@ -7724,13 +8177,22 @@
       <c r="AT50">
         <v>0</v>
       </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:46">
+    <row r="51" spans="1:49">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C51">
         <v>-33.8688</v>
@@ -7864,13 +8326,22 @@
       <c r="AT51">
         <v>2</v>
       </c>
+      <c r="AU51">
+        <v>2</v>
+      </c>
+      <c r="AV51">
+        <v>4</v>
+      </c>
+      <c r="AW51">
+        <v>4</v>
+      </c>
     </row>
-    <row r="52" spans="1:46">
+    <row r="52" spans="1:49">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C52">
         <v>-37.8136</v>
@@ -8004,13 +8475,22 @@
       <c r="AT52">
         <v>0</v>
       </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>4</v>
+      </c>
+      <c r="AW52">
+        <v>4</v>
+      </c>
     </row>
-    <row r="53" spans="1:46">
+    <row r="53" spans="1:49">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C53">
         <v>-27.4698</v>
@@ -8144,10 +8624,19 @@
       <c r="AT53">
         <v>0</v>
       </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:46">
+    <row r="54" spans="1:49">
       <c r="B54" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C54">
         <v>12.5657</v>
@@ -8281,10 +8770,19 @@
       <c r="AT54">
         <v>1</v>
       </c>
+      <c r="AU54">
+        <v>1</v>
+      </c>
+      <c r="AV54">
+        <v>1</v>
+      </c>
+      <c r="AW54">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:46">
+    <row r="55" spans="1:49">
       <c r="B55" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C55">
         <v>7.8731</v>
@@ -8418,10 +8916,19 @@
       <c r="AT55">
         <v>1</v>
       </c>
+      <c r="AU55">
+        <v>1</v>
+      </c>
+      <c r="AV55">
+        <v>1</v>
+      </c>
+      <c r="AW55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:46">
+    <row r="56" spans="1:49">
       <c r="B56" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C56">
         <v>51.1657</v>
@@ -8555,10 +9062,19 @@
       <c r="AT56">
         <v>0</v>
       </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>1</v>
+      </c>
+      <c r="AW56">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:46">
+    <row r="57" spans="1:49">
       <c r="B57" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C57">
         <v>61.9241</v>
@@ -8692,10 +9208,19 @@
       <c r="AT57">
         <v>1</v>
       </c>
+      <c r="AU57">
+        <v>1</v>
+      </c>
+      <c r="AV57">
+        <v>1</v>
+      </c>
+      <c r="AW57">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:46">
+    <row r="58" spans="1:49">
       <c r="B58" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C58">
         <v>23.4241</v>
@@ -8829,10 +9354,19 @@
       <c r="AT58">
         <v>1</v>
       </c>
+      <c r="AU58">
+        <v>1</v>
+      </c>
+      <c r="AV58">
+        <v>1</v>
+      </c>
+      <c r="AW58">
+        <v>1</v>
+      </c>
     </row>
-    <row r="59" spans="1:46">
+    <row r="59" spans="1:49">
       <c r="B59" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C59">
         <v>12.8797</v>
@@ -8966,10 +9500,19 @@
       <c r="AT59">
         <v>1</v>
       </c>
+      <c r="AU59">
+        <v>1</v>
+      </c>
+      <c r="AV59">
+        <v>1</v>
+      </c>
+      <c r="AW59">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:46">
+    <row r="60" spans="1:49">
       <c r="B60" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C60">
         <v>20.5937</v>
@@ -9103,13 +9646,22 @@
       <c r="AT60">
         <v>0</v>
       </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+      <c r="AV60">
+        <v>0</v>
+      </c>
+      <c r="AW60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:46">
+    <row r="61" spans="1:49">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C61">
         <v>42.9849</v>
@@ -9243,10 +9795,19 @@
       <c r="AT61">
         <v>1</v>
       </c>
+      <c r="AU61">
+        <v>1</v>
+      </c>
+      <c r="AV61">
+        <v>1</v>
+      </c>
+      <c r="AW61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:46">
+    <row r="62" spans="1:49">
       <c r="B62" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C62">
         <v>41.8719</v>
@@ -9380,10 +9941,19 @@
       <c r="AT62">
         <v>0</v>
       </c>
+      <c r="AU62">
+        <v>0</v>
+      </c>
+      <c r="AV62">
+        <v>0</v>
+      </c>
+      <c r="AW62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:46">
+    <row r="63" spans="1:49">
       <c r="B63" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C63">
         <v>55.3781</v>
@@ -9517,10 +10087,19 @@
       <c r="AT63">
         <v>1</v>
       </c>
+      <c r="AU63">
+        <v>1</v>
+      </c>
+      <c r="AV63">
+        <v>1</v>
+      </c>
+      <c r="AW63">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:46">
+    <row r="64" spans="1:49">
       <c r="B64" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C64">
         <v>61.524</v>
@@ -9654,10 +10233,19 @@
       <c r="AT64">
         <v>2</v>
       </c>
+      <c r="AU64">
+        <v>2</v>
+      </c>
+      <c r="AV64">
+        <v>2</v>
+      </c>
+      <c r="AW64">
+        <v>2</v>
+      </c>
     </row>
-    <row r="65" spans="1:46">
+    <row r="65" spans="1:49">
       <c r="B65" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C65">
         <v>60.1282</v>
@@ -9791,13 +10379,22 @@
       <c r="AT65">
         <v>0</v>
       </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65">
+        <v>0</v>
+      </c>
+      <c r="AW65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:46">
+    <row r="66" spans="1:49">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C66">
         <v>37.3541</v>
@@ -9931,10 +10528,19 @@
       <c r="AT66">
         <v>0</v>
       </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
+      <c r="AV66">
+        <v>0</v>
+      </c>
+      <c r="AW66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:46">
+    <row r="67" spans="1:49">
       <c r="B67" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C67">
         <v>40.4637</v>
@@ -10068,13 +10674,22 @@
       <c r="AT67">
         <v>0</v>
       </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AV67">
+        <v>0</v>
+      </c>
+      <c r="AW67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:46">
+    <row r="68" spans="1:49">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C68">
         <v>-34.9285</v>
@@ -10208,13 +10823,22 @@
       <c r="AT68">
         <v>0</v>
       </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68">
+        <v>0</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:46">
+    <row r="69" spans="1:49">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C69">
         <v>42.3601</v>
@@ -10348,13 +10972,22 @@
       <c r="AT69">
         <v>0</v>
       </c>
+      <c r="AU69">
+        <v>0</v>
+      </c>
+      <c r="AV69">
+        <v>0</v>
+      </c>
+      <c r="AW69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:46">
+    <row r="70" spans="1:49">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C70">
         <v>36.5761</v>
@@ -10488,10 +11121,19 @@
       <c r="AT70">
         <v>0</v>
       </c>
+      <c r="AU70">
+        <v>0</v>
+      </c>
+      <c r="AV70">
+        <v>0</v>
+      </c>
+      <c r="AW70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:46">
+    <row r="71" spans="1:49">
       <c r="B71" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C71">
         <v>50.5039</v>
@@ -10625,13 +11267,22 @@
       <c r="AT71">
         <v>0</v>
       </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
+      <c r="AV71">
+        <v>0</v>
+      </c>
+      <c r="AW71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:46">
+    <row r="72" spans="1:49">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C72">
         <v>43.0731</v>
@@ -10765,13 +11416,22 @@
       <c r="AT72">
         <v>0</v>
       </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AV72">
+        <v>0</v>
+      </c>
+      <c r="AW72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:46">
+    <row r="73" spans="1:49">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C73">
         <v>35.4437</v>
@@ -10905,13 +11565,22 @@
       <c r="AT73">
         <v>0</v>
       </c>
+      <c r="AU73">
+        <v>0</v>
+      </c>
+      <c r="AV73">
+        <v>0</v>
+      </c>
+      <c r="AW73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:46">
+    <row r="74" spans="1:49">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C74">
         <v>32.7157</v>
@@ -11043,6 +11712,164 @@
         <v>0</v>
       </c>
       <c r="AT74">
+        <v>0</v>
+      </c>
+      <c r="AU74">
+        <v>0</v>
+      </c>
+      <c r="AV74">
+        <v>0</v>
+      </c>
+      <c r="AW74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:49">
+      <c r="A75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75">
+        <v>29.4241</v>
+      </c>
+      <c r="D75">
+        <v>-98.4936</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <v>0</v>
+      </c>
+      <c r="AS75">
+        <v>0</v>
+      </c>
+      <c r="AT75">
+        <v>0</v>
+      </c>
+      <c r="AU75">
+        <v>0</v>
+      </c>
+      <c r="AV75">
+        <v>0</v>
+      </c>
+      <c r="AW75">
         <v>0</v>
       </c>
     </row>

--- a/COVID19-Recovered.xlsx
+++ b/COVID19-Recovered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
   <si>
     <t>Province/State</t>
   </si>
@@ -58,31 +58,31 @@
     <t>1/31/20</t>
   </si>
   <si>
-    <t>2/1/20</t>
-  </si>
-  <si>
-    <t>2/2/20</t>
-  </si>
-  <si>
-    <t>2/3/20</t>
-  </si>
-  <si>
-    <t>2/4/20</t>
-  </si>
-  <si>
-    <t>2/5/20</t>
-  </si>
-  <si>
-    <t>2/6/20</t>
-  </si>
-  <si>
-    <t>2/7/20</t>
-  </si>
-  <si>
-    <t>2/8/20</t>
-  </si>
-  <si>
-    <t>2/9/20</t>
+    <t>2/01/20</t>
+  </si>
+  <si>
+    <t>2/02/20</t>
+  </si>
+  <si>
+    <t>2/03/20</t>
+  </si>
+  <si>
+    <t>2/04/20</t>
+  </si>
+  <si>
+    <t>2/05/20</t>
+  </si>
+  <si>
+    <t>2/06/20</t>
+  </si>
+  <si>
+    <t>2/07/20</t>
+  </si>
+  <si>
+    <t>2/08/20</t>
+  </si>
+  <si>
+    <t>2/09/20</t>
   </si>
   <si>
     <t>2/10/20</t>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>2/14/20</t>
+  </si>
+  <si>
+    <t>2/15/20</t>
   </si>
   <si>
     <t>Anhui</t>
@@ -695,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB76"/>
+  <dimension ref="A1:AC76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,13 +789,16 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>31.82571</v>
@@ -872,13 +878,16 @@
       <c r="AB2">
         <v>193</v>
       </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AC2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>40.18238</v>
@@ -958,13 +967,16 @@
       <c r="AB3">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>30.05718</v>
@@ -1044,13 +1056,16 @@
       <c r="AB4">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>26.07783</v>
@@ -1130,13 +1145,16 @@
       <c r="AB5">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>36.0611</v>
@@ -1216,13 +1234,16 @@
       <c r="AB6">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>23.33841</v>
@@ -1302,13 +1323,16 @@
       <c r="AB7">
         <v>362</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8">
         <v>23.82908</v>
@@ -1388,13 +1412,16 @@
       <c r="AB8">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9">
         <v>26.81536</v>
@@ -1474,13 +1501,16 @@
       <c r="AB9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>19.19673</v>
@@ -1560,13 +1590,16 @@
       <c r="AB10">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11">
         <v>38.0428</v>
@@ -1646,16 +1679,19 @@
       <c r="AB11">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C12">
-        <v>47.86199999999999</v>
+        <v>47.862</v>
       </c>
       <c r="D12">
         <v>127.7622</v>
@@ -1732,13 +1768,16 @@
       <c r="AB12">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>33.88202</v>
@@ -1818,13 +1857,16 @@
       <c r="AB13">
         <v>357</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>30.97564</v>
@@ -1904,13 +1946,16 @@
       <c r="AB14">
         <v>4774</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15">
         <v>27.61041</v>
@@ -1990,13 +2035,16 @@
       <c r="AB15">
         <v>364</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16">
         <v>44.09448</v>
@@ -2076,13 +2124,16 @@
       <c r="AB16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17">
         <v>32.97027</v>
@@ -2162,13 +2213,16 @@
       <c r="AB17">
         <v>157</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18">
         <v>27.61401</v>
@@ -2248,13 +2302,16 @@
       <c r="AB18">
         <v>187</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19">
         <v>43.66657</v>
@@ -2334,13 +2391,16 @@
       <c r="AB19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AC19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20">
         <v>41.29284000000001</v>
@@ -2420,13 +2480,16 @@
       <c r="AB20">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21">
         <v>37.26923</v>
@@ -2506,13 +2569,16 @@
       <c r="AB21">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22">
         <v>35.65945</v>
@@ -2592,13 +2658,16 @@
       <c r="AB22">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23">
         <v>35.19165</v>
@@ -2678,13 +2747,16 @@
       <c r="AB23">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AC23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24">
         <v>36.34377</v>
@@ -2764,13 +2836,16 @@
       <c r="AB24">
         <v>136</v>
       </c>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C25">
         <v>31.20327</v>
@@ -2850,13 +2925,16 @@
       <c r="AB25">
         <v>90</v>
       </c>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C26">
         <v>37.57769</v>
@@ -2936,16 +3014,19 @@
       <c r="AB26">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AC26">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27">
-        <v>30.61714</v>
+        <v>30.61714000000001</v>
       </c>
       <c r="D27">
         <v>102.7103</v>
@@ -3022,13 +3103,16 @@
       <c r="AB27">
         <v>114</v>
       </c>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AC27">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28">
         <v>39.29362</v>
@@ -3108,13 +3192,16 @@
       <c r="AB28">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AC28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29">
         <v>30.1534</v>
@@ -3194,13 +3281,16 @@
       <c r="AB29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AC29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30">
         <v>41.11981</v>
@@ -3280,13 +3370,16 @@
       <c r="AB30">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AC30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31">
         <v>24.97411</v>
@@ -3366,13 +3459,16 @@
       <c r="AB31">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="AC31">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32">
         <v>29.18251</v>
@@ -3452,10 +3548,13 @@
       <c r="AB32">
         <v>403</v>
       </c>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AC32">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="B33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C33">
         <v>13.7563</v>
@@ -3535,10 +3634,13 @@
       <c r="AB33">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="AC33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
       <c r="B34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34">
         <v>35.6762</v>
@@ -3618,10 +3720,13 @@
       <c r="AB34">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="AC34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
       <c r="B35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35">
         <v>37.5665</v>
@@ -3701,13 +3806,16 @@
       <c r="AB35">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AC35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36">
         <v>23.6978</v>
@@ -3787,13 +3895,16 @@
       <c r="AB36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="AC36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37">
         <v>47.7511</v>
@@ -3873,13 +3984,16 @@
       <c r="AB37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="AC37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38">
         <v>40.6331</v>
@@ -3959,13 +4073,16 @@
       <c r="AB38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AC38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39">
         <v>34.0489</v>
@@ -4045,13 +4162,16 @@
       <c r="AB39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="AC39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40">
         <v>22.1987</v>
@@ -4131,13 +4251,16 @@
       <c r="AB40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AC40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41">
         <v>22.3193</v>
@@ -4217,10 +4340,13 @@
       <c r="AB41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AC41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29">
       <c r="B42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C42">
         <v>1.3521</v>
@@ -4300,10 +4426,13 @@
       <c r="AB42">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="AC42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29">
       <c r="B43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43">
         <v>21.0278</v>
@@ -4383,10 +4512,13 @@
       <c r="AB43">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="AC43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29">
       <c r="B44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C44">
         <v>46.2276</v>
@@ -4466,10 +4598,13 @@
       <c r="AB44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="AC44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29">
       <c r="B45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45">
         <v>28.3949</v>
@@ -4549,10 +4684,13 @@
       <c r="AB45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="AC45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29">
       <c r="B46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46">
         <v>4.2105</v>
@@ -4632,13 +4770,16 @@
       <c r="AB46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="AC46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C47">
         <v>43.6532</v>
@@ -4718,13 +4859,16 @@
       <c r="AB47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="AC47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C48">
         <v>49.2827</v>
@@ -4804,13 +4948,16 @@
       <c r="AB48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:28">
+      <c r="AC48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>33.7879</v>
@@ -4890,13 +5037,16 @@
       <c r="AB49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="AC49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>34.0522</v>
@@ -4976,13 +5126,16 @@
       <c r="AB50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="AC50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C51">
         <v>-33.8688</v>
@@ -5062,13 +5215,16 @@
       <c r="AB51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:28">
+      <c r="AC51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C52">
         <v>-37.8136</v>
@@ -5148,13 +5304,16 @@
       <c r="AB52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:28">
+      <c r="AC52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C53">
         <v>-27.4698</v>
@@ -5234,10 +5393,13 @@
       <c r="AB53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="AC53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29">
       <c r="B54" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C54">
         <v>12.5657</v>
@@ -5317,10 +5479,13 @@
       <c r="AB54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="AC54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29">
       <c r="B55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C55">
         <v>7.8731</v>
@@ -5400,10 +5565,13 @@
       <c r="AB55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:28">
+      <c r="AC55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29">
       <c r="B56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C56">
         <v>51.1657</v>
@@ -5483,10 +5651,13 @@
       <c r="AB56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="AC56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29">
       <c r="B57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C57">
         <v>61.9241</v>
@@ -5566,10 +5737,13 @@
       <c r="AB57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:28">
+      <c r="AC57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29">
       <c r="B58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C58">
         <v>23.4241</v>
@@ -5649,10 +5823,13 @@
       <c r="AB58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="AC58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29">
       <c r="B59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C59">
         <v>12.8797</v>
@@ -5732,10 +5909,13 @@
       <c r="AB59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:28">
+      <c r="AC59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29">
       <c r="B60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C60">
         <v>20.5937</v>
@@ -5815,13 +5995,16 @@
       <c r="AB60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:28">
+      <c r="AC60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C61">
         <v>42.9849</v>
@@ -5901,10 +6084,13 @@
       <c r="AB61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:28">
+      <c r="AC61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29">
       <c r="B62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C62">
         <v>41.8719</v>
@@ -5984,10 +6170,13 @@
       <c r="AB62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:28">
+      <c r="AC62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29">
       <c r="B63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C63">
         <v>55.3781</v>
@@ -6067,13 +6256,16 @@
       <c r="AB63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:28">
+      <c r="AC63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29">
       <c r="B64" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C64">
-        <v>61.52399999999999</v>
+        <v>61.524</v>
       </c>
       <c r="D64">
         <v>105.3188</v>
@@ -6150,10 +6342,13 @@
       <c r="AB64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:28">
+      <c r="AC64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29">
       <c r="B65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C65">
         <v>60.1282</v>
@@ -6233,13 +6428,16 @@
       <c r="AB65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:28">
+      <c r="AC65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C66">
         <v>37.3541</v>
@@ -6319,10 +6517,13 @@
       <c r="AB66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:28">
+      <c r="AC66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29">
       <c r="B67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C67">
         <v>40.4637</v>
@@ -6402,13 +6603,16 @@
       <c r="AB67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:28">
+      <c r="AC67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68">
         <v>-34.9285</v>
@@ -6488,13 +6692,16 @@
       <c r="AB68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:28">
+      <c r="AC68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C69">
         <v>42.3601</v>
@@ -6574,13 +6781,16 @@
       <c r="AB69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:28">
+      <c r="AC69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C70">
         <v>36.5761</v>
@@ -6660,10 +6870,13 @@
       <c r="AB70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:28">
+      <c r="AC70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29">
       <c r="B71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C71">
         <v>50.5039</v>
@@ -6743,13 +6956,16 @@
       <c r="AB71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:28">
+      <c r="AC71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C72">
         <v>43.0731</v>
@@ -6829,13 +7045,16 @@
       <c r="AB72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:28">
+      <c r="AC72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C73">
         <v>35.4437</v>
@@ -6915,13 +7134,16 @@
       <c r="AB73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:28">
+      <c r="AC73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C74">
         <v>32.7157</v>
@@ -7001,13 +7223,16 @@
       <c r="AB74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:28">
+      <c r="AC74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C75">
         <v>29.4241</v>
@@ -7087,10 +7312,13 @@
       <c r="AB75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:28">
+      <c r="AC75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29">
       <c r="B76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76">
         <v>26.8206</v>
@@ -7168,6 +7396,9 @@
         <v>0</v>
       </c>
       <c r="AB76">
+        <v>0</v>
+      </c>
+      <c r="AC76">
         <v>0</v>
       </c>
     </row>

--- a/COVID19-Recovered.xlsx
+++ b/COVID19-Recovered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="111">
   <si>
     <t>Province/State</t>
   </si>
@@ -58,31 +58,31 @@
     <t>1/31/20</t>
   </si>
   <si>
-    <t>2/01/20</t>
-  </si>
-  <si>
-    <t>2/02/20</t>
-  </si>
-  <si>
-    <t>2/03/20</t>
-  </si>
-  <si>
-    <t>2/04/20</t>
-  </si>
-  <si>
-    <t>2/05/20</t>
-  </si>
-  <si>
-    <t>2/06/20</t>
-  </si>
-  <si>
-    <t>2/07/20</t>
-  </si>
-  <si>
-    <t>2/08/20</t>
-  </si>
-  <si>
-    <t>2/09/20</t>
+    <t>2/1/20</t>
+  </si>
+  <si>
+    <t>2/2/20</t>
+  </si>
+  <si>
+    <t>2/3/20</t>
+  </si>
+  <si>
+    <t>2/4/20</t>
+  </si>
+  <si>
+    <t>2/5/20</t>
+  </si>
+  <si>
+    <t>2/6/20</t>
+  </si>
+  <si>
+    <t>2/7/20</t>
+  </si>
+  <si>
+    <t>2/8/20</t>
+  </si>
+  <si>
+    <t>2/9/20</t>
   </si>
   <si>
     <t>2/10/20</t>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>2/15/20</t>
+  </si>
+  <si>
+    <t>2/16/20</t>
+  </si>
+  <si>
+    <t>2/17/20</t>
   </si>
   <si>
     <t>Anhui</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC76"/>
+  <dimension ref="A1:AE76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,13 +798,19 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>31.82571</v>
@@ -881,13 +893,19 @@
       <c r="AC2">
         <v>221</v>
       </c>
+      <c r="AD2">
+        <v>255</v>
+      </c>
+      <c r="AE2">
+        <v>280</v>
+      </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3">
         <v>40.18238</v>
@@ -970,13 +988,19 @@
       <c r="AC3">
         <v>98</v>
       </c>
+      <c r="AD3">
+        <v>108</v>
+      </c>
+      <c r="AE3">
+        <v>114</v>
+      </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4">
         <v>30.05718</v>
@@ -1059,13 +1083,19 @@
       <c r="AC4">
         <v>184</v>
       </c>
+      <c r="AD4">
+        <v>207</v>
+      </c>
+      <c r="AE4">
+        <v>225</v>
+      </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>26.07783</v>
@@ -1148,13 +1178,19 @@
       <c r="AC5">
         <v>71</v>
       </c>
+      <c r="AD5">
+        <v>82</v>
+      </c>
+      <c r="AE5">
+        <v>90</v>
+      </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>36.0611</v>
@@ -1237,13 +1273,19 @@
       <c r="AC6">
         <v>49</v>
       </c>
+      <c r="AD6">
+        <v>54</v>
+      </c>
+      <c r="AE6">
+        <v>58</v>
+      </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>23.33841</v>
@@ -1326,13 +1368,19 @@
       <c r="AC7">
         <v>410</v>
       </c>
+      <c r="AD7">
+        <v>465</v>
+      </c>
+      <c r="AE7">
+        <v>524</v>
+      </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>23.82908</v>
@@ -1415,13 +1463,19 @@
       <c r="AC8">
         <v>44</v>
       </c>
+      <c r="AD8">
+        <v>49</v>
+      </c>
+      <c r="AE8">
+        <v>53</v>
+      </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C9">
         <v>26.81536</v>
@@ -1504,13 +1558,19 @@
       <c r="AC9">
         <v>41</v>
       </c>
+      <c r="AD9">
+        <v>46</v>
+      </c>
+      <c r="AE9">
+        <v>57</v>
+      </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10">
         <v>19.19673</v>
@@ -1593,13 +1653,19 @@
       <c r="AC10">
         <v>39</v>
       </c>
+      <c r="AD10">
+        <v>52</v>
+      </c>
+      <c r="AE10">
+        <v>59</v>
+      </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>38.0428</v>
@@ -1682,16 +1748,22 @@
       <c r="AC11">
         <v>101</v>
       </c>
+      <c r="AD11">
+        <v>105</v>
+      </c>
+      <c r="AE11">
+        <v>122</v>
+      </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C12">
-        <v>47.862</v>
+        <v>47.86199999999999</v>
       </c>
       <c r="D12">
         <v>127.7622</v>
@@ -1771,13 +1843,19 @@
       <c r="AC12">
         <v>68</v>
       </c>
+      <c r="AD12">
+        <v>79</v>
+      </c>
+      <c r="AE12">
+        <v>85</v>
+      </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13">
         <v>33.88202</v>
@@ -1860,13 +1938,19 @@
       <c r="AC13">
         <v>391</v>
       </c>
+      <c r="AD13">
+        <v>440</v>
+      </c>
+      <c r="AE13">
+        <v>509</v>
+      </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14">
         <v>30.97564</v>
@@ -1949,13 +2033,19 @@
       <c r="AC14">
         <v>5623</v>
       </c>
+      <c r="AD14">
+        <v>6639</v>
+      </c>
+      <c r="AE14">
+        <v>7862</v>
+      </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>27.61041</v>
@@ -2038,13 +2128,19 @@
       <c r="AC15">
         <v>425</v>
       </c>
+      <c r="AD15">
+        <v>464</v>
+      </c>
+      <c r="AE15">
+        <v>498</v>
+      </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16">
         <v>44.09448</v>
@@ -2127,13 +2223,19 @@
       <c r="AC16">
         <v>7</v>
       </c>
+      <c r="AD16">
+        <v>8</v>
+      </c>
+      <c r="AE16">
+        <v>8</v>
+      </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C17">
         <v>32.97027</v>
@@ -2216,13 +2318,19 @@
       <c r="AC17">
         <v>186</v>
       </c>
+      <c r="AD17">
+        <v>218</v>
+      </c>
+      <c r="AE17">
+        <v>258</v>
+      </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C18">
         <v>27.61401</v>
@@ -2305,13 +2413,19 @@
       <c r="AC18">
         <v>210</v>
       </c>
+      <c r="AD18">
+        <v>240</v>
+      </c>
+      <c r="AE18">
+        <v>275</v>
+      </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C19">
         <v>43.66657</v>
@@ -2394,13 +2508,19 @@
       <c r="AC19">
         <v>26</v>
       </c>
+      <c r="AD19">
+        <v>30</v>
+      </c>
+      <c r="AE19">
+        <v>34</v>
+      </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20">
         <v>41.29284000000001</v>
@@ -2483,13 +2603,19 @@
       <c r="AC20">
         <v>31</v>
       </c>
+      <c r="AD20">
+        <v>40</v>
+      </c>
+      <c r="AE20">
+        <v>43</v>
+      </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C21">
         <v>37.26923</v>
@@ -2572,13 +2698,19 @@
       <c r="AC21">
         <v>33</v>
       </c>
+      <c r="AD21">
+        <v>33</v>
+      </c>
+      <c r="AE21">
+        <v>35</v>
+      </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C22">
         <v>35.65945</v>
@@ -2661,13 +2793,19 @@
       <c r="AC22">
         <v>13</v>
       </c>
+      <c r="AD22">
+        <v>13</v>
+      </c>
+      <c r="AE22">
+        <v>13</v>
+      </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C23">
         <v>35.19165</v>
@@ -2750,13 +2888,19 @@
       <c r="AC23">
         <v>60</v>
       </c>
+      <c r="AD23">
+        <v>71</v>
+      </c>
+      <c r="AE23">
+        <v>79</v>
+      </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C24">
         <v>36.34377</v>
@@ -2839,13 +2983,19 @@
       <c r="AC24">
         <v>156</v>
       </c>
+      <c r="AD24">
+        <v>173</v>
+      </c>
+      <c r="AE24">
+        <v>191</v>
+      </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25">
         <v>31.20327</v>
@@ -2928,13 +3078,19 @@
       <c r="AC25">
         <v>124</v>
       </c>
+      <c r="AD25">
+        <v>140</v>
+      </c>
+      <c r="AE25">
+        <v>161</v>
+      </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C26">
         <v>37.57769</v>
@@ -3017,16 +3173,22 @@
       <c r="AC26">
         <v>46</v>
       </c>
+      <c r="AD26">
+        <v>50</v>
+      </c>
+      <c r="AE26">
+        <v>53</v>
+      </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C27">
-        <v>30.61714000000001</v>
+        <v>30.61714</v>
       </c>
       <c r="D27">
         <v>102.7103</v>
@@ -3106,13 +3268,19 @@
       <c r="AC27">
         <v>119</v>
       </c>
+      <c r="AD27">
+        <v>131</v>
+      </c>
+      <c r="AE27">
+        <v>156</v>
+      </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C28">
         <v>39.29362</v>
@@ -3195,13 +3363,19 @@
       <c r="AC28">
         <v>37</v>
       </c>
+      <c r="AD28">
+        <v>45</v>
+      </c>
+      <c r="AE28">
+        <v>46</v>
+      </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C29">
         <v>30.1534</v>
@@ -3284,13 +3458,19 @@
       <c r="AC29">
         <v>1</v>
       </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C30">
         <v>41.11981</v>
@@ -3373,13 +3553,19 @@
       <c r="AC30">
         <v>10</v>
       </c>
+      <c r="AD30">
+        <v>12</v>
+      </c>
+      <c r="AE30">
+        <v>12</v>
+      </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C31">
         <v>24.97411</v>
@@ -3462,13 +3648,19 @@
       <c r="AC31">
         <v>42</v>
       </c>
+      <c r="AD31">
+        <v>42</v>
+      </c>
+      <c r="AE31">
+        <v>47</v>
+      </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C32">
         <v>29.18251</v>
@@ -3551,10 +3743,16 @@
       <c r="AC32">
         <v>428</v>
       </c>
+      <c r="AD32">
+        <v>456</v>
+      </c>
+      <c r="AE32">
+        <v>507</v>
+      </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:31">
       <c r="B33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C33">
         <v>13.7563</v>
@@ -3637,10 +3835,16 @@
       <c r="AC33">
         <v>12</v>
       </c>
+      <c r="AD33">
+        <v>14</v>
+      </c>
+      <c r="AE33">
+        <v>15</v>
+      </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:31">
       <c r="B34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C34">
         <v>35.6762</v>
@@ -3723,10 +3927,16 @@
       <c r="AC34">
         <v>12</v>
       </c>
+      <c r="AD34">
+        <v>12</v>
+      </c>
+      <c r="AE34">
+        <v>12</v>
+      </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:31">
       <c r="B35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C35">
         <v>37.5665</v>
@@ -3809,13 +4019,19 @@
       <c r="AC35">
         <v>9</v>
       </c>
+      <c r="AD35">
+        <v>9</v>
+      </c>
+      <c r="AE35">
+        <v>10</v>
+      </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C36">
         <v>23.6978</v>
@@ -3898,13 +4114,19 @@
       <c r="AC36">
         <v>2</v>
       </c>
+      <c r="AD36">
+        <v>2</v>
+      </c>
+      <c r="AE36">
+        <v>2</v>
+      </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C37">
         <v>47.7511</v>
@@ -3987,13 +4209,19 @@
       <c r="AC37">
         <v>1</v>
       </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38">
         <v>40.6331</v>
@@ -4076,13 +4304,19 @@
       <c r="AC38">
         <v>2</v>
       </c>
+      <c r="AD38">
+        <v>2</v>
+      </c>
+      <c r="AE38">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C39">
         <v>34.0489</v>
@@ -4165,13 +4399,19 @@
       <c r="AC39">
         <v>0</v>
       </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C40">
         <v>22.1987</v>
@@ -4254,13 +4494,19 @@
       <c r="AC40">
         <v>3</v>
       </c>
+      <c r="AD40">
+        <v>5</v>
+      </c>
+      <c r="AE40">
+        <v>5</v>
+      </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C41">
         <v>22.3193</v>
@@ -4343,10 +4589,16 @@
       <c r="AC41">
         <v>1</v>
       </c>
+      <c r="AD41">
+        <v>2</v>
+      </c>
+      <c r="AE41">
+        <v>2</v>
+      </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:31">
       <c r="B42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C42">
         <v>1.3521</v>
@@ -4429,10 +4681,16 @@
       <c r="AC42">
         <v>18</v>
       </c>
+      <c r="AD42">
+        <v>18</v>
+      </c>
+      <c r="AE42">
+        <v>24</v>
+      </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:31">
       <c r="B43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <v>21.0278</v>
@@ -4515,10 +4773,16 @@
       <c r="AC43">
         <v>7</v>
       </c>
+      <c r="AD43">
+        <v>7</v>
+      </c>
+      <c r="AE43">
+        <v>7</v>
+      </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:31">
       <c r="B44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C44">
         <v>46.2276</v>
@@ -4601,10 +4865,16 @@
       <c r="AC44">
         <v>4</v>
       </c>
+      <c r="AD44">
+        <v>4</v>
+      </c>
+      <c r="AE44">
+        <v>4</v>
+      </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:31">
       <c r="B45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C45">
         <v>28.3949</v>
@@ -4687,10 +4957,16 @@
       <c r="AC45">
         <v>1</v>
       </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:31">
       <c r="B46" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C46">
         <v>4.2105</v>
@@ -4773,13 +5049,19 @@
       <c r="AC46">
         <v>7</v>
       </c>
+      <c r="AD46">
+        <v>7</v>
+      </c>
+      <c r="AE46">
+        <v>7</v>
+      </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C47">
         <v>43.6532</v>
@@ -4862,13 +5144,19 @@
       <c r="AC47">
         <v>0</v>
       </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C48">
         <v>49.2827</v>
@@ -4951,13 +5239,19 @@
       <c r="AC48">
         <v>0</v>
       </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C49">
         <v>33.7879</v>
@@ -5040,13 +5334,19 @@
       <c r="AC49">
         <v>0</v>
       </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C50">
         <v>34.0522</v>
@@ -5129,13 +5429,19 @@
       <c r="AC50">
         <v>0</v>
       </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C51">
         <v>-33.8688</v>
@@ -5218,13 +5524,19 @@
       <c r="AC51">
         <v>4</v>
       </c>
+      <c r="AD51">
+        <v>4</v>
+      </c>
+      <c r="AE51">
+        <v>4</v>
+      </c>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C52">
         <v>-37.8136</v>
@@ -5307,13 +5619,19 @@
       <c r="AC52">
         <v>4</v>
       </c>
+      <c r="AD52">
+        <v>4</v>
+      </c>
+      <c r="AE52">
+        <v>4</v>
+      </c>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C53">
         <v>-27.4698</v>
@@ -5396,10 +5714,16 @@
       <c r="AC53">
         <v>0</v>
       </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:31">
       <c r="B54" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C54">
         <v>12.5657</v>
@@ -5482,10 +5806,16 @@
       <c r="AC54">
         <v>1</v>
       </c>
+      <c r="AD54">
+        <v>1</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:31">
       <c r="B55" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C55">
         <v>7.8731</v>
@@ -5568,10 +5898,16 @@
       <c r="AC55">
         <v>1</v>
       </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:31">
       <c r="B56" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C56">
         <v>51.1657</v>
@@ -5654,10 +5990,16 @@
       <c r="AC56">
         <v>1</v>
       </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:31">
       <c r="B57" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C57">
         <v>61.9241</v>
@@ -5740,10 +6082,16 @@
       <c r="AC57">
         <v>1</v>
       </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:31">
       <c r="B58" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C58">
         <v>23.4241</v>
@@ -5826,10 +6174,16 @@
       <c r="AC58">
         <v>3</v>
       </c>
+      <c r="AD58">
+        <v>4</v>
+      </c>
+      <c r="AE58">
+        <v>4</v>
+      </c>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:31">
       <c r="B59" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C59">
         <v>12.8797</v>
@@ -5912,10 +6266,16 @@
       <c r="AC59">
         <v>1</v>
       </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:31">
       <c r="B60" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C60">
         <v>20.5937</v>
@@ -5998,13 +6358,19 @@
       <c r="AC60">
         <v>0</v>
       </c>
+      <c r="AD60">
+        <v>3</v>
+      </c>
+      <c r="AE60">
+        <v>3</v>
+      </c>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C61">
         <v>42.9849</v>
@@ -6087,10 +6453,16 @@
       <c r="AC61">
         <v>1</v>
       </c>
+      <c r="AD61">
+        <v>1</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:31">
       <c r="B62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C62">
         <v>41.8719</v>
@@ -6173,10 +6545,16 @@
       <c r="AC62">
         <v>0</v>
       </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:31">
       <c r="B63" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C63">
         <v>55.3781</v>
@@ -6259,13 +6637,19 @@
       <c r="AC63">
         <v>1</v>
       </c>
+      <c r="AD63">
+        <v>8</v>
+      </c>
+      <c r="AE63">
+        <v>8</v>
+      </c>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:31">
       <c r="B64" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C64">
-        <v>61.524</v>
+        <v>61.52399999999999</v>
       </c>
       <c r="D64">
         <v>105.3188</v>
@@ -6345,10 +6729,16 @@
       <c r="AC64">
         <v>2</v>
       </c>
+      <c r="AD64">
+        <v>2</v>
+      </c>
+      <c r="AE64">
+        <v>2</v>
+      </c>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:31">
       <c r="B65" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C65">
         <v>60.1282</v>
@@ -6431,13 +6821,19 @@
       <c r="AC65">
         <v>0</v>
       </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C66">
         <v>37.3541</v>
@@ -6520,10 +6916,16 @@
       <c r="AC66">
         <v>0</v>
       </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:31">
       <c r="B67" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C67">
         <v>40.4637</v>
@@ -6606,13 +7008,19 @@
       <c r="AC67">
         <v>2</v>
       </c>
+      <c r="AD67">
+        <v>2</v>
+      </c>
+      <c r="AE67">
+        <v>2</v>
+      </c>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C68">
         <v>-34.9285</v>
@@ -6695,13 +7103,19 @@
       <c r="AC68">
         <v>0</v>
       </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>2</v>
+      </c>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:31">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C69">
         <v>42.3601</v>
@@ -6784,13 +7198,19 @@
       <c r="AC69">
         <v>0</v>
       </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:31">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C70">
         <v>36.5761</v>
@@ -6873,10 +7293,16 @@
       <c r="AC70">
         <v>0</v>
       </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:31">
       <c r="B71" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C71">
         <v>50.5039</v>
@@ -6959,13 +7385,19 @@
       <c r="AC71">
         <v>0</v>
       </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
+      </c>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:31">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C72">
         <v>43.0731</v>
@@ -7048,13 +7480,19 @@
       <c r="AC72">
         <v>0</v>
       </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:31">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C73">
         <v>35.4437</v>
@@ -7137,13 +7575,19 @@
       <c r="AC73">
         <v>0</v>
       </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:31">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C74">
         <v>32.7157</v>
@@ -7226,13 +7670,19 @@
       <c r="AC74">
         <v>0</v>
       </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C75">
         <v>29.4241</v>
@@ -7315,10 +7765,16 @@
       <c r="AC75">
         <v>0</v>
       </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:31">
       <c r="B76" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C76">
         <v>26.8206</v>
@@ -7399,6 +7855,12 @@
         <v>0</v>
       </c>
       <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
         <v>0</v>
       </c>
     </row>

--- a/COVID19-Recovered.xlsx
+++ b/COVID19-Recovered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
   <si>
     <t>Province/State</t>
   </si>
@@ -109,6 +109,18 @@
     <t>2/17/20</t>
   </si>
   <si>
+    <t>2/18/20</t>
+  </si>
+  <si>
+    <t>2/19/20</t>
+  </si>
+  <si>
+    <t>2/20/20</t>
+  </si>
+  <si>
+    <t>2/21/20</t>
+  </si>
+  <si>
     <t>Anhui</t>
   </si>
   <si>
@@ -268,6 +280,27 @@
     <t>San Antonio, TX</t>
   </si>
   <si>
+    <t>Ashland, NE</t>
+  </si>
+  <si>
+    <t>Travis, CA</t>
+  </si>
+  <si>
+    <t>From Diamond Princess</t>
+  </si>
+  <si>
+    <t>Lackland, TX</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Humboldt County, CA</t>
+  </si>
+  <si>
+    <t>Sacramento County, CA</t>
+  </si>
+  <si>
     <t>Mainland China</t>
   </si>
   <si>
@@ -347,6 +380,15 @@
   </si>
   <si>
     <t>Egypt</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
   </si>
 </sst>
 </file>
@@ -704,13 +746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE76"/>
+  <dimension ref="A1:AI85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,13 +846,25 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>31.82571</v>
@@ -899,13 +953,25 @@
       <c r="AE2">
         <v>280</v>
       </c>
+      <c r="AF2">
+        <v>361</v>
+      </c>
+      <c r="AG2">
+        <v>413</v>
+      </c>
+      <c r="AH2">
+        <v>474</v>
+      </c>
+      <c r="AI2">
+        <v>539</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>40.18238</v>
@@ -994,13 +1060,25 @@
       <c r="AE3">
         <v>114</v>
       </c>
+      <c r="AF3">
+        <v>122</v>
+      </c>
+      <c r="AG3">
+        <v>145</v>
+      </c>
+      <c r="AH3">
+        <v>153</v>
+      </c>
+      <c r="AI3">
+        <v>169</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>30.05718</v>
@@ -1089,13 +1167,25 @@
       <c r="AE4">
         <v>225</v>
       </c>
+      <c r="AF4">
+        <v>254</v>
+      </c>
+      <c r="AG4">
+        <v>274</v>
+      </c>
+      <c r="AH4">
+        <v>299</v>
+      </c>
+      <c r="AI4">
+        <v>316</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>26.07783</v>
@@ -1184,13 +1274,25 @@
       <c r="AE5">
         <v>90</v>
       </c>
+      <c r="AF5">
+        <v>93</v>
+      </c>
+      <c r="AG5">
+        <v>112</v>
+      </c>
+      <c r="AH5">
+        <v>126</v>
+      </c>
+      <c r="AI5">
+        <v>149</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>36.0611</v>
@@ -1279,13 +1381,25 @@
       <c r="AE6">
         <v>58</v>
       </c>
+      <c r="AF6">
+        <v>62</v>
+      </c>
+      <c r="AG6">
+        <v>65</v>
+      </c>
+      <c r="AH6">
+        <v>71</v>
+      </c>
+      <c r="AI6">
+        <v>76</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>23.33841</v>
@@ -1374,13 +1488,25 @@
       <c r="AE7">
         <v>524</v>
       </c>
+      <c r="AF7">
+        <v>565</v>
+      </c>
+      <c r="AG7">
+        <v>606</v>
+      </c>
+      <c r="AH7">
+        <v>642</v>
+      </c>
+      <c r="AI7">
+        <v>690</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C8">
         <v>23.82908</v>
@@ -1469,13 +1595,25 @@
       <c r="AE8">
         <v>53</v>
       </c>
+      <c r="AF8">
+        <v>69</v>
+      </c>
+      <c r="AG8">
+        <v>86</v>
+      </c>
+      <c r="AH8">
+        <v>90</v>
+      </c>
+      <c r="AI8">
+        <v>97</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>26.81536</v>
@@ -1564,13 +1702,25 @@
       <c r="AE9">
         <v>57</v>
       </c>
+      <c r="AF9">
+        <v>66</v>
+      </c>
+      <c r="AG9">
+        <v>70</v>
+      </c>
+      <c r="AH9">
+        <v>72</v>
+      </c>
+      <c r="AI9">
+        <v>77</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C10">
         <v>19.19673</v>
@@ -1659,13 +1809,25 @@
       <c r="AE10">
         <v>59</v>
       </c>
+      <c r="AF10">
+        <v>79</v>
+      </c>
+      <c r="AG10">
+        <v>84</v>
+      </c>
+      <c r="AH10">
+        <v>86</v>
+      </c>
+      <c r="AI10">
+        <v>95</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C11">
         <v>38.0428</v>
@@ -1754,13 +1916,25 @@
       <c r="AE11">
         <v>122</v>
       </c>
+      <c r="AF11">
+        <v>136</v>
+      </c>
+      <c r="AG11">
+        <v>152</v>
+      </c>
+      <c r="AH11">
+        <v>169</v>
+      </c>
+      <c r="AI11">
+        <v>184</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C12">
         <v>47.86199999999999</v>
@@ -1849,13 +2023,25 @@
       <c r="AE12">
         <v>85</v>
       </c>
+      <c r="AF12">
+        <v>111</v>
+      </c>
+      <c r="AG12">
+        <v>120</v>
+      </c>
+      <c r="AH12">
+        <v>136</v>
+      </c>
+      <c r="AI12">
+        <v>175</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C13">
         <v>33.88202</v>
@@ -1944,13 +2130,25 @@
       <c r="AE13">
         <v>509</v>
       </c>
+      <c r="AF13">
+        <v>522</v>
+      </c>
+      <c r="AG13">
+        <v>573</v>
+      </c>
+      <c r="AH13">
+        <v>637</v>
+      </c>
+      <c r="AI13">
+        <v>736</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>30.97564</v>
@@ -2039,13 +2237,25 @@
       <c r="AE14">
         <v>7862</v>
       </c>
+      <c r="AF14">
+        <v>9128</v>
+      </c>
+      <c r="AG14">
+        <v>10337</v>
+      </c>
+      <c r="AH14">
+        <v>11788</v>
+      </c>
+      <c r="AI14">
+        <v>11881</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C15">
         <v>27.61041</v>
@@ -2134,13 +2344,25 @@
       <c r="AE15">
         <v>498</v>
       </c>
+      <c r="AF15">
+        <v>527</v>
+      </c>
+      <c r="AG15">
+        <v>561</v>
+      </c>
+      <c r="AH15">
+        <v>634</v>
+      </c>
+      <c r="AI15">
+        <v>661</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:35">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C16">
         <v>44.09448</v>
@@ -2229,13 +2451,25 @@
       <c r="AE16">
         <v>8</v>
       </c>
+      <c r="AF16">
+        <v>8</v>
+      </c>
+      <c r="AG16">
+        <v>10</v>
+      </c>
+      <c r="AH16">
+        <v>16</v>
+      </c>
+      <c r="AI16">
+        <v>17</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C17">
         <v>32.97027</v>
@@ -2324,13 +2558,25 @@
       <c r="AE17">
         <v>258</v>
       </c>
+      <c r="AF17">
+        <v>280</v>
+      </c>
+      <c r="AG17">
+        <v>318</v>
+      </c>
+      <c r="AH17">
+        <v>356</v>
+      </c>
+      <c r="AI17">
+        <v>373</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C18">
         <v>27.61401</v>
@@ -2419,13 +2665,25 @@
       <c r="AE18">
         <v>275</v>
       </c>
+      <c r="AF18">
+        <v>310</v>
+      </c>
+      <c r="AG18">
+        <v>362</v>
+      </c>
+      <c r="AH18">
+        <v>433</v>
+      </c>
+      <c r="AI18">
+        <v>489</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C19">
         <v>43.66657</v>
@@ -2514,13 +2772,25 @@
       <c r="AE19">
         <v>34</v>
       </c>
+      <c r="AF19">
+        <v>36</v>
+      </c>
+      <c r="AG19">
+        <v>37</v>
+      </c>
+      <c r="AH19">
+        <v>43</v>
+      </c>
+      <c r="AI19">
+        <v>45</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>41.29284000000001</v>
@@ -2609,13 +2879,25 @@
       <c r="AE20">
         <v>43</v>
       </c>
+      <c r="AF20">
+        <v>53</v>
+      </c>
+      <c r="AG20">
+        <v>55</v>
+      </c>
+      <c r="AH20">
+        <v>59</v>
+      </c>
+      <c r="AI20">
+        <v>61</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C21">
         <v>37.26923</v>
@@ -2704,13 +2986,25 @@
       <c r="AE21">
         <v>35</v>
       </c>
+      <c r="AF21">
+        <v>42</v>
+      </c>
+      <c r="AG21">
+        <v>42</v>
+      </c>
+      <c r="AH21">
+        <v>44</v>
+      </c>
+      <c r="AI21">
+        <v>48</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C22">
         <v>35.65945</v>
@@ -2799,13 +3093,25 @@
       <c r="AE22">
         <v>13</v>
       </c>
+      <c r="AF22">
+        <v>15</v>
+      </c>
+      <c r="AG22">
+        <v>16</v>
+      </c>
+      <c r="AH22">
+        <v>16</v>
+      </c>
+      <c r="AI22">
+        <v>18</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C23">
         <v>35.19165</v>
@@ -2894,13 +3200,25 @@
       <c r="AE23">
         <v>79</v>
       </c>
+      <c r="AF23">
+        <v>89</v>
+      </c>
+      <c r="AG23">
+        <v>102</v>
+      </c>
+      <c r="AH23">
+        <v>118</v>
+      </c>
+      <c r="AI23">
+        <v>134</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C24">
         <v>36.34377</v>
@@ -2989,13 +3307,25 @@
       <c r="AE24">
         <v>191</v>
       </c>
+      <c r="AF24">
+        <v>211</v>
+      </c>
+      <c r="AG24">
+        <v>231</v>
+      </c>
+      <c r="AH24">
+        <v>254</v>
+      </c>
+      <c r="AI24">
+        <v>281</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C25">
         <v>31.20327</v>
@@ -3084,13 +3414,25 @@
       <c r="AE25">
         <v>161</v>
       </c>
+      <c r="AF25">
+        <v>177</v>
+      </c>
+      <c r="AG25">
+        <v>186</v>
+      </c>
+      <c r="AH25">
+        <v>199</v>
+      </c>
+      <c r="AI25">
+        <v>211</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:35">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C26">
         <v>37.57769</v>
@@ -3179,13 +3521,25 @@
       <c r="AE26">
         <v>53</v>
       </c>
+      <c r="AF26">
+        <v>61</v>
+      </c>
+      <c r="AG26">
+        <v>68</v>
+      </c>
+      <c r="AH26">
+        <v>76</v>
+      </c>
+      <c r="AI26">
+        <v>78</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C27">
         <v>30.61714</v>
@@ -3274,13 +3628,25 @@
       <c r="AE27">
         <v>156</v>
       </c>
+      <c r="AF27">
+        <v>169</v>
+      </c>
+      <c r="AG27">
+        <v>188</v>
+      </c>
+      <c r="AH27">
+        <v>217</v>
+      </c>
+      <c r="AI27">
+        <v>231</v>
+      </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C28">
         <v>39.29362</v>
@@ -3369,13 +3735,25 @@
       <c r="AE28">
         <v>46</v>
       </c>
+      <c r="AF28">
+        <v>48</v>
+      </c>
+      <c r="AG28">
+        <v>54</v>
+      </c>
+      <c r="AH28">
+        <v>59</v>
+      </c>
+      <c r="AI28">
+        <v>62</v>
+      </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C29">
         <v>30.1534</v>
@@ -3464,13 +3842,25 @@
       <c r="AE29">
         <v>1</v>
       </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C30">
         <v>41.11981</v>
@@ -3559,13 +3949,25 @@
       <c r="AE30">
         <v>12</v>
       </c>
+      <c r="AF30">
+        <v>12</v>
+      </c>
+      <c r="AG30">
+        <v>20</v>
+      </c>
+      <c r="AH30">
+        <v>22</v>
+      </c>
+      <c r="AI30">
+        <v>24</v>
+      </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C31">
         <v>24.97411</v>
@@ -3654,13 +4056,25 @@
       <c r="AE31">
         <v>47</v>
       </c>
+      <c r="AF31">
+        <v>57</v>
+      </c>
+      <c r="AG31">
+        <v>60</v>
+      </c>
+      <c r="AH31">
+        <v>79</v>
+      </c>
+      <c r="AI31">
+        <v>96</v>
+      </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C32">
         <v>29.18251</v>
@@ -3749,10 +4163,22 @@
       <c r="AE32">
         <v>507</v>
       </c>
+      <c r="AF32">
+        <v>535</v>
+      </c>
+      <c r="AG32">
+        <v>604</v>
+      </c>
+      <c r="AH32">
+        <v>633</v>
+      </c>
+      <c r="AI32">
+        <v>679</v>
+      </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:35">
       <c r="B33" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C33">
         <v>13.7563</v>
@@ -3841,10 +4267,22 @@
       <c r="AE33">
         <v>15</v>
       </c>
+      <c r="AF33">
+        <v>15</v>
+      </c>
+      <c r="AG33">
+        <v>15</v>
+      </c>
+      <c r="AH33">
+        <v>15</v>
+      </c>
+      <c r="AI33">
+        <v>17</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:35">
       <c r="B34" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C34">
         <v>35.6762</v>
@@ -3933,10 +4371,22 @@
       <c r="AE34">
         <v>12</v>
       </c>
+      <c r="AF34">
+        <v>13</v>
+      </c>
+      <c r="AG34">
+        <v>18</v>
+      </c>
+      <c r="AH34">
+        <v>18</v>
+      </c>
+      <c r="AI34">
+        <v>22</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:35">
       <c r="B35" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C35">
         <v>37.5665</v>
@@ -4025,13 +4475,25 @@
       <c r="AE35">
         <v>10</v>
       </c>
+      <c r="AF35">
+        <v>12</v>
+      </c>
+      <c r="AG35">
+        <v>12</v>
+      </c>
+      <c r="AH35">
+        <v>16</v>
+      </c>
+      <c r="AI35">
+        <v>16</v>
+      </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>23.6978</v>
@@ -4120,13 +4582,25 @@
       <c r="AE36">
         <v>2</v>
       </c>
+      <c r="AF36">
+        <v>2</v>
+      </c>
+      <c r="AG36">
+        <v>2</v>
+      </c>
+      <c r="AH36">
+        <v>2</v>
+      </c>
+      <c r="AI36">
+        <v>2</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C37">
         <v>47.7511</v>
@@ -4215,13 +4689,25 @@
       <c r="AE37">
         <v>1</v>
       </c>
+      <c r="AF37">
+        <v>1</v>
+      </c>
+      <c r="AG37">
+        <v>1</v>
+      </c>
+      <c r="AH37">
+        <v>1</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C38">
         <v>40.6331</v>
@@ -4310,13 +4796,25 @@
       <c r="AE38">
         <v>2</v>
       </c>
+      <c r="AF38">
+        <v>2</v>
+      </c>
+      <c r="AG38">
+        <v>2</v>
+      </c>
+      <c r="AH38">
+        <v>2</v>
+      </c>
+      <c r="AI38">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:35">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C39">
         <v>34.0489</v>
@@ -4405,13 +4903,25 @@
       <c r="AE39">
         <v>0</v>
       </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:35">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C40">
         <v>22.1987</v>
@@ -4500,13 +5010,25 @@
       <c r="AE40">
         <v>5</v>
       </c>
+      <c r="AF40">
+        <v>5</v>
+      </c>
+      <c r="AG40">
+        <v>5</v>
+      </c>
+      <c r="AH40">
+        <v>6</v>
+      </c>
+      <c r="AI40">
+        <v>6</v>
+      </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:35">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <v>22.3193</v>
@@ -4595,10 +5117,22 @@
       <c r="AE41">
         <v>2</v>
       </c>
+      <c r="AF41">
+        <v>2</v>
+      </c>
+      <c r="AG41">
+        <v>5</v>
+      </c>
+      <c r="AH41">
+        <v>6</v>
+      </c>
+      <c r="AI41">
+        <v>5</v>
+      </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:35">
       <c r="B42" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C42">
         <v>1.3521</v>
@@ -4687,10 +5221,22 @@
       <c r="AE42">
         <v>24</v>
       </c>
+      <c r="AF42">
+        <v>29</v>
+      </c>
+      <c r="AG42">
+        <v>34</v>
+      </c>
+      <c r="AH42">
+        <v>34</v>
+      </c>
+      <c r="AI42">
+        <v>37</v>
+      </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:35">
       <c r="B43" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C43">
         <v>21.0278</v>
@@ -4779,10 +5325,22 @@
       <c r="AE43">
         <v>7</v>
       </c>
+      <c r="AF43">
+        <v>7</v>
+      </c>
+      <c r="AG43">
+        <v>7</v>
+      </c>
+      <c r="AH43">
+        <v>7</v>
+      </c>
+      <c r="AI43">
+        <v>14</v>
+      </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:35">
       <c r="B44" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C44">
         <v>46.2276</v>
@@ -4871,10 +5429,22 @@
       <c r="AE44">
         <v>4</v>
       </c>
+      <c r="AF44">
+        <v>4</v>
+      </c>
+      <c r="AG44">
+        <v>4</v>
+      </c>
+      <c r="AH44">
+        <v>4</v>
+      </c>
+      <c r="AI44">
+        <v>4</v>
+      </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:35">
       <c r="B45" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C45">
         <v>28.3949</v>
@@ -4963,10 +5533,22 @@
       <c r="AE45">
         <v>1</v>
       </c>
+      <c r="AF45">
+        <v>1</v>
+      </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:35">
       <c r="B46" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C46">
         <v>4.2105</v>
@@ -5055,13 +5637,25 @@
       <c r="AE46">
         <v>7</v>
       </c>
+      <c r="AF46">
+        <v>13</v>
+      </c>
+      <c r="AG46">
+        <v>15</v>
+      </c>
+      <c r="AH46">
+        <v>15</v>
+      </c>
+      <c r="AI46">
+        <v>15</v>
+      </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:35">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C47">
         <v>43.6532</v>
@@ -5150,13 +5744,25 @@
       <c r="AE47">
         <v>0</v>
       </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:35">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C48">
         <v>49.2827</v>
@@ -5245,13 +5851,25 @@
       <c r="AE48">
         <v>0</v>
       </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:35">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C49">
         <v>33.7879</v>
@@ -5340,13 +5958,25 @@
       <c r="AE49">
         <v>0</v>
       </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:35">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C50">
         <v>34.0522</v>
@@ -5435,13 +6065,25 @@
       <c r="AE50">
         <v>0</v>
       </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:35">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C51">
         <v>-33.8688</v>
@@ -5530,13 +6172,25 @@
       <c r="AE51">
         <v>4</v>
       </c>
+      <c r="AF51">
+        <v>4</v>
+      </c>
+      <c r="AG51">
+        <v>4</v>
+      </c>
+      <c r="AH51">
+        <v>4</v>
+      </c>
+      <c r="AI51">
+        <v>4</v>
+      </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:35">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C52">
         <v>-37.8136</v>
@@ -5625,13 +6279,25 @@
       <c r="AE52">
         <v>4</v>
       </c>
+      <c r="AF52">
+        <v>4</v>
+      </c>
+      <c r="AG52">
+        <v>4</v>
+      </c>
+      <c r="AH52">
+        <v>4</v>
+      </c>
+      <c r="AI52">
+        <v>4</v>
+      </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:35">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C53">
         <v>-27.4698</v>
@@ -5720,10 +6386,22 @@
       <c r="AE53">
         <v>0</v>
       </c>
+      <c r="AF53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>0</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:35">
       <c r="B54" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C54">
         <v>12.5657</v>
@@ -5812,10 +6490,22 @@
       <c r="AE54">
         <v>1</v>
       </c>
+      <c r="AF54">
+        <v>1</v>
+      </c>
+      <c r="AG54">
+        <v>1</v>
+      </c>
+      <c r="AH54">
+        <v>1</v>
+      </c>
+      <c r="AI54">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:35">
       <c r="B55" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C55">
         <v>7.8731</v>
@@ -5904,10 +6594,22 @@
       <c r="AE55">
         <v>1</v>
       </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
+      <c r="AG55">
+        <v>1</v>
+      </c>
+      <c r="AH55">
+        <v>1</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:35">
       <c r="B56" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C56">
         <v>51.1657</v>
@@ -5996,10 +6698,22 @@
       <c r="AE56">
         <v>1</v>
       </c>
+      <c r="AF56">
+        <v>12</v>
+      </c>
+      <c r="AG56">
+        <v>12</v>
+      </c>
+      <c r="AH56">
+        <v>12</v>
+      </c>
+      <c r="AI56">
+        <v>14</v>
+      </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:35">
       <c r="B57" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C57">
         <v>61.9241</v>
@@ -6088,10 +6802,22 @@
       <c r="AE57">
         <v>1</v>
       </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AG57">
+        <v>1</v>
+      </c>
+      <c r="AH57">
+        <v>1</v>
+      </c>
+      <c r="AI57">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:35">
       <c r="B58" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C58">
         <v>23.4241</v>
@@ -6180,10 +6906,22 @@
       <c r="AE58">
         <v>4</v>
       </c>
+      <c r="AF58">
+        <v>4</v>
+      </c>
+      <c r="AG58">
+        <v>4</v>
+      </c>
+      <c r="AH58">
+        <v>4</v>
+      </c>
+      <c r="AI58">
+        <v>4</v>
+      </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:35">
       <c r="B59" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C59">
         <v>12.8797</v>
@@ -6272,10 +7010,22 @@
       <c r="AE59">
         <v>1</v>
       </c>
+      <c r="AF59">
+        <v>1</v>
+      </c>
+      <c r="AG59">
+        <v>1</v>
+      </c>
+      <c r="AH59">
+        <v>1</v>
+      </c>
+      <c r="AI59">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:35">
       <c r="B60" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C60">
         <v>20.5937</v>
@@ -6364,13 +7114,25 @@
       <c r="AE60">
         <v>3</v>
       </c>
+      <c r="AF60">
+        <v>3</v>
+      </c>
+      <c r="AG60">
+        <v>3</v>
+      </c>
+      <c r="AH60">
+        <v>3</v>
+      </c>
+      <c r="AI60">
+        <v>3</v>
+      </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:35">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C61">
         <v>42.9849</v>
@@ -6459,10 +7221,22 @@
       <c r="AE61">
         <v>1</v>
       </c>
+      <c r="AF61">
+        <v>1</v>
+      </c>
+      <c r="AG61">
+        <v>1</v>
+      </c>
+      <c r="AH61">
+        <v>1</v>
+      </c>
+      <c r="AI61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:35">
       <c r="B62" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C62">
         <v>41.8719</v>
@@ -6551,10 +7325,22 @@
       <c r="AE62">
         <v>0</v>
       </c>
+      <c r="AF62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:35">
       <c r="B63" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C63">
         <v>55.3781</v>
@@ -6643,10 +7429,22 @@
       <c r="AE63">
         <v>8</v>
       </c>
+      <c r="AF63">
+        <v>8</v>
+      </c>
+      <c r="AG63">
+        <v>8</v>
+      </c>
+      <c r="AH63">
+        <v>8</v>
+      </c>
+      <c r="AI63">
+        <v>8</v>
+      </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:35">
       <c r="B64" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C64">
         <v>61.52399999999999</v>
@@ -6735,10 +7533,22 @@
       <c r="AE64">
         <v>2</v>
       </c>
+      <c r="AF64">
+        <v>2</v>
+      </c>
+      <c r="AG64">
+        <v>2</v>
+      </c>
+      <c r="AH64">
+        <v>2</v>
+      </c>
+      <c r="AI64">
+        <v>2</v>
+      </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:35">
       <c r="B65" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C65">
         <v>60.1282</v>
@@ -6827,13 +7637,25 @@
       <c r="AE65">
         <v>0</v>
       </c>
+      <c r="AF65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:35">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C66">
         <v>37.3541</v>
@@ -6922,10 +7744,22 @@
       <c r="AE66">
         <v>0</v>
       </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:35">
       <c r="B67" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C67">
         <v>40.4637</v>
@@ -7014,13 +7848,25 @@
       <c r="AE67">
         <v>2</v>
       </c>
+      <c r="AF67">
+        <v>2</v>
+      </c>
+      <c r="AG67">
+        <v>2</v>
+      </c>
+      <c r="AH67">
+        <v>2</v>
+      </c>
+      <c r="AI67">
+        <v>2</v>
+      </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:35">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C68">
         <v>-34.9285</v>
@@ -7109,13 +7955,25 @@
       <c r="AE68">
         <v>2</v>
       </c>
+      <c r="AF68">
+        <v>2</v>
+      </c>
+      <c r="AG68">
+        <v>2</v>
+      </c>
+      <c r="AH68">
+        <v>2</v>
+      </c>
+      <c r="AI68">
+        <v>2</v>
+      </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:35">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C69">
         <v>42.3601</v>
@@ -7204,13 +8062,25 @@
       <c r="AE69">
         <v>0</v>
       </c>
+      <c r="AF69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>0</v>
+      </c>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:35">
       <c r="A70" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C70">
         <v>36.5761</v>
@@ -7299,10 +8169,22 @@
       <c r="AE70">
         <v>0</v>
       </c>
+      <c r="AF70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:35">
       <c r="B71" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C71">
         <v>50.5039</v>
@@ -7391,13 +8273,25 @@
       <c r="AE71">
         <v>1</v>
       </c>
+      <c r="AF71">
+        <v>1</v>
+      </c>
+      <c r="AG71">
+        <v>1</v>
+      </c>
+      <c r="AH71">
+        <v>1</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
+      </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:35">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C72">
         <v>43.0731</v>
@@ -7486,19 +8380,31 @@
       <c r="AE72">
         <v>0</v>
       </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:35">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C73">
         <v>35.4437</v>
       </c>
       <c r="D73">
-        <v>129.638</v>
+        <v>139.638</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -7581,13 +8487,25 @@
       <c r="AE73">
         <v>0</v>
       </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>1</v>
+      </c>
+      <c r="AH73">
+        <v>1</v>
+      </c>
+      <c r="AI73">
+        <v>1</v>
+      </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:35">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C74">
         <v>32.7157</v>
@@ -7676,13 +8594,25 @@
       <c r="AE74">
         <v>0</v>
       </c>
+      <c r="AF74">
+        <v>0</v>
+      </c>
+      <c r="AG74">
+        <v>0</v>
+      </c>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>1</v>
+      </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:35">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="C75">
         <v>29.4241</v>
@@ -7771,10 +8701,22 @@
       <c r="AE75">
         <v>0</v>
       </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:35">
       <c r="B76" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C76">
         <v>26.8206</v>
@@ -7861,6 +8803,978 @@
         <v>0</v>
       </c>
       <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35">
+      <c r="B77" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77">
+        <v>32.4279</v>
+      </c>
+      <c r="D77">
+        <v>53.688</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35">
+      <c r="A78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78">
+        <v>41.0652</v>
+      </c>
+      <c r="D78">
+        <v>-96.3339</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <v>0</v>
+      </c>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79">
+        <v>38.2721</v>
+      </c>
+      <c r="D79">
+        <v>-121.9399</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80">
+        <v>35.4437</v>
+      </c>
+      <c r="D80">
+        <v>139.638</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81">
+        <v>29.3829</v>
+      </c>
+      <c r="D81">
+        <v>-98.6134</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>0</v>
+      </c>
+      <c r="AG81">
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35">
+      <c r="A82" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82">
+        <v>31.0461</v>
+      </c>
+      <c r="D82">
+        <v>34.8516</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:35">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C83">
+        <v>33.8547</v>
+      </c>
+      <c r="D83">
+        <v>35.8623</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>0</v>
+      </c>
+      <c r="AG83">
+        <v>0</v>
+      </c>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:35">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84">
+        <v>40.745</v>
+      </c>
+      <c r="D84">
+        <v>-123.8695</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
+      </c>
+      <c r="AF84">
+        <v>0</v>
+      </c>
+      <c r="AG84">
+        <v>0</v>
+      </c>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:35">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85">
+        <v>38.4747</v>
+      </c>
+      <c r="D85">
+        <v>-121.3542</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0</v>
+      </c>
+      <c r="AG85">
+        <v>0</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
         <v>0</v>
       </c>
     </row>

--- a/COVID19-Recovered.xlsx
+++ b/COVID19-Recovered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="133">
   <si>
     <t>Province/State</t>
   </si>
@@ -121,6 +121,15 @@
     <t>2/21/20</t>
   </si>
   <si>
+    <t>2/22/20</t>
+  </si>
+  <si>
+    <t>2/23/20</t>
+  </si>
+  <si>
+    <t>2/24/20</t>
+  </si>
+  <si>
     <t>Anhui</t>
   </si>
   <si>
@@ -280,19 +289,16 @@
     <t>San Antonio, TX</t>
   </si>
   <si>
-    <t>Ashland, NE</t>
-  </si>
-  <si>
-    <t>Travis, CA</t>
+    <t>Omaha, NE (From Diamond Princess)</t>
+  </si>
+  <si>
+    <t>Travis, CA (From Diamond Princess)</t>
   </si>
   <si>
     <t>From Diamond Princess</t>
   </si>
   <si>
-    <t>Lackland, TX</t>
-  </si>
-  <si>
-    <t>None</t>
+    <t>Lackland, TX (From Diamond Princess)</t>
   </si>
   <si>
     <t>Humboldt County, CA</t>
@@ -301,6 +307,9 @@
     <t>Sacramento County, CA</t>
   </si>
   <si>
+    <t>Unassigned Location (From Diamond Princess)</t>
+  </si>
+  <si>
     <t>Mainland China</t>
   </si>
   <si>
@@ -389,6 +398,21 @@
   </si>
   <si>
     <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
   </si>
 </sst>
 </file>
@@ -746,13 +770,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI85"/>
+  <dimension ref="A1:AL91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,13 +882,22 @@
       <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>31.82571</v>
@@ -965,13 +998,22 @@
       <c r="AI2">
         <v>539</v>
       </c>
+      <c r="AJ2">
+        <v>597</v>
+      </c>
+      <c r="AK2">
+        <v>637</v>
+      </c>
+      <c r="AL2">
+        <v>663</v>
+      </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C3">
         <v>40.18238</v>
@@ -1072,13 +1114,22 @@
       <c r="AI3">
         <v>169</v>
       </c>
+      <c r="AJ3">
+        <v>178</v>
+      </c>
+      <c r="AK3">
+        <v>189</v>
+      </c>
+      <c r="AL3">
+        <v>198</v>
+      </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4">
         <v>30.05718</v>
@@ -1179,13 +1230,22 @@
       <c r="AI4">
         <v>316</v>
       </c>
+      <c r="AJ4">
+        <v>328</v>
+      </c>
+      <c r="AK4">
+        <v>335</v>
+      </c>
+      <c r="AL4">
+        <v>349</v>
+      </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5">
         <v>26.07783</v>
@@ -1286,13 +1346,22 @@
       <c r="AI5">
         <v>149</v>
       </c>
+      <c r="AJ5">
+        <v>162</v>
+      </c>
+      <c r="AK5">
+        <v>170</v>
+      </c>
+      <c r="AL5">
+        <v>183</v>
+      </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:38">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C6">
         <v>36.0611</v>
@@ -1393,13 +1462,22 @@
       <c r="AI6">
         <v>76</v>
       </c>
+      <c r="AJ6">
+        <v>76</v>
+      </c>
+      <c r="AK6">
+        <v>78</v>
+      </c>
+      <c r="AL6">
+        <v>80</v>
+      </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:38">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>23.33841</v>
@@ -1500,13 +1578,22 @@
       <c r="AI7">
         <v>690</v>
       </c>
+      <c r="AJ7">
+        <v>728</v>
+      </c>
+      <c r="AK7">
+        <v>755</v>
+      </c>
+      <c r="AL7">
+        <v>786</v>
+      </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:38">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>23.82908</v>
@@ -1607,13 +1694,22 @@
       <c r="AI8">
         <v>97</v>
       </c>
+      <c r="AJ8">
+        <v>104</v>
+      </c>
+      <c r="AK8">
+        <v>106</v>
+      </c>
+      <c r="AL8">
+        <v>112</v>
+      </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:38">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>26.81536</v>
@@ -1714,13 +1810,22 @@
       <c r="AI9">
         <v>77</v>
       </c>
+      <c r="AJ9">
+        <v>90</v>
+      </c>
+      <c r="AK9">
+        <v>102</v>
+      </c>
+      <c r="AL9">
+        <v>102</v>
+      </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:38">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C10">
         <v>19.19673</v>
@@ -1821,13 +1926,22 @@
       <c r="AI10">
         <v>95</v>
       </c>
+      <c r="AJ10">
+        <v>104</v>
+      </c>
+      <c r="AK10">
+        <v>106</v>
+      </c>
+      <c r="AL10">
+        <v>116</v>
+      </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:38">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C11">
         <v>38.0428</v>
@@ -1928,13 +2042,22 @@
       <c r="AI11">
         <v>184</v>
       </c>
+      <c r="AJ11">
+        <v>203</v>
+      </c>
+      <c r="AK11">
+        <v>219</v>
+      </c>
+      <c r="AL11">
+        <v>234</v>
+      </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:38">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C12">
         <v>47.86199999999999</v>
@@ -2035,13 +2158,22 @@
       <c r="AI12">
         <v>175</v>
       </c>
+      <c r="AJ12">
+        <v>204</v>
+      </c>
+      <c r="AK12">
+        <v>222</v>
+      </c>
+      <c r="AL12">
+        <v>227</v>
+      </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:38">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C13">
         <v>33.88202</v>
@@ -2142,13 +2274,22 @@
       <c r="AI13">
         <v>736</v>
       </c>
+      <c r="AJ13">
+        <v>830</v>
+      </c>
+      <c r="AK13">
+        <v>868</v>
+      </c>
+      <c r="AL13">
+        <v>943</v>
+      </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:38">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C14">
         <v>30.97564</v>
@@ -2249,13 +2390,22 @@
       <c r="AI14">
         <v>11881</v>
       </c>
+      <c r="AJ14">
+        <v>15299</v>
+      </c>
+      <c r="AK14">
+        <v>15343</v>
+      </c>
+      <c r="AL14">
+        <v>16748</v>
+      </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:38">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C15">
         <v>27.61041</v>
@@ -2356,13 +2506,22 @@
       <c r="AI15">
         <v>661</v>
       </c>
+      <c r="AJ15">
+        <v>692</v>
+      </c>
+      <c r="AK15">
+        <v>714</v>
+      </c>
+      <c r="AL15">
+        <v>731</v>
+      </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:38">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C16">
         <v>44.09448</v>
@@ -2463,13 +2622,22 @@
       <c r="AI16">
         <v>17</v>
       </c>
+      <c r="AJ16">
+        <v>26</v>
+      </c>
+      <c r="AK16">
+        <v>27</v>
+      </c>
+      <c r="AL16">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:38">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C17">
         <v>32.97027</v>
@@ -2570,13 +2738,22 @@
       <c r="AI17">
         <v>373</v>
       </c>
+      <c r="AJ17">
+        <v>401</v>
+      </c>
+      <c r="AK17">
+        <v>418</v>
+      </c>
+      <c r="AL17">
+        <v>452</v>
+      </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:38">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C18">
         <v>27.61401</v>
@@ -2677,13 +2854,22 @@
       <c r="AI18">
         <v>489</v>
       </c>
+      <c r="AJ18">
+        <v>555</v>
+      </c>
+      <c r="AK18">
+        <v>613</v>
+      </c>
+      <c r="AL18">
+        <v>645</v>
+      </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:38">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C19">
         <v>43.66657</v>
@@ -2784,13 +2970,22 @@
       <c r="AI19">
         <v>45</v>
       </c>
+      <c r="AJ19">
+        <v>52</v>
+      </c>
+      <c r="AK19">
+        <v>54</v>
+      </c>
+      <c r="AL19">
+        <v>60</v>
+      </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:38">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C20">
         <v>41.29284000000001</v>
@@ -2891,13 +3086,22 @@
       <c r="AI20">
         <v>61</v>
       </c>
+      <c r="AJ20">
+        <v>66</v>
+      </c>
+      <c r="AK20">
+        <v>73</v>
+      </c>
+      <c r="AL20">
+        <v>80</v>
+      </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:38">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C21">
         <v>37.26923</v>
@@ -2998,13 +3202,22 @@
       <c r="AI21">
         <v>48</v>
       </c>
+      <c r="AJ21">
+        <v>48</v>
+      </c>
+      <c r="AK21">
+        <v>56</v>
+      </c>
+      <c r="AL21">
+        <v>58</v>
+      </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:38">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C22">
         <v>35.65945</v>
@@ -3105,13 +3318,22 @@
       <c r="AI22">
         <v>18</v>
       </c>
+      <c r="AJ22">
+        <v>18</v>
+      </c>
+      <c r="AK22">
+        <v>18</v>
+      </c>
+      <c r="AL22">
+        <v>18</v>
+      </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:38">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C23">
         <v>35.19165</v>
@@ -3212,13 +3434,22 @@
       <c r="AI23">
         <v>134</v>
       </c>
+      <c r="AJ23">
+        <v>149</v>
+      </c>
+      <c r="AK23">
+        <v>163</v>
+      </c>
+      <c r="AL23">
+        <v>173</v>
+      </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:38">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C24">
         <v>36.34377</v>
@@ -3319,13 +3550,22 @@
       <c r="AI24">
         <v>281</v>
       </c>
+      <c r="AJ24">
+        <v>302</v>
+      </c>
+      <c r="AK24">
+        <v>321</v>
+      </c>
+      <c r="AL24">
+        <v>343</v>
+      </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:38">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C25">
         <v>31.20327</v>
@@ -3426,13 +3666,22 @@
       <c r="AI25">
         <v>211</v>
       </c>
+      <c r="AJ25">
+        <v>227</v>
+      </c>
+      <c r="AK25">
+        <v>249</v>
+      </c>
+      <c r="AL25">
+        <v>261</v>
+      </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:38">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C26">
         <v>37.57769</v>
@@ -3533,13 +3782,22 @@
       <c r="AI26">
         <v>78</v>
       </c>
+      <c r="AJ26">
+        <v>81</v>
+      </c>
+      <c r="AK26">
+        <v>88</v>
+      </c>
+      <c r="AL26">
+        <v>94</v>
+      </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:38">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C27">
         <v>30.61714</v>
@@ -3640,13 +3898,22 @@
       <c r="AI27">
         <v>231</v>
       </c>
+      <c r="AJ27">
+        <v>250</v>
+      </c>
+      <c r="AK27">
+        <v>261</v>
+      </c>
+      <c r="AL27">
+        <v>276</v>
+      </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:38">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C28">
         <v>39.29362</v>
@@ -3747,13 +4014,22 @@
       <c r="AI28">
         <v>62</v>
       </c>
+      <c r="AJ28">
+        <v>65</v>
+      </c>
+      <c r="AK28">
+        <v>81</v>
+      </c>
+      <c r="AL28">
+        <v>87</v>
+      </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:38">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C29">
         <v>30.1534</v>
@@ -3854,13 +4130,22 @@
       <c r="AI29">
         <v>1</v>
       </c>
+      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:38">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C30">
         <v>41.11981</v>
@@ -3961,13 +4246,22 @@
       <c r="AI30">
         <v>24</v>
       </c>
+      <c r="AJ30">
+        <v>25</v>
+      </c>
+      <c r="AK30">
+        <v>28</v>
+      </c>
+      <c r="AL30">
+        <v>30</v>
+      </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:38">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C31">
         <v>24.97411</v>
@@ -4068,13 +4362,22 @@
       <c r="AI31">
         <v>96</v>
       </c>
+      <c r="AJ31">
+        <v>107</v>
+      </c>
+      <c r="AK31">
+        <v>115</v>
+      </c>
+      <c r="AL31">
+        <v>124</v>
+      </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:38">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C32">
         <v>29.18251</v>
@@ -4175,10 +4478,19 @@
       <c r="AI32">
         <v>679</v>
       </c>
+      <c r="AJ32">
+        <v>719</v>
+      </c>
+      <c r="AK32">
+        <v>760</v>
+      </c>
+      <c r="AL32">
+        <v>782</v>
+      </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:38">
       <c r="B33" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C33">
         <v>13.7563</v>
@@ -4279,10 +4591,19 @@
       <c r="AI33">
         <v>17</v>
       </c>
+      <c r="AJ33">
+        <v>17</v>
+      </c>
+      <c r="AK33">
+        <v>21</v>
+      </c>
+      <c r="AL33">
+        <v>21</v>
+      </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:38">
       <c r="B34" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C34">
         <v>35.6762</v>
@@ -4383,10 +4704,19 @@
       <c r="AI34">
         <v>22</v>
       </c>
+      <c r="AJ34">
+        <v>22</v>
+      </c>
+      <c r="AK34">
+        <v>22</v>
+      </c>
+      <c r="AL34">
+        <v>22</v>
+      </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:38">
       <c r="B35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C35">
         <v>37.5665</v>
@@ -4487,13 +4817,22 @@
       <c r="AI35">
         <v>16</v>
       </c>
+      <c r="AJ35">
+        <v>16</v>
+      </c>
+      <c r="AK35">
+        <v>18</v>
+      </c>
+      <c r="AL35">
+        <v>18</v>
+      </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:38">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>23.6978</v>
@@ -4594,13 +4933,22 @@
       <c r="AI36">
         <v>2</v>
       </c>
+      <c r="AJ36">
+        <v>2</v>
+      </c>
+      <c r="AK36">
+        <v>2</v>
+      </c>
+      <c r="AL36">
+        <v>5</v>
+      </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:38">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C37">
         <v>47.7511</v>
@@ -4701,13 +5049,22 @@
       <c r="AI37">
         <v>1</v>
       </c>
+      <c r="AJ37">
+        <v>1</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:38">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C38">
         <v>40.6331</v>
@@ -4808,13 +5165,22 @@
       <c r="AI38">
         <v>2</v>
       </c>
+      <c r="AJ38">
+        <v>2</v>
+      </c>
+      <c r="AK38">
+        <v>2</v>
+      </c>
+      <c r="AL38">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:38">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C39">
         <v>34.0489</v>
@@ -4915,13 +5281,22 @@
       <c r="AI39">
         <v>0</v>
       </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:38">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>22.1987</v>
@@ -5022,13 +5397,22 @@
       <c r="AI40">
         <v>6</v>
       </c>
+      <c r="AJ40">
+        <v>6</v>
+      </c>
+      <c r="AK40">
+        <v>6</v>
+      </c>
+      <c r="AL40">
+        <v>6</v>
+      </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:38">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C41">
         <v>22.3193</v>
@@ -5129,10 +5513,19 @@
       <c r="AI41">
         <v>5</v>
       </c>
+      <c r="AJ41">
+        <v>6</v>
+      </c>
+      <c r="AK41">
+        <v>11</v>
+      </c>
+      <c r="AL41">
+        <v>19</v>
+      </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:38">
       <c r="B42" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C42">
         <v>1.3521</v>
@@ -5233,10 +5626,19 @@
       <c r="AI42">
         <v>37</v>
       </c>
+      <c r="AJ42">
+        <v>37</v>
+      </c>
+      <c r="AK42">
+        <v>51</v>
+      </c>
+      <c r="AL42">
+        <v>51</v>
+      </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:38">
       <c r="B43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C43">
         <v>21.0278</v>
@@ -5337,10 +5739,19 @@
       <c r="AI43">
         <v>14</v>
       </c>
+      <c r="AJ43">
+        <v>14</v>
+      </c>
+      <c r="AK43">
+        <v>14</v>
+      </c>
+      <c r="AL43">
+        <v>14</v>
+      </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:38">
       <c r="B44" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C44">
         <v>46.2276</v>
@@ -5441,10 +5852,19 @@
       <c r="AI44">
         <v>4</v>
       </c>
+      <c r="AJ44">
+        <v>4</v>
+      </c>
+      <c r="AK44">
+        <v>4</v>
+      </c>
+      <c r="AL44">
+        <v>4</v>
+      </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:38">
       <c r="B45" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C45">
         <v>28.3949</v>
@@ -5545,10 +5965,19 @@
       <c r="AI45">
         <v>1</v>
       </c>
+      <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:38">
       <c r="B46" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C46">
         <v>4.2105</v>
@@ -5649,13 +6078,22 @@
       <c r="AI46">
         <v>15</v>
       </c>
+      <c r="AJ46">
+        <v>15</v>
+      </c>
+      <c r="AK46">
+        <v>15</v>
+      </c>
+      <c r="AL46">
+        <v>18</v>
+      </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:38">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C47">
         <v>43.6532</v>
@@ -5756,13 +6194,22 @@
       <c r="AI47">
         <v>2</v>
       </c>
+      <c r="AJ47">
+        <v>2</v>
+      </c>
+      <c r="AK47">
+        <v>2</v>
+      </c>
+      <c r="AL47">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:38">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C48">
         <v>49.2827</v>
@@ -5863,13 +6310,22 @@
       <c r="AI48">
         <v>0</v>
       </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:38">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C49">
         <v>33.7879</v>
@@ -5970,13 +6426,22 @@
       <c r="AI49">
         <v>0</v>
       </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:38">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C50">
         <v>34.0522</v>
@@ -6077,13 +6542,22 @@
       <c r="AI50">
         <v>0</v>
       </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:38">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C51">
         <v>-33.8688</v>
@@ -6184,13 +6658,22 @@
       <c r="AI51">
         <v>4</v>
       </c>
+      <c r="AJ51">
+        <v>4</v>
+      </c>
+      <c r="AK51">
+        <v>4</v>
+      </c>
+      <c r="AL51">
+        <v>4</v>
+      </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:38">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C52">
         <v>-37.8136</v>
@@ -6291,13 +6774,22 @@
       <c r="AI52">
         <v>4</v>
       </c>
+      <c r="AJ52">
+        <v>4</v>
+      </c>
+      <c r="AK52">
+        <v>4</v>
+      </c>
+      <c r="AL52">
+        <v>4</v>
+      </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:38">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C53">
         <v>-27.4698</v>
@@ -6398,10 +6890,19 @@
       <c r="AI53">
         <v>1</v>
       </c>
+      <c r="AJ53">
+        <v>1</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:38">
       <c r="B54" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C54">
         <v>12.5657</v>
@@ -6502,10 +7003,19 @@
       <c r="AI54">
         <v>1</v>
       </c>
+      <c r="AJ54">
+        <v>1</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:38">
       <c r="B55" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C55">
         <v>7.8731</v>
@@ -6606,10 +7116,19 @@
       <c r="AI55">
         <v>1</v>
       </c>
+      <c r="AJ55">
+        <v>1</v>
+      </c>
+      <c r="AK55">
+        <v>1</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:38">
       <c r="B56" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C56">
         <v>51.1657</v>
@@ -6710,10 +7229,19 @@
       <c r="AI56">
         <v>14</v>
       </c>
+      <c r="AJ56">
+        <v>14</v>
+      </c>
+      <c r="AK56">
+        <v>14</v>
+      </c>
+      <c r="AL56">
+        <v>14</v>
+      </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:38">
       <c r="B57" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C57">
         <v>61.9241</v>
@@ -6814,10 +7342,19 @@
       <c r="AI57">
         <v>1</v>
       </c>
+      <c r="AJ57">
+        <v>1</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:38">
       <c r="B58" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C58">
         <v>23.4241</v>
@@ -6918,10 +7455,19 @@
       <c r="AI58">
         <v>4</v>
       </c>
+      <c r="AJ58">
+        <v>4</v>
+      </c>
+      <c r="AK58">
+        <v>4</v>
+      </c>
+      <c r="AL58">
+        <v>4</v>
+      </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:38">
       <c r="B59" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C59">
         <v>12.8797</v>
@@ -7022,10 +7568,19 @@
       <c r="AI59">
         <v>1</v>
       </c>
+      <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
+        <v>1</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:38">
       <c r="B60" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C60">
         <v>20.5937</v>
@@ -7126,13 +7681,22 @@
       <c r="AI60">
         <v>3</v>
       </c>
+      <c r="AJ60">
+        <v>3</v>
+      </c>
+      <c r="AK60">
+        <v>3</v>
+      </c>
+      <c r="AL60">
+        <v>3</v>
+      </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:38">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C61">
         <v>42.9849</v>
@@ -7233,10 +7797,19 @@
       <c r="AI61">
         <v>1</v>
       </c>
+      <c r="AJ61">
+        <v>1</v>
+      </c>
+      <c r="AK61">
+        <v>1</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:38">
       <c r="B62" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C62">
         <v>41.8719</v>
@@ -7337,10 +7910,19 @@
       <c r="AI62">
         <v>0</v>
       </c>
+      <c r="AJ62">
+        <v>1</v>
+      </c>
+      <c r="AK62">
+        <v>2</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:38">
       <c r="B63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C63">
         <v>55.3781</v>
@@ -7441,10 +8023,19 @@
       <c r="AI63">
         <v>8</v>
       </c>
+      <c r="AJ63">
+        <v>8</v>
+      </c>
+      <c r="AK63">
+        <v>8</v>
+      </c>
+      <c r="AL63">
+        <v>8</v>
+      </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:38">
       <c r="B64" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C64">
         <v>61.52399999999999</v>
@@ -7545,10 +8136,19 @@
       <c r="AI64">
         <v>2</v>
       </c>
+      <c r="AJ64">
+        <v>2</v>
+      </c>
+      <c r="AK64">
+        <v>2</v>
+      </c>
+      <c r="AL64">
+        <v>2</v>
+      </c>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:38">
       <c r="B65" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C65">
         <v>60.1282</v>
@@ -7649,13 +8249,22 @@
       <c r="AI65">
         <v>0</v>
       </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:38">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C66">
         <v>37.3541</v>
@@ -7756,10 +8365,19 @@
       <c r="AI66">
         <v>1</v>
       </c>
+      <c r="AJ66">
+        <v>1</v>
+      </c>
+      <c r="AK66">
+        <v>1</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:38">
       <c r="B67" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C67">
         <v>40.4637</v>
@@ -7860,13 +8478,22 @@
       <c r="AI67">
         <v>2</v>
       </c>
+      <c r="AJ67">
+        <v>2</v>
+      </c>
+      <c r="AK67">
+        <v>2</v>
+      </c>
+      <c r="AL67">
+        <v>2</v>
+      </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:38">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C68">
         <v>-34.9285</v>
@@ -7967,13 +8594,22 @@
       <c r="AI68">
         <v>2</v>
       </c>
+      <c r="AJ68">
+        <v>2</v>
+      </c>
+      <c r="AK68">
+        <v>2</v>
+      </c>
+      <c r="AL68">
+        <v>2</v>
+      </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:38">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C69">
         <v>42.3601</v>
@@ -8074,13 +8710,22 @@
       <c r="AI69">
         <v>0</v>
       </c>
+      <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:38">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C70">
         <v>36.5761</v>
@@ -8181,10 +8826,19 @@
       <c r="AI70">
         <v>0</v>
       </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:38">
       <c r="B71" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C71">
         <v>50.5039</v>
@@ -8285,13 +8939,22 @@
       <c r="AI71">
         <v>1</v>
       </c>
+      <c r="AJ71">
+        <v>1</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:38">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C72">
         <v>43.0731</v>
@@ -8392,13 +9055,22 @@
       <c r="AI72">
         <v>0</v>
       </c>
+      <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>0</v>
+      </c>
+      <c r="AL72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:38">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C73">
         <v>35.4437</v>
@@ -8499,13 +9171,22 @@
       <c r="AI73">
         <v>1</v>
       </c>
+      <c r="AJ73">
+        <v>1</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:38">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C74">
         <v>32.7157</v>
@@ -8606,13 +9287,22 @@
       <c r="AI74">
         <v>1</v>
       </c>
+      <c r="AJ74">
+        <v>1</v>
+      </c>
+      <c r="AK74">
+        <v>1</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:38">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C75">
         <v>29.4241</v>
@@ -8713,10 +9403,19 @@
       <c r="AI75">
         <v>0</v>
       </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:38">
       <c r="B76" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C76">
         <v>26.8206</v>
@@ -8817,10 +9516,19 @@
       <c r="AI76">
         <v>0</v>
       </c>
+      <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>0</v>
+      </c>
+      <c r="AL76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:38">
       <c r="B77" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C77">
         <v>32.4279</v>
@@ -8921,19 +9629,28 @@
       <c r="AI77">
         <v>0</v>
       </c>
+      <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:38">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C78">
-        <v>41.0652</v>
+        <v>41.2545</v>
       </c>
       <c r="D78">
-        <v>-96.3339</v>
+        <v>-95.97580000000001</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -9028,13 +9745,22 @@
       <c r="AI78">
         <v>0</v>
       </c>
+      <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:38">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C79">
         <v>38.2721</v>
@@ -9135,13 +9861,22 @@
       <c r="AI79">
         <v>0</v>
       </c>
+      <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:38">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C80">
         <v>35.4437</v>
@@ -9242,13 +9977,22 @@
       <c r="AI80">
         <v>0</v>
       </c>
+      <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81" spans="1:38">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C81">
         <v>29.3829</v>
@@ -9349,13 +10093,22 @@
       <c r="AI81">
         <v>0</v>
       </c>
+      <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:38">
       <c r="A82" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C82">
         <v>31.0461</v>
@@ -9456,13 +10209,19 @@
       <c r="AI82">
         <v>0</v>
       </c>
+      <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:35">
-      <c r="A83" t="s">
-        <v>92</v>
-      </c>
+    <row r="83" spans="1:38">
       <c r="B83" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C83">
         <v>33.8547</v>
@@ -9563,13 +10322,22 @@
       <c r="AI83">
         <v>0</v>
       </c>
+      <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>0</v>
+      </c>
+      <c r="AL83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:38">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C84">
         <v>40.745</v>
@@ -9670,13 +10438,22 @@
       <c r="AI84">
         <v>0</v>
       </c>
+      <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>0</v>
+      </c>
+      <c r="AL84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="1:38">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C85">
         <v>38.4747</v>
@@ -9775,6 +10552,696 @@
         <v>0</v>
       </c>
       <c r="AI85">
+        <v>0</v>
+      </c>
+      <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38">
+      <c r="B86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86">
+        <v>33.2232</v>
+      </c>
+      <c r="D86">
+        <v>43.6793</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
+      </c>
+      <c r="AF86">
+        <v>0</v>
+      </c>
+      <c r="AG86">
+        <v>0</v>
+      </c>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
+      </c>
+      <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87">
+        <v>37.0902</v>
+      </c>
+      <c r="D87">
+        <v>-95.7129</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
+      </c>
+      <c r="AF87">
+        <v>0</v>
+      </c>
+      <c r="AG87">
+        <v>0</v>
+      </c>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38">
+      <c r="B88" t="s">
+        <v>129</v>
+      </c>
+      <c r="C88">
+        <v>21.4735</v>
+      </c>
+      <c r="D88">
+        <v>55.9754</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
+      </c>
+      <c r="AF88">
+        <v>0</v>
+      </c>
+      <c r="AG88">
+        <v>0</v>
+      </c>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:38">
+      <c r="B89" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89">
+        <v>33</v>
+      </c>
+      <c r="D89">
+        <v>65</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>0</v>
+      </c>
+      <c r="AG89">
+        <v>0</v>
+      </c>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:38">
+      <c r="B90" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90">
+        <v>26.0275</v>
+      </c>
+      <c r="D90">
+        <v>50.55</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>0</v>
+      </c>
+      <c r="AG90">
+        <v>0</v>
+      </c>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:38">
+      <c r="B91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C91">
+        <v>29.5</v>
+      </c>
+      <c r="D91">
+        <v>47.75</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>0</v>
+      </c>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
         <v>0</v>
       </c>
     </row>

--- a/COVID19-Recovered.xlsx
+++ b/COVID19-Recovered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
   <si>
     <t>Province/State</t>
   </si>
@@ -130,6 +130,12 @@
     <t>2/24/20</t>
   </si>
   <si>
+    <t>2/25/20</t>
+  </si>
+  <si>
+    <t>2/26/20</t>
+  </si>
+  <si>
     <t>Anhui</t>
   </si>
   <si>
@@ -394,25 +400,58 @@
     <t>Iran</t>
   </si>
   <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
     <t>Israel</t>
   </si>
   <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Romania</t>
   </si>
 </sst>
 </file>
@@ -770,13 +809,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL91"/>
+  <dimension ref="A1:AN102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -891,13 +930,19 @@
       <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>31.82571</v>
@@ -1007,13 +1052,19 @@
       <c r="AL2">
         <v>663</v>
       </c>
+      <c r="AM2">
+        <v>712</v>
+      </c>
+      <c r="AN2">
+        <v>744</v>
+      </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>40.18238</v>
@@ -1123,13 +1174,19 @@
       <c r="AL3">
         <v>198</v>
       </c>
+      <c r="AM3">
+        <v>215</v>
+      </c>
+      <c r="AN3">
+        <v>235</v>
+      </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>30.05718</v>
@@ -1239,13 +1296,19 @@
       <c r="AL4">
         <v>349</v>
       </c>
+      <c r="AM4">
+        <v>372</v>
+      </c>
+      <c r="AN4">
+        <v>384</v>
+      </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>26.07783</v>
@@ -1355,13 +1418,19 @@
       <c r="AL5">
         <v>183</v>
       </c>
+      <c r="AM5">
+        <v>199</v>
+      </c>
+      <c r="AN5">
+        <v>218</v>
+      </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6">
         <v>36.0611</v>
@@ -1471,13 +1540,19 @@
       <c r="AL6">
         <v>80</v>
       </c>
+      <c r="AM6">
+        <v>80</v>
+      </c>
+      <c r="AN6">
+        <v>81</v>
+      </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7">
         <v>23.33841</v>
@@ -1587,13 +1662,19 @@
       <c r="AL7">
         <v>786</v>
       </c>
+      <c r="AM7">
+        <v>822</v>
+      </c>
+      <c r="AN7">
+        <v>851</v>
+      </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C8">
         <v>23.82908</v>
@@ -1703,13 +1784,19 @@
       <c r="AL8">
         <v>112</v>
       </c>
+      <c r="AM8">
+        <v>134</v>
+      </c>
+      <c r="AN8">
+        <v>147</v>
+      </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C9">
         <v>26.81536</v>
@@ -1819,13 +1906,19 @@
       <c r="AL9">
         <v>102</v>
       </c>
+      <c r="AM9">
+        <v>104</v>
+      </c>
+      <c r="AN9">
+        <v>104</v>
+      </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <v>19.19673</v>
@@ -1935,13 +2028,19 @@
       <c r="AL10">
         <v>116</v>
       </c>
+      <c r="AM10">
+        <v>124</v>
+      </c>
+      <c r="AN10">
+        <v>129</v>
+      </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11">
         <v>38.0428</v>
@@ -2051,13 +2150,19 @@
       <c r="AL11">
         <v>234</v>
       </c>
+      <c r="AM11">
+        <v>248</v>
+      </c>
+      <c r="AN11">
+        <v>261</v>
+      </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C12">
         <v>47.86199999999999</v>
@@ -2167,13 +2272,19 @@
       <c r="AL12">
         <v>227</v>
       </c>
+      <c r="AM12">
+        <v>243</v>
+      </c>
+      <c r="AN12">
+        <v>249</v>
+      </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C13">
         <v>33.88202</v>
@@ -2283,13 +2394,19 @@
       <c r="AL13">
         <v>943</v>
       </c>
+      <c r="AM13">
+        <v>1002</v>
+      </c>
+      <c r="AN13">
+        <v>1033</v>
+      </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>30.97564</v>
@@ -2399,13 +2516,19 @@
       <c r="AL14">
         <v>16748</v>
       </c>
+      <c r="AM14">
+        <v>18971</v>
+      </c>
+      <c r="AN14">
+        <v>20969</v>
+      </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C15">
         <v>27.61041</v>
@@ -2515,13 +2638,19 @@
       <c r="AL15">
         <v>731</v>
       </c>
+      <c r="AM15">
+        <v>768</v>
+      </c>
+      <c r="AN15">
+        <v>783</v>
+      </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C16">
         <v>44.09448</v>
@@ -2631,13 +2760,19 @@
       <c r="AL16">
         <v>34</v>
       </c>
+      <c r="AM16">
+        <v>35</v>
+      </c>
+      <c r="AN16">
+        <v>38</v>
+      </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>32.97027</v>
@@ -2747,13 +2882,19 @@
       <c r="AL17">
         <v>452</v>
       </c>
+      <c r="AM17">
+        <v>458</v>
+      </c>
+      <c r="AN17">
+        <v>478</v>
+      </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:40">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C18">
         <v>27.61401</v>
@@ -2863,13 +3004,19 @@
       <c r="AL18">
         <v>645</v>
       </c>
+      <c r="AM18">
+        <v>683</v>
+      </c>
+      <c r="AN18">
+        <v>719</v>
+      </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:40">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C19">
         <v>43.66657</v>
@@ -2979,13 +3126,19 @@
       <c r="AL19">
         <v>60</v>
       </c>
+      <c r="AM19">
+        <v>63</v>
+      </c>
+      <c r="AN19">
+        <v>65</v>
+      </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:40">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C20">
         <v>41.29284000000001</v>
@@ -3095,13 +3248,19 @@
       <c r="AL20">
         <v>80</v>
       </c>
+      <c r="AM20">
+        <v>83</v>
+      </c>
+      <c r="AN20">
+        <v>88</v>
+      </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:40">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C21">
         <v>37.26923</v>
@@ -3211,13 +3370,19 @@
       <c r="AL21">
         <v>58</v>
       </c>
+      <c r="AM21">
+        <v>61</v>
+      </c>
+      <c r="AN21">
+        <v>65</v>
+      </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:40">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C22">
         <v>35.65945</v>
@@ -3327,13 +3492,19 @@
       <c r="AL22">
         <v>18</v>
       </c>
+      <c r="AM22">
+        <v>18</v>
+      </c>
+      <c r="AN22">
+        <v>18</v>
+      </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:40">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>35.19165</v>
@@ -3443,13 +3614,19 @@
       <c r="AL23">
         <v>173</v>
       </c>
+      <c r="AM23">
+        <v>186</v>
+      </c>
+      <c r="AN23">
+        <v>192</v>
+      </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:40">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>36.34377</v>
@@ -3559,13 +3736,19 @@
       <c r="AL24">
         <v>343</v>
       </c>
+      <c r="AM24">
+        <v>355</v>
+      </c>
+      <c r="AN24">
+        <v>377</v>
+      </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C25">
         <v>31.20327</v>
@@ -3675,13 +3858,19 @@
       <c r="AL25">
         <v>261</v>
       </c>
+      <c r="AM25">
+        <v>268</v>
+      </c>
+      <c r="AN25">
+        <v>272</v>
+      </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:40">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>37.57769</v>
@@ -3791,13 +3980,19 @@
       <c r="AL26">
         <v>94</v>
       </c>
+      <c r="AM26">
+        <v>98</v>
+      </c>
+      <c r="AN26">
+        <v>104</v>
+      </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:40">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C27">
         <v>30.61714</v>
@@ -3907,13 +4102,19 @@
       <c r="AL27">
         <v>276</v>
       </c>
+      <c r="AM27">
+        <v>289</v>
+      </c>
+      <c r="AN27">
+        <v>307</v>
+      </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:40">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>39.29362</v>
@@ -4023,13 +4224,19 @@
       <c r="AL28">
         <v>87</v>
       </c>
+      <c r="AM28">
+        <v>91</v>
+      </c>
+      <c r="AN28">
+        <v>96</v>
+      </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:40">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>30.1534</v>
@@ -4139,13 +4346,19 @@
       <c r="AL29">
         <v>1</v>
       </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:40">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C30">
         <v>41.11981</v>
@@ -4255,13 +4468,19 @@
       <c r="AL30">
         <v>30</v>
       </c>
+      <c r="AM30">
+        <v>30</v>
+      </c>
+      <c r="AN30">
+        <v>34</v>
+      </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:40">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C31">
         <v>24.97411</v>
@@ -4371,13 +4590,19 @@
       <c r="AL31">
         <v>124</v>
       </c>
+      <c r="AM31">
+        <v>129</v>
+      </c>
+      <c r="AN31">
+        <v>144</v>
+      </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:40">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C32">
         <v>29.18251</v>
@@ -4487,10 +4712,16 @@
       <c r="AL32">
         <v>782</v>
       </c>
+      <c r="AM32">
+        <v>808</v>
+      </c>
+      <c r="AN32">
+        <v>867</v>
+      </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:40">
       <c r="B33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C33">
         <v>13.7563</v>
@@ -4600,10 +4831,16 @@
       <c r="AL33">
         <v>21</v>
       </c>
+      <c r="AM33">
+        <v>22</v>
+      </c>
+      <c r="AN33">
+        <v>22</v>
+      </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:40">
       <c r="B34" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C34">
         <v>35.6762</v>
@@ -4713,10 +4950,16 @@
       <c r="AL34">
         <v>22</v>
       </c>
+      <c r="AM34">
+        <v>22</v>
+      </c>
+      <c r="AN34">
+        <v>22</v>
+      </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:40">
       <c r="B35" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C35">
         <v>37.5665</v>
@@ -4826,13 +5069,19 @@
       <c r="AL35">
         <v>18</v>
       </c>
+      <c r="AM35">
+        <v>22</v>
+      </c>
+      <c r="AN35">
+        <v>22</v>
+      </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:40">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36">
         <v>23.6978</v>
@@ -4942,13 +5191,19 @@
       <c r="AL36">
         <v>5</v>
       </c>
+      <c r="AM36">
+        <v>5</v>
+      </c>
+      <c r="AN36">
+        <v>5</v>
+      </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:40">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C37">
         <v>47.7511</v>
@@ -5058,13 +5313,19 @@
       <c r="AL37">
         <v>1</v>
       </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:40">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C38">
         <v>40.6331</v>
@@ -5174,13 +5435,19 @@
       <c r="AL38">
         <v>2</v>
       </c>
+      <c r="AM38">
+        <v>2</v>
+      </c>
+      <c r="AN38">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:40">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C39">
         <v>34.0489</v>
@@ -5290,13 +5557,19 @@
       <c r="AL39">
         <v>0</v>
       </c>
+      <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:40">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C40">
         <v>22.1987</v>
@@ -5406,13 +5679,19 @@
       <c r="AL40">
         <v>6</v>
       </c>
+      <c r="AM40">
+        <v>7</v>
+      </c>
+      <c r="AN40">
+        <v>7</v>
+      </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:40">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <v>22.3193</v>
@@ -5522,10 +5801,16 @@
       <c r="AL41">
         <v>19</v>
       </c>
+      <c r="AM41">
+        <v>19</v>
+      </c>
+      <c r="AN41">
+        <v>24</v>
+      </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:40">
       <c r="B42" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C42">
         <v>1.3521</v>
@@ -5635,10 +5920,16 @@
       <c r="AL42">
         <v>51</v>
       </c>
+      <c r="AM42">
+        <v>53</v>
+      </c>
+      <c r="AN42">
+        <v>62</v>
+      </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:40">
       <c r="B43" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C43">
         <v>21.0278</v>
@@ -5748,10 +6039,16 @@
       <c r="AL43">
         <v>14</v>
       </c>
+      <c r="AM43">
+        <v>16</v>
+      </c>
+      <c r="AN43">
+        <v>16</v>
+      </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:40">
       <c r="B44" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C44">
         <v>46.2276</v>
@@ -5861,10 +6158,16 @@
       <c r="AL44">
         <v>4</v>
       </c>
+      <c r="AM44">
+        <v>11</v>
+      </c>
+      <c r="AN44">
+        <v>11</v>
+      </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:40">
       <c r="B45" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C45">
         <v>28.3949</v>
@@ -5974,10 +6277,16 @@
       <c r="AL45">
         <v>1</v>
       </c>
+      <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:40">
       <c r="B46" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C46">
         <v>4.2105</v>
@@ -6087,13 +6396,19 @@
       <c r="AL46">
         <v>18</v>
       </c>
+      <c r="AM46">
+        <v>18</v>
+      </c>
+      <c r="AN46">
+        <v>18</v>
+      </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:40">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C47">
         <v>43.6532</v>
@@ -6203,13 +6518,19 @@
       <c r="AL47">
         <v>2</v>
       </c>
+      <c r="AM47">
+        <v>2</v>
+      </c>
+      <c r="AN47">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:40">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C48">
         <v>49.2827</v>
@@ -6319,13 +6640,19 @@
       <c r="AL48">
         <v>0</v>
       </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:40">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C49">
         <v>33.7879</v>
@@ -6435,13 +6762,19 @@
       <c r="AL49">
         <v>0</v>
       </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:40">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C50">
         <v>34.0522</v>
@@ -6551,13 +6884,19 @@
       <c r="AL50">
         <v>0</v>
       </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:40">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C51">
         <v>-33.8688</v>
@@ -6667,13 +7006,19 @@
       <c r="AL51">
         <v>4</v>
       </c>
+      <c r="AM51">
+        <v>4</v>
+      </c>
+      <c r="AN51">
+        <v>4</v>
+      </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:40">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C52">
         <v>-37.8136</v>
@@ -6783,13 +7128,19 @@
       <c r="AL52">
         <v>4</v>
       </c>
+      <c r="AM52">
+        <v>4</v>
+      </c>
+      <c r="AN52">
+        <v>4</v>
+      </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:40">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C53">
         <v>-27.4698</v>
@@ -6899,10 +7250,16 @@
       <c r="AL53">
         <v>1</v>
       </c>
+      <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:40">
       <c r="B54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C54">
         <v>12.5657</v>
@@ -7012,10 +7369,16 @@
       <c r="AL54">
         <v>1</v>
       </c>
+      <c r="AM54">
+        <v>1</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:40">
       <c r="B55" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C55">
         <v>7.8731</v>
@@ -7125,10 +7488,16 @@
       <c r="AL55">
         <v>1</v>
       </c>
+      <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:40">
       <c r="B56" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C56">
         <v>51.1657</v>
@@ -7238,10 +7607,16 @@
       <c r="AL56">
         <v>14</v>
       </c>
+      <c r="AM56">
+        <v>14</v>
+      </c>
+      <c r="AN56">
+        <v>15</v>
+      </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:40">
       <c r="B57" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C57">
         <v>61.9241</v>
@@ -7351,10 +7726,16 @@
       <c r="AL57">
         <v>1</v>
       </c>
+      <c r="AM57">
+        <v>1</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:40">
       <c r="B58" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C58">
         <v>23.4241</v>
@@ -7464,10 +7845,16 @@
       <c r="AL58">
         <v>4</v>
       </c>
+      <c r="AM58">
+        <v>4</v>
+      </c>
+      <c r="AN58">
+        <v>4</v>
+      </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:40">
       <c r="B59" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C59">
         <v>12.8797</v>
@@ -7577,10 +7964,16 @@
       <c r="AL59">
         <v>1</v>
       </c>
+      <c r="AM59">
+        <v>1</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:40">
       <c r="B60" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C60">
         <v>20.5937</v>
@@ -7690,13 +8083,19 @@
       <c r="AL60">
         <v>3</v>
       </c>
+      <c r="AM60">
+        <v>3</v>
+      </c>
+      <c r="AN60">
+        <v>3</v>
+      </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:40">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C61">
         <v>42.9849</v>
@@ -7806,10 +8205,16 @@
       <c r="AL61">
         <v>1</v>
       </c>
+      <c r="AM61">
+        <v>1</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:40">
       <c r="B62" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C62">
         <v>41.8719</v>
@@ -7919,10 +8324,16 @@
       <c r="AL62">
         <v>1</v>
       </c>
+      <c r="AM62">
+        <v>1</v>
+      </c>
+      <c r="AN62">
+        <v>3</v>
+      </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:40">
       <c r="B63" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C63">
         <v>55.3781</v>
@@ -8032,10 +8443,16 @@
       <c r="AL63">
         <v>8</v>
       </c>
+      <c r="AM63">
+        <v>8</v>
+      </c>
+      <c r="AN63">
+        <v>8</v>
+      </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:40">
       <c r="B64" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C64">
         <v>61.52399999999999</v>
@@ -8145,10 +8562,16 @@
       <c r="AL64">
         <v>2</v>
       </c>
+      <c r="AM64">
+        <v>2</v>
+      </c>
+      <c r="AN64">
+        <v>2</v>
+      </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:40">
       <c r="B65" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C65">
         <v>60.1282</v>
@@ -8258,13 +8681,19 @@
       <c r="AL65">
         <v>0</v>
       </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:40">
       <c r="A66" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C66">
         <v>37.3541</v>
@@ -8374,10 +8803,16 @@
       <c r="AL66">
         <v>1</v>
       </c>
+      <c r="AM66">
+        <v>1</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:40">
       <c r="B67" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C67">
         <v>40.4637</v>
@@ -8487,13 +8922,19 @@
       <c r="AL67">
         <v>2</v>
       </c>
+      <c r="AM67">
+        <v>2</v>
+      </c>
+      <c r="AN67">
+        <v>2</v>
+      </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:40">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C68">
         <v>-34.9285</v>
@@ -8603,13 +9044,19 @@
       <c r="AL68">
         <v>2</v>
       </c>
+      <c r="AM68">
+        <v>2</v>
+      </c>
+      <c r="AN68">
+        <v>2</v>
+      </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:40">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C69">
         <v>42.3601</v>
@@ -8719,13 +9166,19 @@
       <c r="AL69">
         <v>0</v>
       </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:40">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C70">
         <v>36.5761</v>
@@ -8835,10 +9288,16 @@
       <c r="AL70">
         <v>0</v>
       </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:40">
       <c r="B71" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C71">
         <v>50.5039</v>
@@ -8948,13 +9407,19 @@
       <c r="AL71">
         <v>1</v>
       </c>
+      <c r="AM71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:40">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C72">
         <v>43.0731</v>
@@ -9064,13 +9529,19 @@
       <c r="AL72">
         <v>0</v>
       </c>
+      <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:40">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C73">
         <v>35.4437</v>
@@ -9180,13 +9651,19 @@
       <c r="AL73">
         <v>0</v>
       </c>
+      <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>10</v>
+      </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:40">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C74">
         <v>32.7157</v>
@@ -9296,13 +9773,19 @@
       <c r="AL74">
         <v>1</v>
       </c>
+      <c r="AM74">
+        <v>1</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:40">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C75">
         <v>29.4241</v>
@@ -9412,10 +9895,16 @@
       <c r="AL75">
         <v>0</v>
       </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:40">
       <c r="B76" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C76">
         <v>26.8206</v>
@@ -9525,10 +10014,16 @@
       <c r="AL76">
         <v>0</v>
       </c>
+      <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:40">
       <c r="B77" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C77">
         <v>32.4279</v>
@@ -9638,13 +10133,19 @@
       <c r="AL77">
         <v>0</v>
       </c>
+      <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>49</v>
+      </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:40">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C78">
         <v>41.2545</v>
@@ -9754,13 +10255,19 @@
       <c r="AL78">
         <v>0</v>
       </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:40">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C79">
         <v>38.2721</v>
@@ -9870,13 +10377,19 @@
       <c r="AL79">
         <v>0</v>
       </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:40">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C80">
         <v>35.4437</v>
@@ -9986,13 +10499,19 @@
       <c r="AL80">
         <v>0</v>
       </c>
+      <c r="AM80">
+        <v>0</v>
+      </c>
+      <c r="AN80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:40">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C81">
         <v>29.3829</v>
@@ -10102,19 +10621,22 @@
       <c r="AL81">
         <v>0</v>
       </c>
+      <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:38">
-      <c r="A82" t="s">
-        <v>93</v>
-      </c>
+    <row r="82" spans="1:40">
       <c r="B82" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C82">
-        <v>31.0461</v>
+        <v>33.8547</v>
       </c>
       <c r="D82">
-        <v>34.8516</v>
+        <v>35.8623</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -10218,16 +10740,25 @@
       <c r="AL82">
         <v>0</v>
       </c>
+      <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:40">
+      <c r="A83" t="s">
+        <v>97</v>
+      </c>
       <c r="B83" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C83">
-        <v>33.8547</v>
+        <v>40.745</v>
       </c>
       <c r="D83">
-        <v>35.8623</v>
+        <v>-123.8695</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -10331,19 +10862,25 @@
       <c r="AL83">
         <v>0</v>
       </c>
+      <c r="AM83">
+        <v>0</v>
+      </c>
+      <c r="AN83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:40">
       <c r="A84" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C84">
-        <v>40.745</v>
+        <v>38.4747</v>
       </c>
       <c r="D84">
-        <v>-123.8695</v>
+        <v>-121.3542</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -10447,19 +10984,22 @@
       <c r="AL84">
         <v>0</v>
       </c>
+      <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:38">
-      <c r="A85" t="s">
-        <v>96</v>
-      </c>
+    <row r="85" spans="1:40">
       <c r="B85" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C85">
-        <v>38.4747</v>
+        <v>33.2232</v>
       </c>
       <c r="D85">
-        <v>-121.3542</v>
+        <v>43.6793</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -10563,16 +11103,25 @@
       <c r="AL85">
         <v>0</v>
       </c>
+      <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:40">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C86">
-        <v>33.2232</v>
+        <v>37.0902</v>
       </c>
       <c r="D86">
-        <v>43.6793</v>
+        <v>-95.7129</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -10676,19 +11225,22 @@
       <c r="AL86">
         <v>0</v>
       </c>
+      <c r="AM86">
+        <v>0</v>
+      </c>
+      <c r="AN86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:38">
-      <c r="A87" t="s">
-        <v>97</v>
-      </c>
+    <row r="87" spans="1:40">
       <c r="B87" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="C87">
-        <v>37.0902</v>
+        <v>21.4735</v>
       </c>
       <c r="D87">
-        <v>-95.7129</v>
+        <v>55.9754</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -10792,16 +11344,22 @@
       <c r="AL87">
         <v>0</v>
       </c>
+      <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>0</v>
+      </c>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:40">
       <c r="B88" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C88">
-        <v>21.4735</v>
+        <v>33</v>
       </c>
       <c r="D88">
-        <v>55.9754</v>
+        <v>65</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -10905,16 +11463,22 @@
       <c r="AL88">
         <v>0</v>
       </c>
+      <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:38">
+    <row r="89" spans="1:40">
       <c r="B89" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C89">
-        <v>33</v>
+        <v>26.0275</v>
       </c>
       <c r="D89">
-        <v>65</v>
+        <v>50.55</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -11018,16 +11582,22 @@
       <c r="AL89">
         <v>0</v>
       </c>
+      <c r="AM89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:40">
       <c r="B90" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C90">
-        <v>26.0275</v>
+        <v>29.5</v>
       </c>
       <c r="D90">
-        <v>50.55</v>
+        <v>47.75</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -11131,16 +11701,22 @@
       <c r="AL90">
         <v>0</v>
       </c>
+      <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:40">
       <c r="B91" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C91">
-        <v>29.5</v>
+        <v>28.0339</v>
       </c>
       <c r="D91">
-        <v>47.75</v>
+        <v>1.6596</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -11242,6 +11818,1321 @@
         <v>0</v>
       </c>
       <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:40">
+      <c r="B92" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92">
+        <v>45.1</v>
+      </c>
+      <c r="D92">
+        <v>15.2</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>0</v>
+      </c>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:40">
+      <c r="B93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93">
+        <v>46.8182</v>
+      </c>
+      <c r="D93">
+        <v>8.227499999999999</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <v>0</v>
+      </c>
+      <c r="X93">
+        <v>0</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
+      </c>
+      <c r="AF93">
+        <v>0</v>
+      </c>
+      <c r="AG93">
+        <v>0</v>
+      </c>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>0</v>
+      </c>
+      <c r="AL93">
+        <v>0</v>
+      </c>
+      <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:40">
+      <c r="B94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94">
+        <v>47.5162</v>
+      </c>
+      <c r="D94">
+        <v>14.5501</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AF94">
+        <v>0</v>
+      </c>
+      <c r="AG94">
+        <v>0</v>
+      </c>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
+      </c>
+      <c r="AJ94">
+        <v>0</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94">
+        <v>0</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:40">
+      <c r="B95" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95">
+        <v>31</v>
+      </c>
+      <c r="D95">
+        <v>35</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
+      </c>
+      <c r="AF95">
+        <v>0</v>
+      </c>
+      <c r="AG95">
+        <v>0</v>
+      </c>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
+      </c>
+      <c r="AJ95">
+        <v>0</v>
+      </c>
+      <c r="AK95">
+        <v>0</v>
+      </c>
+      <c r="AL95">
+        <v>0</v>
+      </c>
+      <c r="AM95">
+        <v>0</v>
+      </c>
+      <c r="AN95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:40">
+      <c r="B96" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96">
+        <v>30.3753</v>
+      </c>
+      <c r="D96">
+        <v>69.3451</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AF96">
+        <v>0</v>
+      </c>
+      <c r="AG96">
+        <v>0</v>
+      </c>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
+      </c>
+      <c r="AJ96">
+        <v>0</v>
+      </c>
+      <c r="AK96">
+        <v>0</v>
+      </c>
+      <c r="AL96">
+        <v>0</v>
+      </c>
+      <c r="AM96">
+        <v>0</v>
+      </c>
+      <c r="AN96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:40">
+      <c r="B97" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97">
+        <v>-14.235</v>
+      </c>
+      <c r="D97">
+        <v>-51.9253</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>0</v>
+      </c>
+      <c r="X97">
+        <v>0</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>0</v>
+      </c>
+      <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
+      </c>
+      <c r="AF97">
+        <v>0</v>
+      </c>
+      <c r="AG97">
+        <v>0</v>
+      </c>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
+      </c>
+      <c r="AJ97">
+        <v>0</v>
+      </c>
+      <c r="AK97">
+        <v>0</v>
+      </c>
+      <c r="AL97">
+        <v>0</v>
+      </c>
+      <c r="AM97">
+        <v>0</v>
+      </c>
+      <c r="AN97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:40">
+      <c r="B98" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98">
+        <v>42.3154</v>
+      </c>
+      <c r="D98">
+        <v>43.3569</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AF98">
+        <v>0</v>
+      </c>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
+      </c>
+      <c r="AJ98">
+        <v>0</v>
+      </c>
+      <c r="AK98">
+        <v>0</v>
+      </c>
+      <c r="AL98">
+        <v>0</v>
+      </c>
+      <c r="AM98">
+        <v>0</v>
+      </c>
+      <c r="AN98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:40">
+      <c r="B99" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99">
+        <v>39.0742</v>
+      </c>
+      <c r="D99">
+        <v>21.8243</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <v>0</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
+      </c>
+      <c r="AF99">
+        <v>0</v>
+      </c>
+      <c r="AG99">
+        <v>0</v>
+      </c>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
+      </c>
+      <c r="AJ99">
+        <v>0</v>
+      </c>
+      <c r="AK99">
+        <v>0</v>
+      </c>
+      <c r="AL99">
+        <v>0</v>
+      </c>
+      <c r="AM99">
+        <v>0</v>
+      </c>
+      <c r="AN99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:40">
+      <c r="B100" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100">
+        <v>41.6086</v>
+      </c>
+      <c r="D100">
+        <v>21.7453</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>0</v>
+      </c>
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
+      </c>
+      <c r="AF100">
+        <v>0</v>
+      </c>
+      <c r="AG100">
+        <v>0</v>
+      </c>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
+      </c>
+      <c r="AJ100">
+        <v>0</v>
+      </c>
+      <c r="AK100">
+        <v>0</v>
+      </c>
+      <c r="AL100">
+        <v>0</v>
+      </c>
+      <c r="AM100">
+        <v>0</v>
+      </c>
+      <c r="AN100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:40">
+      <c r="B101" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101">
+        <v>60.472</v>
+      </c>
+      <c r="D101">
+        <v>8.4689</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>0</v>
+      </c>
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <v>0</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
+      </c>
+      <c r="AF101">
+        <v>0</v>
+      </c>
+      <c r="AG101">
+        <v>0</v>
+      </c>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
+      </c>
+      <c r="AJ101">
+        <v>0</v>
+      </c>
+      <c r="AK101">
+        <v>0</v>
+      </c>
+      <c r="AL101">
+        <v>0</v>
+      </c>
+      <c r="AM101">
+        <v>0</v>
+      </c>
+      <c r="AN101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:40">
+      <c r="B102" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102">
+        <v>45.9432</v>
+      </c>
+      <c r="D102">
+        <v>24.9668</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="S102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>0</v>
+      </c>
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="Y102">
+        <v>0</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102">
+        <v>0</v>
+      </c>
+      <c r="AB102">
+        <v>0</v>
+      </c>
+      <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
+      </c>
+      <c r="AF102">
+        <v>0</v>
+      </c>
+      <c r="AG102">
+        <v>0</v>
+      </c>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
+      </c>
+      <c r="AJ102">
+        <v>0</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
         <v>0</v>
       </c>
     </row>

--- a/COVID19-Recovered.xlsx
+++ b/COVID19-Recovered.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="174">
   <si>
     <t>Province/State</t>
   </si>
@@ -136,6 +136,18 @@
     <t>2/26/20</t>
   </si>
   <si>
+    <t>2/27/20</t>
+  </si>
+  <si>
+    <t>2/28/20</t>
+  </si>
+  <si>
+    <t>2/29/20</t>
+  </si>
+  <si>
+    <t>3/1/20</t>
+  </si>
+  <si>
     <t>Anhui</t>
   </si>
   <si>
@@ -232,7 +244,7 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>Seattle, WA</t>
+    <t>King County, WA</t>
   </si>
   <si>
     <t>Chicago, IL</t>
@@ -314,6 +326,21 @@
   </si>
   <si>
     <t>Unassigned Location (From Diamond Princess)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Montreal, QC</t>
+  </si>
+  <si>
+    <t>Western Australia</t>
+  </si>
+  <si>
+    <t>Portland, OR</t>
+  </si>
+  <si>
+    <t>Snohomish County, WA</t>
+  </si>
+  <si>
+    <t>Providence, RI</t>
   </si>
   <si>
     <t>Mainland China</t>
@@ -452,6 +479,63 @@
   </si>
   <si>
     <t>Romania</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
   </si>
 </sst>
 </file>
@@ -809,13 +893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN102"/>
+  <dimension ref="A1:AR126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,16 +1020,28 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C2">
-        <v>31.82571</v>
+        <v>31.8257</v>
       </c>
       <c r="D2">
         <v>117.2264</v>
@@ -1058,16 +1154,28 @@
       <c r="AN2">
         <v>744</v>
       </c>
+      <c r="AO2">
+        <v>792</v>
+      </c>
+      <c r="AP2">
+        <v>821</v>
+      </c>
+      <c r="AQ2">
+        <v>868</v>
+      </c>
+      <c r="AR2">
+        <v>873</v>
+      </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:44">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C3">
-        <v>40.18238</v>
+        <v>40.1824</v>
       </c>
       <c r="D3">
         <v>116.4142</v>
@@ -1180,16 +1288,28 @@
       <c r="AN3">
         <v>235</v>
       </c>
+      <c r="AO3">
+        <v>248</v>
+      </c>
+      <c r="AP3">
+        <v>257</v>
+      </c>
+      <c r="AQ3">
+        <v>271</v>
+      </c>
+      <c r="AR3">
+        <v>276</v>
+      </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:44">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C4">
-        <v>30.05718</v>
+        <v>30.0572</v>
       </c>
       <c r="D4">
         <v>107.874</v>
@@ -1302,19 +1422,31 @@
       <c r="AN4">
         <v>384</v>
       </c>
+      <c r="AO4">
+        <v>401</v>
+      </c>
+      <c r="AP4">
+        <v>422</v>
+      </c>
+      <c r="AQ4">
+        <v>438</v>
+      </c>
+      <c r="AR4">
+        <v>450</v>
+      </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:44">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C5">
-        <v>26.07783</v>
+        <v>26.0789</v>
       </c>
       <c r="D5">
-        <v>117.9895</v>
+        <v>117.9874</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1424,13 +1556,25 @@
       <c r="AN5">
         <v>218</v>
       </c>
+      <c r="AO5">
+        <v>228</v>
+      </c>
+      <c r="AP5">
+        <v>235</v>
+      </c>
+      <c r="AQ5">
+        <v>243</v>
+      </c>
+      <c r="AR5">
+        <v>247</v>
+      </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:44">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C6">
         <v>36.0611</v>
@@ -1546,19 +1690,31 @@
       <c r="AN6">
         <v>81</v>
       </c>
+      <c r="AO6">
+        <v>81</v>
+      </c>
+      <c r="AP6">
+        <v>82</v>
+      </c>
+      <c r="AQ6">
+        <v>82</v>
+      </c>
+      <c r="AR6">
+        <v>84</v>
+      </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:44">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C7">
-        <v>23.33841</v>
+        <v>23.3417</v>
       </c>
       <c r="D7">
-        <v>113.422</v>
+        <v>113.4244</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1668,16 +1824,28 @@
       <c r="AN7">
         <v>851</v>
       </c>
+      <c r="AO7">
+        <v>890</v>
+      </c>
+      <c r="AP7">
+        <v>935</v>
+      </c>
+      <c r="AQ7">
+        <v>983</v>
+      </c>
+      <c r="AR7">
+        <v>1016</v>
+      </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:44">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C8">
-        <v>23.82908</v>
+        <v>23.8298</v>
       </c>
       <c r="D8">
         <v>108.7881</v>
@@ -1790,16 +1958,28 @@
       <c r="AN8">
         <v>147</v>
       </c>
+      <c r="AO8">
+        <v>161</v>
+      </c>
+      <c r="AP8">
+        <v>168</v>
+      </c>
+      <c r="AQ8">
+        <v>176</v>
+      </c>
+      <c r="AR8">
+        <v>181</v>
+      </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:44">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C9">
-        <v>26.81536</v>
+        <v>26.8154</v>
       </c>
       <c r="D9">
         <v>106.8748</v>
@@ -1912,19 +2092,31 @@
       <c r="AN9">
         <v>104</v>
       </c>
+      <c r="AO9">
+        <v>112</v>
+      </c>
+      <c r="AP9">
+        <v>112</v>
+      </c>
+      <c r="AQ9">
+        <v>112</v>
+      </c>
+      <c r="AR9">
+        <v>112</v>
+      </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:44">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C10">
-        <v>19.19673</v>
+        <v>19.1959</v>
       </c>
       <c r="D10">
-        <v>109.7455</v>
+        <v>109.7453</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2034,13 +2226,25 @@
       <c r="AN10">
         <v>129</v>
       </c>
+      <c r="AO10">
+        <v>131</v>
+      </c>
+      <c r="AP10">
+        <v>133</v>
+      </c>
+      <c r="AQ10">
+        <v>148</v>
+      </c>
+      <c r="AR10">
+        <v>149</v>
+      </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:44">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C11">
         <v>38.0428</v>
@@ -2156,19 +2360,31 @@
       <c r="AN11">
         <v>261</v>
       </c>
+      <c r="AO11">
+        <v>274</v>
+      </c>
+      <c r="AP11">
+        <v>277</v>
+      </c>
+      <c r="AQ11">
+        <v>282</v>
+      </c>
+      <c r="AR11">
+        <v>294</v>
+      </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:44">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C12">
         <v>47.86199999999999</v>
       </c>
       <c r="D12">
-        <v>127.7622</v>
+        <v>127.7615</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2278,13 +2494,25 @@
       <c r="AN12">
         <v>249</v>
       </c>
+      <c r="AO12">
+        <v>270</v>
+      </c>
+      <c r="AP12">
+        <v>283</v>
+      </c>
+      <c r="AQ12">
+        <v>301</v>
+      </c>
+      <c r="AR12">
+        <v>342</v>
+      </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:44">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C13">
         <v>33.88202</v>
@@ -2400,16 +2628,28 @@
       <c r="AN13">
         <v>1033</v>
       </c>
+      <c r="AO13">
+        <v>1068</v>
+      </c>
+      <c r="AP13">
+        <v>1112</v>
+      </c>
+      <c r="AQ13">
+        <v>1170</v>
+      </c>
+      <c r="AR13">
+        <v>1198</v>
+      </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:44">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C14">
-        <v>30.97564</v>
+        <v>30.9756</v>
       </c>
       <c r="D14">
         <v>112.2707</v>
@@ -2522,16 +2762,28 @@
       <c r="AN14">
         <v>20969</v>
       </c>
+      <c r="AO14">
+        <v>23383</v>
+      </c>
+      <c r="AP14">
+        <v>26403</v>
+      </c>
+      <c r="AQ14">
+        <v>28993</v>
+      </c>
+      <c r="AR14">
+        <v>31536</v>
+      </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:44">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C15">
-        <v>27.61041</v>
+        <v>27.6104</v>
       </c>
       <c r="D15">
         <v>111.7088</v>
@@ -2644,19 +2896,31 @@
       <c r="AN15">
         <v>783</v>
       </c>
+      <c r="AO15">
+        <v>804</v>
+      </c>
+      <c r="AP15">
+        <v>830</v>
+      </c>
+      <c r="AQ15">
+        <v>846</v>
+      </c>
+      <c r="AR15">
+        <v>866</v>
+      </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:44">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C16">
-        <v>44.09448</v>
+        <v>44.0935</v>
       </c>
       <c r="D16">
-        <v>113.9456</v>
+        <v>113.9448</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2766,19 +3030,31 @@
       <c r="AN16">
         <v>38</v>
       </c>
+      <c r="AO16">
+        <v>43</v>
+      </c>
+      <c r="AP16">
+        <v>45</v>
+      </c>
+      <c r="AQ16">
+        <v>49</v>
+      </c>
+      <c r="AR16">
+        <v>52</v>
+      </c>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:44">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C17">
-        <v>32.97027</v>
+        <v>32.9711</v>
       </c>
       <c r="D17">
-        <v>119.464</v>
+        <v>119.455</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2888,16 +3164,28 @@
       <c r="AN17">
         <v>478</v>
       </c>
+      <c r="AO17">
+        <v>498</v>
+      </c>
+      <c r="AP17">
+        <v>515</v>
+      </c>
+      <c r="AQ17">
+        <v>523</v>
+      </c>
+      <c r="AR17">
+        <v>536</v>
+      </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:44">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C18">
-        <v>27.61401</v>
+        <v>27.614</v>
       </c>
       <c r="D18">
         <v>115.7221</v>
@@ -3010,19 +3298,31 @@
       <c r="AN18">
         <v>719</v>
       </c>
+      <c r="AO18">
+        <v>754</v>
+      </c>
+      <c r="AP18">
+        <v>790</v>
+      </c>
+      <c r="AQ18">
+        <v>811</v>
+      </c>
+      <c r="AR18">
+        <v>831</v>
+      </c>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:44">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C19">
-        <v>43.66657</v>
+        <v>43.6661</v>
       </c>
       <c r="D19">
-        <v>126.1917</v>
+        <v>126.1923</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3132,19 +3432,31 @@
       <c r="AN19">
         <v>65</v>
       </c>
+      <c r="AO19">
+        <v>67</v>
+      </c>
+      <c r="AP19">
+        <v>73</v>
+      </c>
+      <c r="AQ19">
+        <v>75</v>
+      </c>
+      <c r="AR19">
+        <v>78</v>
+      </c>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:44">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C20">
-        <v>41.29284000000001</v>
+        <v>41.2956</v>
       </c>
       <c r="D20">
-        <v>122.6086</v>
+        <v>122.6085</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3254,16 +3566,28 @@
       <c r="AN20">
         <v>88</v>
       </c>
+      <c r="AO20">
+        <v>93</v>
+      </c>
+      <c r="AP20">
+        <v>93</v>
+      </c>
+      <c r="AQ20">
+        <v>96</v>
+      </c>
+      <c r="AR20">
+        <v>103</v>
+      </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:44">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C21">
-        <v>37.26923</v>
+        <v>37.2692</v>
       </c>
       <c r="D21">
         <v>106.1655</v>
@@ -3376,19 +3700,31 @@
       <c r="AN21">
         <v>65</v>
       </c>
+      <c r="AO21">
+        <v>68</v>
+      </c>
+      <c r="AP21">
+        <v>68</v>
+      </c>
+      <c r="AQ21">
+        <v>69</v>
+      </c>
+      <c r="AR21">
+        <v>69</v>
+      </c>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:44">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C22">
-        <v>35.65945</v>
+        <v>35.7452</v>
       </c>
       <c r="D22">
-        <v>96.02564</v>
+        <v>95.9956</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3498,16 +3834,28 @@
       <c r="AN22">
         <v>18</v>
       </c>
+      <c r="AO22">
+        <v>18</v>
+      </c>
+      <c r="AP22">
+        <v>18</v>
+      </c>
+      <c r="AQ22">
+        <v>18</v>
+      </c>
+      <c r="AR22">
+        <v>18</v>
+      </c>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:44">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C23">
-        <v>35.19165</v>
+        <v>35.1917</v>
       </c>
       <c r="D23">
         <v>108.8701</v>
@@ -3620,19 +3968,31 @@
       <c r="AN23">
         <v>192</v>
       </c>
+      <c r="AO23">
+        <v>195</v>
+      </c>
+      <c r="AP23">
+        <v>199</v>
+      </c>
+      <c r="AQ23">
+        <v>207</v>
+      </c>
+      <c r="AR23">
+        <v>208</v>
+      </c>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:44">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C24">
-        <v>36.34377</v>
+        <v>36.3427</v>
       </c>
       <c r="D24">
-        <v>118.1529</v>
+        <v>118.1498</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3742,19 +4102,31 @@
       <c r="AN24">
         <v>377</v>
       </c>
+      <c r="AO24">
+        <v>387</v>
+      </c>
+      <c r="AP24">
+        <v>405</v>
+      </c>
+      <c r="AQ24">
+        <v>421</v>
+      </c>
+      <c r="AR24">
+        <v>443</v>
+      </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:44">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C25">
-        <v>31.20327</v>
+        <v>31.202</v>
       </c>
       <c r="D25">
-        <v>121.4554</v>
+        <v>121.4491</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3864,16 +4236,28 @@
       <c r="AN25">
         <v>272</v>
       </c>
+      <c r="AO25">
+        <v>276</v>
+      </c>
+      <c r="AP25">
+        <v>279</v>
+      </c>
+      <c r="AQ25">
+        <v>287</v>
+      </c>
+      <c r="AR25">
+        <v>290</v>
+      </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:44">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C26">
-        <v>37.57769</v>
+        <v>37.5777</v>
       </c>
       <c r="D26">
         <v>112.2922</v>
@@ -3986,16 +4370,28 @@
       <c r="AN26">
         <v>104</v>
       </c>
+      <c r="AO26">
+        <v>107</v>
+      </c>
+      <c r="AP26">
+        <v>112</v>
+      </c>
+      <c r="AQ26">
+        <v>114</v>
+      </c>
+      <c r="AR26">
+        <v>116</v>
+      </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:44">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C27">
-        <v>30.61714</v>
+        <v>30.6171</v>
       </c>
       <c r="D27">
         <v>102.7103</v>
@@ -4108,19 +4504,31 @@
       <c r="AN27">
         <v>307</v>
       </c>
+      <c r="AO27">
+        <v>321</v>
+      </c>
+      <c r="AP27">
+        <v>338</v>
+      </c>
+      <c r="AQ27">
+        <v>351</v>
+      </c>
+      <c r="AR27">
+        <v>365</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:44">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C28">
-        <v>39.29362</v>
+        <v>39.3054</v>
       </c>
       <c r="D28">
-        <v>117.333</v>
+        <v>117.323</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4230,19 +4638,31 @@
       <c r="AN28">
         <v>96</v>
       </c>
+      <c r="AO28">
+        <v>102</v>
+      </c>
+      <c r="AP28">
+        <v>102</v>
+      </c>
+      <c r="AQ28">
+        <v>109</v>
+      </c>
+      <c r="AR28">
+        <v>111</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
+    <row r="29" spans="1:44">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C29">
-        <v>30.1534</v>
+        <v>31.6927</v>
       </c>
       <c r="D29">
-        <v>88.78789999999999</v>
+        <v>88.0924</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4352,19 +4772,31 @@
       <c r="AN29">
         <v>1</v>
       </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>1</v>
+      </c>
+      <c r="AQ29">
+        <v>1</v>
+      </c>
+      <c r="AR29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" spans="1:44">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C30">
-        <v>41.11981</v>
+        <v>41.1129</v>
       </c>
       <c r="D30">
-        <v>85.17822</v>
+        <v>85.2401</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4474,19 +4906,31 @@
       <c r="AN30">
         <v>34</v>
       </c>
+      <c r="AO30">
+        <v>43</v>
+      </c>
+      <c r="AP30">
+        <v>52</v>
+      </c>
+      <c r="AQ30">
+        <v>62</v>
+      </c>
+      <c r="AR30">
+        <v>64</v>
+      </c>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" spans="1:44">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C31">
-        <v>24.97411</v>
+        <v>24.974</v>
       </c>
       <c r="D31">
-        <v>101.4868</v>
+        <v>101.487</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4596,19 +5040,31 @@
       <c r="AN31">
         <v>144</v>
       </c>
+      <c r="AO31">
+        <v>150</v>
+      </c>
+      <c r="AP31">
+        <v>156</v>
+      </c>
+      <c r="AQ31">
+        <v>157</v>
+      </c>
+      <c r="AR31">
+        <v>163</v>
+      </c>
     </row>
-    <row r="32" spans="1:40">
+    <row r="32" spans="1:44">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C32">
-        <v>29.18251</v>
+        <v>29.1832</v>
       </c>
       <c r="D32">
-        <v>120.0985</v>
+        <v>120.0934</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4718,16 +5174,28 @@
       <c r="AN32">
         <v>867</v>
       </c>
+      <c r="AO32">
+        <v>932</v>
+      </c>
+      <c r="AP32">
+        <v>975</v>
+      </c>
+      <c r="AQ32">
+        <v>1016</v>
+      </c>
+      <c r="AR32">
+        <v>1046</v>
+      </c>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="1:44">
       <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33">
         <v>101</v>
-      </c>
-      <c r="C33">
-        <v>13.7563</v>
-      </c>
-      <c r="D33">
-        <v>100.5018</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4837,16 +5305,28 @@
       <c r="AN33">
         <v>22</v>
       </c>
+      <c r="AO33">
+        <v>22</v>
+      </c>
+      <c r="AP33">
+        <v>28</v>
+      </c>
+      <c r="AQ33">
+        <v>28</v>
+      </c>
+      <c r="AR33">
+        <v>28</v>
+      </c>
     </row>
-    <row r="34" spans="1:40">
+    <row r="34" spans="1:44">
       <c r="B34" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C34">
-        <v>35.6762</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>139.6503</v>
+        <v>138</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4956,16 +5436,28 @@
       <c r="AN34">
         <v>22</v>
       </c>
+      <c r="AO34">
+        <v>22</v>
+      </c>
+      <c r="AP34">
+        <v>22</v>
+      </c>
+      <c r="AQ34">
+        <v>32</v>
+      </c>
+      <c r="AR34">
+        <v>32</v>
+      </c>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:44">
       <c r="B35" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C35">
-        <v>37.5665</v>
+        <v>36</v>
       </c>
       <c r="D35">
-        <v>126.978</v>
+        <v>128</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5075,19 +5567,31 @@
       <c r="AN35">
         <v>22</v>
       </c>
+      <c r="AO35">
+        <v>22</v>
+      </c>
+      <c r="AP35">
+        <v>22</v>
+      </c>
+      <c r="AQ35">
+        <v>27</v>
+      </c>
+      <c r="AR35">
+        <v>30</v>
+      </c>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:44">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C36">
-        <v>23.6978</v>
+        <v>23.7</v>
       </c>
       <c r="D36">
-        <v>120.9605</v>
+        <v>121</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -5197,19 +5701,31 @@
       <c r="AN36">
         <v>5</v>
       </c>
+      <c r="AO36">
+        <v>5</v>
+      </c>
+      <c r="AP36">
+        <v>6</v>
+      </c>
+      <c r="AQ36">
+        <v>9</v>
+      </c>
+      <c r="AR36">
+        <v>9</v>
+      </c>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:44">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C37">
-        <v>47.7511</v>
+        <v>47.6062</v>
       </c>
       <c r="D37">
-        <v>-120.74</v>
+        <v>-122.3321</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5319,19 +5835,31 @@
       <c r="AN37">
         <v>1</v>
       </c>
+      <c r="AO37">
+        <v>1</v>
+      </c>
+      <c r="AP37">
+        <v>1</v>
+      </c>
+      <c r="AQ37">
+        <v>1</v>
+      </c>
+      <c r="AR37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:44">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C38">
-        <v>40.6331</v>
+        <v>41.8781</v>
       </c>
       <c r="D38">
-        <v>-89.3985</v>
+        <v>-87.6298</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -5441,19 +5969,31 @@
       <c r="AN38">
         <v>2</v>
       </c>
+      <c r="AO38">
+        <v>2</v>
+      </c>
+      <c r="AP38">
+        <v>2</v>
+      </c>
+      <c r="AQ38">
+        <v>2</v>
+      </c>
+      <c r="AR38">
+        <v>2</v>
+      </c>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="1:44">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C39">
-        <v>34.0489</v>
+        <v>33.4255</v>
       </c>
       <c r="D39">
-        <v>-111.094</v>
+        <v>-111.94</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -5563,19 +6103,31 @@
       <c r="AN39">
         <v>1</v>
       </c>
+      <c r="AO39">
+        <v>1</v>
+      </c>
+      <c r="AP39">
+        <v>1</v>
+      </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:40">
+    <row r="40" spans="1:44">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C40">
-        <v>22.1987</v>
+        <v>22.1667</v>
       </c>
       <c r="D40">
-        <v>113.5439</v>
+        <v>113.55</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5685,19 +6237,31 @@
       <c r="AN40">
         <v>7</v>
       </c>
+      <c r="AO40">
+        <v>8</v>
+      </c>
+      <c r="AP40">
+        <v>8</v>
+      </c>
+      <c r="AQ40">
+        <v>8</v>
+      </c>
+      <c r="AR40">
+        <v>8</v>
+      </c>
     </row>
-    <row r="41" spans="1:40">
+    <row r="41" spans="1:44">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C41">
-        <v>22.3193</v>
+        <v>22.3</v>
       </c>
       <c r="D41">
-        <v>114.1694</v>
+        <v>114.2</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5807,16 +6371,28 @@
       <c r="AN41">
         <v>24</v>
       </c>
+      <c r="AO41">
+        <v>24</v>
+      </c>
+      <c r="AP41">
+        <v>30</v>
+      </c>
+      <c r="AQ41">
+        <v>33</v>
+      </c>
+      <c r="AR41">
+        <v>36</v>
+      </c>
     </row>
-    <row r="42" spans="1:40">
+    <row r="42" spans="1:44">
       <c r="B42" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C42">
-        <v>1.3521</v>
+        <v>1.2833</v>
       </c>
       <c r="D42">
-        <v>103.8198</v>
+        <v>103.8333</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -5926,16 +6502,28 @@
       <c r="AN42">
         <v>62</v>
       </c>
+      <c r="AO42">
+        <v>62</v>
+      </c>
+      <c r="AP42">
+        <v>62</v>
+      </c>
+      <c r="AQ42">
+        <v>72</v>
+      </c>
+      <c r="AR42">
+        <v>72</v>
+      </c>
     </row>
-    <row r="43" spans="1:40">
+    <row r="43" spans="1:44">
       <c r="B43" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C43">
-        <v>21.0278</v>
+        <v>16</v>
       </c>
       <c r="D43">
-        <v>105.8342</v>
+        <v>108</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -6045,16 +6633,28 @@
       <c r="AN43">
         <v>16</v>
       </c>
+      <c r="AO43">
+        <v>16</v>
+      </c>
+      <c r="AP43">
+        <v>16</v>
+      </c>
+      <c r="AQ43">
+        <v>16</v>
+      </c>
+      <c r="AR43">
+        <v>16</v>
+      </c>
     </row>
-    <row r="44" spans="1:40">
+    <row r="44" spans="1:44">
       <c r="B44" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C44">
-        <v>46.2276</v>
+        <v>47</v>
       </c>
       <c r="D44">
-        <v>2.2137</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -6164,16 +6764,28 @@
       <c r="AN44">
         <v>11</v>
       </c>
+      <c r="AO44">
+        <v>11</v>
+      </c>
+      <c r="AP44">
+        <v>11</v>
+      </c>
+      <c r="AQ44">
+        <v>12</v>
+      </c>
+      <c r="AR44">
+        <v>12</v>
+      </c>
     </row>
-    <row r="45" spans="1:40">
+    <row r="45" spans="1:44">
       <c r="B45" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C45">
-        <v>28.3949</v>
+        <v>28.1667</v>
       </c>
       <c r="D45">
-        <v>84.124</v>
+        <v>84.25</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -6283,16 +6895,28 @@
       <c r="AN45">
         <v>1</v>
       </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>1</v>
+      </c>
+      <c r="AQ45">
+        <v>1</v>
+      </c>
+      <c r="AR45">
+        <v>1</v>
+      </c>
     </row>
-    <row r="46" spans="1:40">
+    <row r="46" spans="1:44">
       <c r="B46" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C46">
-        <v>4.2105</v>
+        <v>2.5</v>
       </c>
       <c r="D46">
-        <v>101.9758</v>
+        <v>112.5</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -6402,13 +7026,25 @@
       <c r="AN46">
         <v>18</v>
       </c>
+      <c r="AO46">
+        <v>18</v>
+      </c>
+      <c r="AP46">
+        <v>18</v>
+      </c>
+      <c r="AQ46">
+        <v>18</v>
+      </c>
+      <c r="AR46">
+        <v>18</v>
+      </c>
     </row>
-    <row r="47" spans="1:40">
+    <row r="47" spans="1:44">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C47">
         <v>43.6532</v>
@@ -6524,19 +7160,31 @@
       <c r="AN47">
         <v>2</v>
       </c>
+      <c r="AO47">
+        <v>2</v>
+      </c>
+      <c r="AP47">
+        <v>2</v>
+      </c>
+      <c r="AQ47">
+        <v>2</v>
+      </c>
+      <c r="AR47">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="1:40">
+    <row r="48" spans="1:44">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C48">
         <v>49.2827</v>
       </c>
       <c r="D48">
-        <v>-123.121</v>
+        <v>-123.1207</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -6646,13 +7294,25 @@
       <c r="AN48">
         <v>0</v>
       </c>
+      <c r="AO48">
+        <v>3</v>
+      </c>
+      <c r="AP48">
+        <v>3</v>
+      </c>
+      <c r="AQ48">
+        <v>3</v>
+      </c>
+      <c r="AR48">
+        <v>3</v>
+      </c>
     </row>
-    <row r="49" spans="1:40">
+    <row r="49" spans="1:44">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C49">
         <v>33.7879</v>
@@ -6768,13 +7428,25 @@
       <c r="AN49">
         <v>0</v>
       </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:40">
+    <row r="50" spans="1:44">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C50">
         <v>34.0522</v>
@@ -6890,13 +7562,25 @@
       <c r="AN50">
         <v>0</v>
       </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:40">
+    <row r="51" spans="1:44">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C51">
         <v>-33.8688</v>
@@ -7012,13 +7696,25 @@
       <c r="AN51">
         <v>4</v>
       </c>
+      <c r="AO51">
+        <v>4</v>
+      </c>
+      <c r="AP51">
+        <v>4</v>
+      </c>
+      <c r="AQ51">
+        <v>4</v>
+      </c>
+      <c r="AR51">
+        <v>4</v>
+      </c>
     </row>
-    <row r="52" spans="1:40">
+    <row r="52" spans="1:44">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C52">
         <v>-37.8136</v>
@@ -7134,19 +7830,31 @@
       <c r="AN52">
         <v>4</v>
       </c>
+      <c r="AO52">
+        <v>4</v>
+      </c>
+      <c r="AP52">
+        <v>4</v>
+      </c>
+      <c r="AQ52">
+        <v>4</v>
+      </c>
+      <c r="AR52">
+        <v>4</v>
+      </c>
     </row>
-    <row r="53" spans="1:40">
+    <row r="53" spans="1:44">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C53">
-        <v>-27.4698</v>
+        <v>-28.0167</v>
       </c>
       <c r="D53">
-        <v>153.0251</v>
+        <v>153.4</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -7256,16 +7964,28 @@
       <c r="AN53">
         <v>1</v>
       </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>1</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
+        <v>1</v>
+      </c>
     </row>
-    <row r="54" spans="1:40">
+    <row r="54" spans="1:44">
       <c r="B54" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C54">
-        <v>12.5657</v>
+        <v>11.55</v>
       </c>
       <c r="D54">
-        <v>104.991</v>
+        <v>104.9167</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -7375,16 +8095,28 @@
       <c r="AN54">
         <v>1</v>
       </c>
+      <c r="AO54">
+        <v>1</v>
+      </c>
+      <c r="AP54">
+        <v>1</v>
+      </c>
+      <c r="AQ54">
+        <v>1</v>
+      </c>
+      <c r="AR54">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:40">
+    <row r="55" spans="1:44">
       <c r="B55" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C55">
-        <v>7.8731</v>
+        <v>7</v>
       </c>
       <c r="D55">
-        <v>80.7718</v>
+        <v>81</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -7494,16 +8226,28 @@
       <c r="AN55">
         <v>1</v>
       </c>
+      <c r="AO55">
+        <v>1</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>1</v>
+      </c>
+      <c r="AR55">
+        <v>1</v>
+      </c>
     </row>
-    <row r="56" spans="1:40">
+    <row r="56" spans="1:44">
       <c r="B56" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C56">
-        <v>51.1657</v>
+        <v>51</v>
       </c>
       <c r="D56">
-        <v>10.4515</v>
+        <v>9</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -7613,16 +8357,28 @@
       <c r="AN56">
         <v>15</v>
       </c>
+      <c r="AO56">
+        <v>16</v>
+      </c>
+      <c r="AP56">
+        <v>16</v>
+      </c>
+      <c r="AQ56">
+        <v>16</v>
+      </c>
+      <c r="AR56">
+        <v>16</v>
+      </c>
     </row>
-    <row r="57" spans="1:40">
+    <row r="57" spans="1:44">
       <c r="B57" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C57">
-        <v>61.9241</v>
+        <v>64</v>
       </c>
       <c r="D57">
-        <v>25.7482</v>
+        <v>26</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -7732,16 +8488,28 @@
       <c r="AN57">
         <v>1</v>
       </c>
+      <c r="AO57">
+        <v>1</v>
+      </c>
+      <c r="AP57">
+        <v>1</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:40">
+    <row r="58" spans="1:44">
       <c r="B58" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C58">
-        <v>23.4241</v>
+        <v>24</v>
       </c>
       <c r="D58">
-        <v>53.8478</v>
+        <v>54</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -7851,16 +8619,28 @@
       <c r="AN58">
         <v>4</v>
       </c>
+      <c r="AO58">
+        <v>4</v>
+      </c>
+      <c r="AP58">
+        <v>5</v>
+      </c>
+      <c r="AQ58">
+        <v>5</v>
+      </c>
+      <c r="AR58">
+        <v>5</v>
+      </c>
     </row>
-    <row r="59" spans="1:40">
+    <row r="59" spans="1:44">
       <c r="B59" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C59">
-        <v>12.8797</v>
+        <v>13</v>
       </c>
       <c r="D59">
-        <v>121.774</v>
+        <v>122</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -7970,16 +8750,28 @@
       <c r="AN59">
         <v>1</v>
       </c>
+      <c r="AO59">
+        <v>1</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
+        <v>1</v>
+      </c>
+      <c r="AR59">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:40">
+    <row r="60" spans="1:44">
       <c r="B60" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C60">
-        <v>20.5937</v>
+        <v>21</v>
       </c>
       <c r="D60">
-        <v>78.9629</v>
+        <v>78</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -8089,13 +8881,25 @@
       <c r="AN60">
         <v>3</v>
       </c>
+      <c r="AO60">
+        <v>3</v>
+      </c>
+      <c r="AP60">
+        <v>3</v>
+      </c>
+      <c r="AQ60">
+        <v>3</v>
+      </c>
+      <c r="AR60">
+        <v>3</v>
+      </c>
     </row>
-    <row r="61" spans="1:40">
+    <row r="61" spans="1:44">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C61">
         <v>42.9849</v>
@@ -8211,16 +9015,28 @@
       <c r="AN61">
         <v>1</v>
       </c>
+      <c r="AO61">
+        <v>1</v>
+      </c>
+      <c r="AP61">
+        <v>1</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:40">
+    <row r="62" spans="1:44">
       <c r="B62" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C62">
-        <v>41.8719</v>
+        <v>43</v>
       </c>
       <c r="D62">
-        <v>12.5674</v>
+        <v>12</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -8330,16 +9146,28 @@
       <c r="AN62">
         <v>3</v>
       </c>
+      <c r="AO62">
+        <v>45</v>
+      </c>
+      <c r="AP62">
+        <v>46</v>
+      </c>
+      <c r="AQ62">
+        <v>46</v>
+      </c>
+      <c r="AR62">
+        <v>83</v>
+      </c>
     </row>
-    <row r="63" spans="1:40">
+    <row r="63" spans="1:44">
       <c r="B63" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C63">
-        <v>55.3781</v>
+        <v>55</v>
       </c>
       <c r="D63">
-        <v>-3.436</v>
+        <v>-3</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -8449,16 +9277,28 @@
       <c r="AN63">
         <v>8</v>
       </c>
+      <c r="AO63">
+        <v>8</v>
+      </c>
+      <c r="AP63">
+        <v>8</v>
+      </c>
+      <c r="AQ63">
+        <v>8</v>
+      </c>
+      <c r="AR63">
+        <v>8</v>
+      </c>
     </row>
-    <row r="64" spans="1:40">
+    <row r="64" spans="1:44">
       <c r="B64" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C64">
-        <v>61.52399999999999</v>
+        <v>60</v>
       </c>
       <c r="D64">
-        <v>105.3188</v>
+        <v>90</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -8568,16 +9408,28 @@
       <c r="AN64">
         <v>2</v>
       </c>
+      <c r="AO64">
+        <v>2</v>
+      </c>
+      <c r="AP64">
+        <v>2</v>
+      </c>
+      <c r="AQ64">
+        <v>2</v>
+      </c>
+      <c r="AR64">
+        <v>2</v>
+      </c>
     </row>
-    <row r="65" spans="1:40">
+    <row r="65" spans="1:44">
       <c r="B65" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C65">
-        <v>60.1282</v>
+        <v>63</v>
       </c>
       <c r="D65">
-        <v>18.6435</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -8687,13 +9539,25 @@
       <c r="AN65">
         <v>0</v>
       </c>
+      <c r="AO65">
+        <v>0</v>
+      </c>
+      <c r="AP65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:40">
+    <row r="66" spans="1:44">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C66">
         <v>37.3541</v>
@@ -8809,16 +9673,28 @@
       <c r="AN66">
         <v>1</v>
       </c>
+      <c r="AO66">
+        <v>1</v>
+      </c>
+      <c r="AP66">
+        <v>1</v>
+      </c>
+      <c r="AQ66">
+        <v>1</v>
+      </c>
+      <c r="AR66">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:40">
+    <row r="67" spans="1:44">
       <c r="B67" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C67">
-        <v>40.4637</v>
+        <v>40</v>
       </c>
       <c r="D67">
-        <v>-3.7492</v>
+        <v>-4</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -8928,13 +9804,25 @@
       <c r="AN67">
         <v>2</v>
       </c>
+      <c r="AO67">
+        <v>2</v>
+      </c>
+      <c r="AP67">
+        <v>2</v>
+      </c>
+      <c r="AQ67">
+        <v>2</v>
+      </c>
+      <c r="AR67">
+        <v>2</v>
+      </c>
     </row>
-    <row r="68" spans="1:40">
+    <row r="68" spans="1:44">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C68">
         <v>-34.9285</v>
@@ -9050,13 +9938,25 @@
       <c r="AN68">
         <v>2</v>
       </c>
+      <c r="AO68">
+        <v>2</v>
+      </c>
+      <c r="AP68">
+        <v>2</v>
+      </c>
+      <c r="AQ68">
+        <v>2</v>
+      </c>
+      <c r="AR68">
+        <v>2</v>
+      </c>
     </row>
-    <row r="69" spans="1:40">
+    <row r="69" spans="1:44">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C69">
         <v>42.3601</v>
@@ -9172,13 +10072,25 @@
       <c r="AN69">
         <v>0</v>
       </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+      <c r="AP69">
+        <v>1</v>
+      </c>
+      <c r="AQ69">
+        <v>1</v>
+      </c>
+      <c r="AR69">
+        <v>1</v>
+      </c>
     </row>
-    <row r="70" spans="1:40">
+    <row r="70" spans="1:44">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C70">
         <v>36.5761</v>
@@ -9294,16 +10206,28 @@
       <c r="AN70">
         <v>0</v>
       </c>
+      <c r="AO70">
+        <v>0</v>
+      </c>
+      <c r="AP70">
+        <v>0</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:40">
+    <row r="71" spans="1:44">
       <c r="B71" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C71">
-        <v>50.5039</v>
+        <v>50.8333</v>
       </c>
       <c r="D71">
-        <v>4.4699</v>
+        <v>4</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -9413,13 +10337,25 @@
       <c r="AN71">
         <v>1</v>
       </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>1</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71">
+        <v>1</v>
+      </c>
     </row>
-    <row r="72" spans="1:40">
+    <row r="72" spans="1:44">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C72">
         <v>43.0731</v>
@@ -9535,13 +10471,25 @@
       <c r="AN72">
         <v>0</v>
       </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>0</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:40">
+    <row r="73" spans="1:44">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C73">
         <v>35.4437</v>
@@ -9657,13 +10605,25 @@
       <c r="AN73">
         <v>10</v>
       </c>
+      <c r="AO73">
+        <v>10</v>
+      </c>
+      <c r="AP73">
+        <v>10</v>
+      </c>
+      <c r="AQ73">
+        <v>10</v>
+      </c>
+      <c r="AR73">
+        <v>10</v>
+      </c>
     </row>
-    <row r="74" spans="1:40">
+    <row r="74" spans="1:44">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C74">
         <v>32.7157</v>
@@ -9779,13 +10739,25 @@
       <c r="AN74">
         <v>1</v>
       </c>
+      <c r="AO74">
+        <v>1</v>
+      </c>
+      <c r="AP74">
+        <v>1</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>1</v>
+      </c>
     </row>
-    <row r="75" spans="1:40">
+    <row r="75" spans="1:44">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C75">
         <v>29.4241</v>
@@ -9901,16 +10873,28 @@
       <c r="AN75">
         <v>0</v>
       </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:40">
+    <row r="76" spans="1:44">
       <c r="B76" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C76">
-        <v>26.8206</v>
+        <v>26</v>
       </c>
       <c r="D76">
-        <v>30.8025</v>
+        <v>30</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -10020,16 +11004,28 @@
       <c r="AN76">
         <v>0</v>
       </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>1</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AR76">
+        <v>1</v>
+      </c>
     </row>
-    <row r="77" spans="1:40">
+    <row r="77" spans="1:44">
       <c r="B77" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C77">
-        <v>32.4279</v>
+        <v>32</v>
       </c>
       <c r="D77">
-        <v>53.688</v>
+        <v>53</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -10139,13 +11135,25 @@
       <c r="AN77">
         <v>49</v>
       </c>
+      <c r="AO77">
+        <v>49</v>
+      </c>
+      <c r="AP77">
+        <v>73</v>
+      </c>
+      <c r="AQ77">
+        <v>123</v>
+      </c>
+      <c r="AR77">
+        <v>175</v>
+      </c>
     </row>
-    <row r="78" spans="1:40">
+    <row r="78" spans="1:44">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C78">
         <v>41.2545</v>
@@ -10261,13 +11269,25 @@
       <c r="AN78">
         <v>0</v>
       </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>0</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>0</v>
+      </c>
     </row>
-    <row r="79" spans="1:40">
+    <row r="79" spans="1:44">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C79">
         <v>38.2721</v>
@@ -10383,13 +11403,25 @@
       <c r="AN79">
         <v>0</v>
       </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:40">
+    <row r="80" spans="1:44">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C80">
         <v>35.4437</v>
@@ -10505,13 +11537,25 @@
       <c r="AN80">
         <v>0</v>
       </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
+      <c r="AQ80">
+        <v>0</v>
+      </c>
+      <c r="AR80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:40">
+    <row r="81" spans="1:44">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C81">
         <v>29.3829</v>
@@ -10627,10 +11671,22 @@
       <c r="AN81">
         <v>0</v>
       </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:40">
+    <row r="82" spans="1:44">
       <c r="B82" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C82">
         <v>33.8547</v>
@@ -10746,13 +11802,25 @@
       <c r="AN82">
         <v>0</v>
       </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:40">
+    <row r="83" spans="1:44">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B83" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C83">
         <v>40.745</v>
@@ -10868,13 +11936,25 @@
       <c r="AN83">
         <v>0</v>
       </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>0</v>
+      </c>
+      <c r="AQ83">
+        <v>0</v>
+      </c>
+      <c r="AR83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:40">
+    <row r="84" spans="1:44">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C84">
         <v>38.4747</v>
@@ -10990,16 +12070,28 @@
       <c r="AN84">
         <v>0</v>
       </c>
+      <c r="AO84">
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <v>0</v>
+      </c>
+      <c r="AQ84">
+        <v>0</v>
+      </c>
+      <c r="AR84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:40">
+    <row r="85" spans="1:44">
       <c r="B85" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C85">
-        <v>33.2232</v>
+        <v>33</v>
       </c>
       <c r="D85">
-        <v>43.6793</v>
+        <v>44</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -11109,19 +12201,31 @@
       <c r="AN85">
         <v>0</v>
       </c>
+      <c r="AO85">
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <v>0</v>
+      </c>
+      <c r="AQ85">
+        <v>0</v>
+      </c>
+      <c r="AR85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:40">
+    <row r="86" spans="1:44">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C86">
-        <v>37.0902</v>
+        <v>35.4437</v>
       </c>
       <c r="D86">
-        <v>-95.7129</v>
+        <v>139.638</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -11231,16 +12335,28 @@
       <c r="AN86">
         <v>0</v>
       </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
+      <c r="AP86">
+        <v>0</v>
+      </c>
+      <c r="AQ86">
+        <v>0</v>
+      </c>
+      <c r="AR86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:40">
+    <row r="87" spans="1:44">
       <c r="B87" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C87">
-        <v>21.4735</v>
+        <v>21</v>
       </c>
       <c r="D87">
-        <v>55.9754</v>
+        <v>57</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -11350,10 +12466,22 @@
       <c r="AN87">
         <v>0</v>
       </c>
+      <c r="AO87">
+        <v>0</v>
+      </c>
+      <c r="AP87">
+        <v>0</v>
+      </c>
+      <c r="AQ87">
+        <v>1</v>
+      </c>
+      <c r="AR87">
+        <v>1</v>
+      </c>
     </row>
-    <row r="88" spans="1:40">
+    <row r="88" spans="1:44">
       <c r="B88" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C88">
         <v>33</v>
@@ -11469,10 +12597,22 @@
       <c r="AN88">
         <v>0</v>
       </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
+      <c r="AP88">
+        <v>0</v>
+      </c>
+      <c r="AQ88">
+        <v>0</v>
+      </c>
+      <c r="AR88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:40">
+    <row r="89" spans="1:44">
       <c r="B89" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C89">
         <v>26.0275</v>
@@ -11588,10 +12728,22 @@
       <c r="AN89">
         <v>0</v>
       </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>0</v>
+      </c>
+      <c r="AQ89">
+        <v>0</v>
+      </c>
+      <c r="AR89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:40">
+    <row r="90" spans="1:44">
       <c r="B90" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C90">
         <v>29.5</v>
@@ -11707,10 +12859,22 @@
       <c r="AN90">
         <v>0</v>
       </c>
+      <c r="AO90">
+        <v>0</v>
+      </c>
+      <c r="AP90">
+        <v>0</v>
+      </c>
+      <c r="AQ90">
+        <v>0</v>
+      </c>
+      <c r="AR90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:40">
+    <row r="91" spans="1:44">
       <c r="B91" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C91">
         <v>28.0339</v>
@@ -11826,10 +12990,22 @@
       <c r="AN91">
         <v>0</v>
       </c>
+      <c r="AO91">
+        <v>0</v>
+      </c>
+      <c r="AP91">
+        <v>0</v>
+      </c>
+      <c r="AQ91">
+        <v>0</v>
+      </c>
+      <c r="AR91">
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="1:40">
+    <row r="92" spans="1:44">
       <c r="B92" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C92">
         <v>45.1</v>
@@ -11945,10 +13121,22 @@
       <c r="AN92">
         <v>0</v>
       </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>0</v>
+      </c>
+      <c r="AQ92">
+        <v>0</v>
+      </c>
+      <c r="AR92">
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="1:40">
+    <row r="93" spans="1:44">
       <c r="B93" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C93">
         <v>46.8182</v>
@@ -12064,10 +13252,22 @@
       <c r="AN93">
         <v>0</v>
       </c>
+      <c r="AO93">
+        <v>0</v>
+      </c>
+      <c r="AP93">
+        <v>0</v>
+      </c>
+      <c r="AQ93">
+        <v>0</v>
+      </c>
+      <c r="AR93">
+        <v>0</v>
+      </c>
     </row>
-    <row r="94" spans="1:40">
+    <row r="94" spans="1:44">
       <c r="B94" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C94">
         <v>47.5162</v>
@@ -12183,10 +13383,22 @@
       <c r="AN94">
         <v>0</v>
       </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+      <c r="AP94">
+        <v>0</v>
+      </c>
+      <c r="AQ94">
+        <v>0</v>
+      </c>
+      <c r="AR94">
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="1:40">
+    <row r="95" spans="1:44">
       <c r="B95" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C95">
         <v>31</v>
@@ -12302,10 +13514,22 @@
       <c r="AN95">
         <v>0</v>
       </c>
+      <c r="AO95">
+        <v>1</v>
+      </c>
+      <c r="AP95">
+        <v>1</v>
+      </c>
+      <c r="AQ95">
+        <v>1</v>
+      </c>
+      <c r="AR95">
+        <v>1</v>
+      </c>
     </row>
-    <row r="96" spans="1:40">
+    <row r="96" spans="1:44">
       <c r="B96" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C96">
         <v>30.3753</v>
@@ -12421,10 +13645,22 @@
       <c r="AN96">
         <v>0</v>
       </c>
+      <c r="AO96">
+        <v>0</v>
+      </c>
+      <c r="AP96">
+        <v>0</v>
+      </c>
+      <c r="AQ96">
+        <v>0</v>
+      </c>
+      <c r="AR96">
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="2:40">
+    <row r="97" spans="1:44">
       <c r="B97" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C97">
         <v>-14.235</v>
@@ -12540,10 +13776,22 @@
       <c r="AN97">
         <v>0</v>
       </c>
+      <c r="AO97">
+        <v>0</v>
+      </c>
+      <c r="AP97">
+        <v>0</v>
+      </c>
+      <c r="AQ97">
+        <v>0</v>
+      </c>
+      <c r="AR97">
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="2:40">
+    <row r="98" spans="1:44">
       <c r="B98" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C98">
         <v>42.3154</v>
@@ -12659,10 +13907,22 @@
       <c r="AN98">
         <v>0</v>
       </c>
+      <c r="AO98">
+        <v>0</v>
+      </c>
+      <c r="AP98">
+        <v>0</v>
+      </c>
+      <c r="AQ98">
+        <v>0</v>
+      </c>
+      <c r="AR98">
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="2:40">
+    <row r="99" spans="1:44">
       <c r="B99" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C99">
         <v>39.0742</v>
@@ -12778,10 +14038,22 @@
       <c r="AN99">
         <v>0</v>
       </c>
+      <c r="AO99">
+        <v>0</v>
+      </c>
+      <c r="AP99">
+        <v>0</v>
+      </c>
+      <c r="AQ99">
+        <v>0</v>
+      </c>
+      <c r="AR99">
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="2:40">
+    <row r="100" spans="1:44">
       <c r="B100" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C100">
         <v>41.6086</v>
@@ -12897,10 +14169,22 @@
       <c r="AN100">
         <v>0</v>
       </c>
+      <c r="AO100">
+        <v>0</v>
+      </c>
+      <c r="AP100">
+        <v>0</v>
+      </c>
+      <c r="AQ100">
+        <v>0</v>
+      </c>
+      <c r="AR100">
+        <v>0</v>
+      </c>
     </row>
-    <row r="101" spans="2:40">
+    <row r="101" spans="1:44">
       <c r="B101" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C101">
         <v>60.472</v>
@@ -13016,10 +14300,22 @@
       <c r="AN101">
         <v>0</v>
       </c>
+      <c r="AO101">
+        <v>0</v>
+      </c>
+      <c r="AP101">
+        <v>0</v>
+      </c>
+      <c r="AQ101">
+        <v>0</v>
+      </c>
+      <c r="AR101">
+        <v>0</v>
+      </c>
     </row>
-    <row r="102" spans="2:40">
+    <row r="102" spans="1:44">
       <c r="B102" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C102">
         <v>45.9432</v>
@@ -13133,6 +14429,3177 @@
         <v>0</v>
       </c>
       <c r="AN102">
+        <v>0</v>
+      </c>
+      <c r="AO102">
+        <v>0</v>
+      </c>
+      <c r="AP102">
+        <v>0</v>
+      </c>
+      <c r="AQ102">
+        <v>0</v>
+      </c>
+      <c r="AR102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:44">
+      <c r="B103" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103">
+        <v>56.2639</v>
+      </c>
+      <c r="D103">
+        <v>9.501799999999999</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>0</v>
+      </c>
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+      <c r="Y103">
+        <v>0</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
+        <v>0</v>
+      </c>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
+      </c>
+      <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>0</v>
+      </c>
+      <c r="AO103">
+        <v>0</v>
+      </c>
+      <c r="AP103">
+        <v>0</v>
+      </c>
+      <c r="AQ103">
+        <v>0</v>
+      </c>
+      <c r="AR103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:44">
+      <c r="B104" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104">
+        <v>58.5953</v>
+      </c>
+      <c r="D104">
+        <v>25.0136</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>0</v>
+      </c>
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>0</v>
+      </c>
+      <c r="AG104">
+        <v>0</v>
+      </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>0</v>
+      </c>
+      <c r="AO104">
+        <v>0</v>
+      </c>
+      <c r="AP104">
+        <v>0</v>
+      </c>
+      <c r="AQ104">
+        <v>0</v>
+      </c>
+      <c r="AR104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:44">
+      <c r="B105" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105">
+        <v>52.1326</v>
+      </c>
+      <c r="D105">
+        <v>5.2913</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+      <c r="Y105">
+        <v>0</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105">
+        <v>0</v>
+      </c>
+      <c r="AB105">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <v>0</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
+        <v>0</v>
+      </c>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
+      </c>
+      <c r="AJ105">
+        <v>0</v>
+      </c>
+      <c r="AK105">
+        <v>0</v>
+      </c>
+      <c r="AL105">
+        <v>0</v>
+      </c>
+      <c r="AM105">
+        <v>0</v>
+      </c>
+      <c r="AN105">
+        <v>0</v>
+      </c>
+      <c r="AO105">
+        <v>0</v>
+      </c>
+      <c r="AP105">
+        <v>0</v>
+      </c>
+      <c r="AQ105">
+        <v>0</v>
+      </c>
+      <c r="AR105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:44">
+      <c r="B106" t="s">
+        <v>158</v>
+      </c>
+      <c r="C106">
+        <v>43.9424</v>
+      </c>
+      <c r="D106">
+        <v>12.4578</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>0</v>
+      </c>
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+      <c r="Y106">
+        <v>0</v>
+      </c>
+      <c r="Z106">
+        <v>0</v>
+      </c>
+      <c r="AA106">
+        <v>0</v>
+      </c>
+      <c r="AB106">
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <v>0</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>0</v>
+      </c>
+      <c r="AG106">
+        <v>0</v>
+      </c>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
+      </c>
+      <c r="AJ106">
+        <v>0</v>
+      </c>
+      <c r="AK106">
+        <v>0</v>
+      </c>
+      <c r="AL106">
+        <v>0</v>
+      </c>
+      <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AN106">
+        <v>0</v>
+      </c>
+      <c r="AO106">
+        <v>0</v>
+      </c>
+      <c r="AP106">
+        <v>0</v>
+      </c>
+      <c r="AQ106">
+        <v>0</v>
+      </c>
+      <c r="AR106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:44">
+      <c r="B107" t="s">
+        <v>159</v>
+      </c>
+      <c r="C107">
+        <v>53.7098</v>
+      </c>
+      <c r="D107">
+        <v>27.9534</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0</v>
+      </c>
+      <c r="S107">
+        <v>0</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>0</v>
+      </c>
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+      <c r="Y107">
+        <v>0</v>
+      </c>
+      <c r="Z107">
+        <v>0</v>
+      </c>
+      <c r="AA107">
+        <v>0</v>
+      </c>
+      <c r="AB107">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <v>0</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
+      </c>
+      <c r="AF107">
+        <v>0</v>
+      </c>
+      <c r="AG107">
+        <v>0</v>
+      </c>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
+      </c>
+      <c r="AJ107">
+        <v>0</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
+      <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>0</v>
+      </c>
+      <c r="AO107">
+        <v>0</v>
+      </c>
+      <c r="AP107">
+        <v>0</v>
+      </c>
+      <c r="AQ107">
+        <v>0</v>
+      </c>
+      <c r="AR107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:44">
+      <c r="A108" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108">
+        <v>45.5017</v>
+      </c>
+      <c r="D108">
+        <v>-73.5673</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="S108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="U108">
+        <v>0</v>
+      </c>
+      <c r="V108">
+        <v>0</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+      <c r="AB108">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <v>0</v>
+      </c>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
+      </c>
+      <c r="AJ108">
+        <v>0</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>0</v>
+      </c>
+      <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>0</v>
+      </c>
+      <c r="AO108">
+        <v>0</v>
+      </c>
+      <c r="AP108">
+        <v>0</v>
+      </c>
+      <c r="AQ108">
+        <v>0</v>
+      </c>
+      <c r="AR108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:44">
+      <c r="B109" t="s">
+        <v>160</v>
+      </c>
+      <c r="C109">
+        <v>64.9631</v>
+      </c>
+      <c r="D109">
+        <v>-19.0208</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>0</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+      <c r="AB109">
+        <v>0</v>
+      </c>
+      <c r="AC109">
+        <v>0</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
+      <c r="AF109">
+        <v>0</v>
+      </c>
+      <c r="AG109">
+        <v>0</v>
+      </c>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
+      </c>
+      <c r="AJ109">
+        <v>0</v>
+      </c>
+      <c r="AK109">
+        <v>0</v>
+      </c>
+      <c r="AL109">
+        <v>0</v>
+      </c>
+      <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AN109">
+        <v>0</v>
+      </c>
+      <c r="AO109">
+        <v>0</v>
+      </c>
+      <c r="AP109">
+        <v>0</v>
+      </c>
+      <c r="AQ109">
+        <v>0</v>
+      </c>
+      <c r="AR109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:44">
+      <c r="B110" t="s">
+        <v>161</v>
+      </c>
+      <c r="C110">
+        <v>55.1694</v>
+      </c>
+      <c r="D110">
+        <v>23.8813</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="S110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>0</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
+      </c>
+      <c r="AF110">
+        <v>0</v>
+      </c>
+      <c r="AG110">
+        <v>0</v>
+      </c>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
+        <v>0</v>
+      </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
+      <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>0</v>
+      </c>
+      <c r="AO110">
+        <v>0</v>
+      </c>
+      <c r="AP110">
+        <v>0</v>
+      </c>
+      <c r="AQ110">
+        <v>0</v>
+      </c>
+      <c r="AR110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:44">
+      <c r="B111" t="s">
+        <v>162</v>
+      </c>
+      <c r="C111">
+        <v>23.6345</v>
+      </c>
+      <c r="D111">
+        <v>-102.5528</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <v>0</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
+        <v>0</v>
+      </c>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
+        <v>0</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>0</v>
+      </c>
+      <c r="AM111">
+        <v>0</v>
+      </c>
+      <c r="AN111">
+        <v>0</v>
+      </c>
+      <c r="AO111">
+        <v>0</v>
+      </c>
+      <c r="AP111">
+        <v>0</v>
+      </c>
+      <c r="AQ111">
+        <v>0</v>
+      </c>
+      <c r="AR111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:44">
+      <c r="B112" t="s">
+        <v>163</v>
+      </c>
+      <c r="C112">
+        <v>-40.9006</v>
+      </c>
+      <c r="D112">
+        <v>174.886</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="U112">
+        <v>0</v>
+      </c>
+      <c r="V112">
+        <v>0</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
+      </c>
+      <c r="AB112">
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <v>0</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
+      </c>
+      <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112">
+        <v>0</v>
+      </c>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
+      </c>
+      <c r="AJ112">
+        <v>0</v>
+      </c>
+      <c r="AK112">
+        <v>0</v>
+      </c>
+      <c r="AL112">
+        <v>0</v>
+      </c>
+      <c r="AM112">
+        <v>0</v>
+      </c>
+      <c r="AN112">
+        <v>0</v>
+      </c>
+      <c r="AO112">
+        <v>0</v>
+      </c>
+      <c r="AP112">
+        <v>0</v>
+      </c>
+      <c r="AQ112">
+        <v>0</v>
+      </c>
+      <c r="AR112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:44">
+      <c r="B113" t="s">
+        <v>164</v>
+      </c>
+      <c r="C113">
+        <v>9.082000000000001</v>
+      </c>
+      <c r="D113">
+        <v>8.6753</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="S113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>0</v>
+      </c>
+      <c r="V113">
+        <v>0</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+      <c r="AB113">
+        <v>0</v>
+      </c>
+      <c r="AC113">
+        <v>0</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
+      </c>
+      <c r="AF113">
+        <v>0</v>
+      </c>
+      <c r="AG113">
+        <v>0</v>
+      </c>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
+      </c>
+      <c r="AJ113">
+        <v>0</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
+      <c r="AL113">
+        <v>0</v>
+      </c>
+      <c r="AM113">
+        <v>0</v>
+      </c>
+      <c r="AN113">
+        <v>0</v>
+      </c>
+      <c r="AO113">
+        <v>0</v>
+      </c>
+      <c r="AP113">
+        <v>0</v>
+      </c>
+      <c r="AQ113">
+        <v>0</v>
+      </c>
+      <c r="AR113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:44">
+      <c r="A114" t="s">
+        <v>105</v>
+      </c>
+      <c r="B114" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114">
+        <v>-31.9505</v>
+      </c>
+      <c r="D114">
+        <v>115.8605</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="S114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="U114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+      <c r="AB114">
+        <v>0</v>
+      </c>
+      <c r="AC114">
+        <v>0</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
+      </c>
+      <c r="AF114">
+        <v>0</v>
+      </c>
+      <c r="AG114">
+        <v>0</v>
+      </c>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
+      </c>
+      <c r="AJ114">
+        <v>0</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>0</v>
+      </c>
+      <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AN114">
+        <v>0</v>
+      </c>
+      <c r="AO114">
+        <v>0</v>
+      </c>
+      <c r="AP114">
+        <v>0</v>
+      </c>
+      <c r="AQ114">
+        <v>0</v>
+      </c>
+      <c r="AR114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:44">
+      <c r="B115" t="s">
+        <v>165</v>
+      </c>
+      <c r="C115">
+        <v>53.1424</v>
+      </c>
+      <c r="D115">
+        <v>-7.6921</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="U115">
+        <v>0</v>
+      </c>
+      <c r="V115">
+        <v>0</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+      <c r="AB115">
+        <v>0</v>
+      </c>
+      <c r="AC115">
+        <v>0</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
+      </c>
+      <c r="AF115">
+        <v>0</v>
+      </c>
+      <c r="AG115">
+        <v>0</v>
+      </c>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
+      </c>
+      <c r="AJ115">
+        <v>0</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>0</v>
+      </c>
+      <c r="AO115">
+        <v>0</v>
+      </c>
+      <c r="AP115">
+        <v>0</v>
+      </c>
+      <c r="AQ115">
+        <v>0</v>
+      </c>
+      <c r="AR115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:44">
+      <c r="B116" t="s">
+        <v>166</v>
+      </c>
+      <c r="C116">
+        <v>49.8153</v>
+      </c>
+      <c r="D116">
+        <v>6.1296</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="S116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="U116">
+        <v>0</v>
+      </c>
+      <c r="V116">
+        <v>0</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AB116">
+        <v>0</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+      <c r="AF116">
+        <v>0</v>
+      </c>
+      <c r="AG116">
+        <v>0</v>
+      </c>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
+      </c>
+      <c r="AJ116">
+        <v>0</v>
+      </c>
+      <c r="AK116">
+        <v>0</v>
+      </c>
+      <c r="AL116">
+        <v>0</v>
+      </c>
+      <c r="AM116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>0</v>
+      </c>
+      <c r="AO116">
+        <v>0</v>
+      </c>
+      <c r="AP116">
+        <v>0</v>
+      </c>
+      <c r="AQ116">
+        <v>0</v>
+      </c>
+      <c r="AR116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:44">
+      <c r="B117" t="s">
+        <v>167</v>
+      </c>
+      <c r="C117">
+        <v>43.7333</v>
+      </c>
+      <c r="D117">
+        <v>7.4167</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="U117">
+        <v>0</v>
+      </c>
+      <c r="V117">
+        <v>0</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
+      </c>
+      <c r="AB117">
+        <v>0</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
+      </c>
+      <c r="AF117">
+        <v>0</v>
+      </c>
+      <c r="AG117">
+        <v>0</v>
+      </c>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
+      </c>
+      <c r="AJ117">
+        <v>0</v>
+      </c>
+      <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>0</v>
+      </c>
+      <c r="AO117">
+        <v>0</v>
+      </c>
+      <c r="AP117">
+        <v>0</v>
+      </c>
+      <c r="AQ117">
+        <v>0</v>
+      </c>
+      <c r="AR117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:44">
+      <c r="B118" t="s">
+        <v>168</v>
+      </c>
+      <c r="C118">
+        <v>25.3548</v>
+      </c>
+      <c r="D118">
+        <v>51.1839</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+      <c r="AB118">
+        <v>0</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+      <c r="AF118">
+        <v>0</v>
+      </c>
+      <c r="AG118">
+        <v>0</v>
+      </c>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AI118">
+        <v>0</v>
+      </c>
+      <c r="AJ118">
+        <v>0</v>
+      </c>
+      <c r="AK118">
+        <v>0</v>
+      </c>
+      <c r="AL118">
+        <v>0</v>
+      </c>
+      <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>0</v>
+      </c>
+      <c r="AO118">
+        <v>0</v>
+      </c>
+      <c r="AP118">
+        <v>0</v>
+      </c>
+      <c r="AQ118">
+        <v>0</v>
+      </c>
+      <c r="AR118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:44">
+      <c r="A119" t="s">
+        <v>106</v>
+      </c>
+      <c r="B119" t="s">
+        <v>113</v>
+      </c>
+      <c r="C119">
+        <v>45.5051</v>
+      </c>
+      <c r="D119">
+        <v>-122.675</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="U119">
+        <v>0</v>
+      </c>
+      <c r="V119">
+        <v>0</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AB119">
+        <v>0</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
+      <c r="AD119">
+        <v>0</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+      <c r="AF119">
+        <v>0</v>
+      </c>
+      <c r="AG119">
+        <v>0</v>
+      </c>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>0</v>
+      </c>
+      <c r="AJ119">
+        <v>0</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>0</v>
+      </c>
+      <c r="AO119">
+        <v>0</v>
+      </c>
+      <c r="AP119">
+        <v>0</v>
+      </c>
+      <c r="AQ119">
+        <v>0</v>
+      </c>
+      <c r="AR119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:44">
+      <c r="A120" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120" t="s">
+        <v>113</v>
+      </c>
+      <c r="C120">
+        <v>48.033</v>
+      </c>
+      <c r="D120">
+        <v>-121.8339</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>0</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AB120">
+        <v>0</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>0</v>
+      </c>
+      <c r="AF120">
+        <v>0</v>
+      </c>
+      <c r="AG120">
+        <v>0</v>
+      </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
+        <v>0</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>0</v>
+      </c>
+      <c r="AO120">
+        <v>0</v>
+      </c>
+      <c r="AP120">
+        <v>0</v>
+      </c>
+      <c r="AQ120">
+        <v>0</v>
+      </c>
+      <c r="AR120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:44">
+      <c r="B121" t="s">
+        <v>169</v>
+      </c>
+      <c r="C121">
+        <v>-1.8312</v>
+      </c>
+      <c r="D121">
+        <v>-78.18340000000001</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>0</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121">
+        <v>0</v>
+      </c>
+      <c r="V121">
+        <v>0</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AB121">
+        <v>0</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+      <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
+        <v>0</v>
+      </c>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121">
+        <v>0</v>
+      </c>
+      <c r="AK121">
+        <v>0</v>
+      </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>0</v>
+      </c>
+      <c r="AO121">
+        <v>0</v>
+      </c>
+      <c r="AP121">
+        <v>0</v>
+      </c>
+      <c r="AQ121">
+        <v>0</v>
+      </c>
+      <c r="AR121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:44">
+      <c r="B122" t="s">
+        <v>170</v>
+      </c>
+      <c r="C122">
+        <v>40.1431</v>
+      </c>
+      <c r="D122">
+        <v>47.5769</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+      <c r="AB122">
+        <v>0</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+      <c r="AF122">
+        <v>0</v>
+      </c>
+      <c r="AG122">
+        <v>0</v>
+      </c>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>0</v>
+      </c>
+      <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>0</v>
+      </c>
+      <c r="AO122">
+        <v>0</v>
+      </c>
+      <c r="AP122">
+        <v>0</v>
+      </c>
+      <c r="AQ122">
+        <v>0</v>
+      </c>
+      <c r="AR122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:44">
+      <c r="B123" t="s">
+        <v>171</v>
+      </c>
+      <c r="C123">
+        <v>49.8175</v>
+      </c>
+      <c r="D123">
+        <v>15.473</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AB123">
+        <v>0</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
+      <c r="AD123">
+        <v>0</v>
+      </c>
+      <c r="AE123">
+        <v>0</v>
+      </c>
+      <c r="AF123">
+        <v>0</v>
+      </c>
+      <c r="AG123">
+        <v>0</v>
+      </c>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>0</v>
+      </c>
+      <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>0</v>
+      </c>
+      <c r="AO123">
+        <v>0</v>
+      </c>
+      <c r="AP123">
+        <v>0</v>
+      </c>
+      <c r="AQ123">
+        <v>0</v>
+      </c>
+      <c r="AR123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:44">
+      <c r="B124" t="s">
+        <v>172</v>
+      </c>
+      <c r="C124">
+        <v>40.0691</v>
+      </c>
+      <c r="D124">
+        <v>45.0382</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>0</v>
+      </c>
+      <c r="S124">
+        <v>0</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
+      <c r="AD124">
+        <v>0</v>
+      </c>
+      <c r="AE124">
+        <v>0</v>
+      </c>
+      <c r="AF124">
+        <v>0</v>
+      </c>
+      <c r="AG124">
+        <v>0</v>
+      </c>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>0</v>
+      </c>
+      <c r="AM124">
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <v>0</v>
+      </c>
+      <c r="AO124">
+        <v>0</v>
+      </c>
+      <c r="AP124">
+        <v>0</v>
+      </c>
+      <c r="AQ124">
+        <v>0</v>
+      </c>
+      <c r="AR124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:44">
+      <c r="B125" t="s">
+        <v>173</v>
+      </c>
+      <c r="C125">
+        <v>18.7357</v>
+      </c>
+      <c r="D125">
+        <v>-70.1627</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
+      <c r="AD125">
+        <v>0</v>
+      </c>
+      <c r="AE125">
+        <v>0</v>
+      </c>
+      <c r="AF125">
+        <v>0</v>
+      </c>
+      <c r="AG125">
+        <v>0</v>
+      </c>
+      <c r="AH125">
+        <v>0</v>
+      </c>
+      <c r="AI125">
+        <v>0</v>
+      </c>
+      <c r="AJ125">
+        <v>0</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>0</v>
+      </c>
+      <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>0</v>
+      </c>
+      <c r="AO125">
+        <v>0</v>
+      </c>
+      <c r="AP125">
+        <v>0</v>
+      </c>
+      <c r="AQ125">
+        <v>0</v>
+      </c>
+      <c r="AR125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:44">
+      <c r="A126" t="s">
+        <v>108</v>
+      </c>
+      <c r="B126" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126">
+        <v>41.824</v>
+      </c>
+      <c r="D126">
+        <v>-71.4128</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
+      <c r="AD126">
+        <v>0</v>
+      </c>
+      <c r="AE126">
+        <v>0</v>
+      </c>
+      <c r="AF126">
+        <v>0</v>
+      </c>
+      <c r="AG126">
+        <v>0</v>
+      </c>
+      <c r="AH126">
+        <v>0</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>0</v>
+      </c>
+      <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>0</v>
+      </c>
+      <c r="AO126">
+        <v>0</v>
+      </c>
+      <c r="AP126">
+        <v>0</v>
+      </c>
+      <c r="AQ126">
+        <v>0</v>
+      </c>
+      <c r="AR126">
         <v>0</v>
       </c>
     </row>
